--- a/myspace/vinted/Chat Bot Vinted.xlsx
+++ b/myspace/vinted/Chat Bot Vinted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattia.forneron\Desktop\myfolder\vinted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattia.forneron\Desktop\myfolder\MyWorkFolder\myspace\vinted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD8682C-7158-4A6E-A69D-AD31D735290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8357AD-72BB-4D8B-B6C4-685771D37753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="218">
   <si>
     <t>Ordine</t>
   </si>
@@ -614,9 +614,6 @@
     <t>mercoledì, 26/02/2025</t>
   </si>
   <si>
-    <t>sabato, 01/02/2025</t>
-  </si>
-  <si>
     <t>Matera</t>
   </si>
   <si>
@@ -655,6 +652,48 @@
   <si>
     <t>31mar - 05apr</t>
   </si>
+  <si>
+    <t>venerdì, 01/03/2025</t>
+  </si>
+  <si>
+    <t>sabato, 01/03/2025</t>
+  </si>
+  <si>
+    <t>sabato, 08/03/2025</t>
+  </si>
+  <si>
+    <t>lunedì, 10/03/2025</t>
+  </si>
+  <si>
+    <t>Nantes, Francia</t>
+  </si>
+  <si>
+    <t>Cartuccia hp 953xl magenta</t>
+  </si>
+  <si>
+    <t>sous-le-soleil</t>
+  </si>
+  <si>
+    <t>martedì, 11/03/2025</t>
+  </si>
+  <si>
+    <t>Varese</t>
+  </si>
+  <si>
+    <t>Cartucce hp 62xl nero+colore</t>
+  </si>
+  <si>
+    <t>monika68lore</t>
+  </si>
+  <si>
+    <t>mercoledì, 12/03/2025</t>
+  </si>
+  <si>
+    <t>Parigi, Francia</t>
+  </si>
+  <si>
+    <t>ripley_4</t>
+  </si>
 </sst>
 </file>
 
@@ -666,11 +705,18 @@
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -907,7 +953,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1401,21 +1447,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -1621,21 +1652,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1686,248 +1702,378 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1939,198 +2085,236 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="20" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="20" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2160,6 +2344,46 @@
         <patternFill patternType="solid">
           <fgColor theme="6"/>
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2385,9 +2609,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Foglio2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2402,14 +2626,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="F8:K23" headerRowDxfId="14" totalsRowDxfId="11" headerRowBorderDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="F8:K23" headerRowDxfId="19" totalsRowDxfId="16" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codice" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nome" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prezzo di mercato" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Mio Prezzo" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Prezzo venduto" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Venduto" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codice" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nome" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prezzo di mercato" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Mio Prezzo" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Prezzo venduto" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Venduto" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="Foglio2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2616,7 +2840,7 @@
   <dimension ref="A1:C1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2628,13 +2852,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2645,7 +2869,7 @@
       <c r="B2" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="175" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2656,7 +2880,7 @@
       <c r="B3" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2667,7 +2891,7 @@
       <c r="B4" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2678,7 +2902,7 @@
       <c r="B5" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="69" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2689,7 +2913,7 @@
       <c r="B6" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2700,8 +2924,8 @@
       <c r="B7" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>195</v>
+      <c r="C7" s="67" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2711,7 +2935,7 @@
       <c r="B8" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="71" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2722,7 +2946,7 @@
       <c r="B9" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="69" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2733,7 +2957,7 @@
       <c r="B10" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2744,7 +2968,7 @@
       <c r="B11" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="69" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2755,7 +2979,7 @@
       <c r="B12" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="73" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4166,34 +4390,34 @@
       </c>
     </row>
     <row r="24" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F24" s="152" t="s">
+      <c r="F24" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
     </row>
     <row r="25" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F25" s="152" t="s">
+      <c r="F25" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
     </row>
     <row r="26" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F26" s="152" t="s">
+      <c r="F26" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
     </row>
     <row r="27" spans="6:14" ht="15.75" customHeight="1">
       <c r="F27" s="1"/>
@@ -7135,13 +7359,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -7164,20 +7388,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" thickBot="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="103"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -7196,40 +7420,40 @@
       <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="104"/>
+      <c r="L2" s="103"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -7279,10 +7503,10 @@
       <c r="J3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="81">
         <v>8</v>
       </c>
-      <c r="L3" s="105"/>
+      <c r="L3" s="104"/>
       <c r="M3" s="6"/>
       <c r="N3" s="10" t="s">
         <v>66</v>
@@ -7338,10 +7562,10 @@
       <c r="J4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="83">
+      <c r="K4" s="82">
         <v>7</v>
       </c>
-      <c r="L4" s="105"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="6"/>
       <c r="N4" s="14" t="s">
         <v>65</v>
@@ -7399,21 +7623,21 @@
       <c r="J5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="82">
         <v>4.99</v>
       </c>
-      <c r="L5" s="105"/>
+      <c r="L5" s="104"/>
       <c r="M5" s="6"/>
       <c r="N5" s="18" t="s">
         <v>76</v>
       </c>
       <c r="O5" s="19">
         <f>O8+O9</f>
-        <v>33.489999999999995</v>
+        <v>89.5</v>
       </c>
       <c r="P5" s="20">
         <f>P9+P8</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -7460,21 +7684,21 @@
       <c r="J6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="83">
+      <c r="K6" s="82">
         <v>4.99</v>
       </c>
-      <c r="L6" s="105"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="6"/>
       <c r="N6" s="21" t="s">
         <v>81</v>
       </c>
       <c r="O6" s="22">
         <f>SUMIF(J:J, "CONSEGNATO", K:K)</f>
-        <v>236.04999999999998</v>
+        <v>261.03999999999996</v>
       </c>
       <c r="P6" s="55">
         <f>COUNTIF(J:J, "CONSEGNATO")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -7521,10 +7745,10 @@
       <c r="J7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="84">
+      <c r="K7" s="83">
         <v>9.48</v>
       </c>
-      <c r="L7" s="105"/>
+      <c r="L7" s="104"/>
       <c r="M7" s="6"/>
       <c r="N7" s="21" t="s">
         <v>85</v>
@@ -7551,7 +7775,7 @@
       <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7">
@@ -7582,21 +7806,21 @@
       <c r="J8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="82">
+      <c r="K8" s="81">
         <v>7</v>
       </c>
-      <c r="L8" s="105"/>
+      <c r="L8" s="104"/>
       <c r="M8" s="6"/>
       <c r="N8" s="26" t="s">
         <v>90</v>
       </c>
       <c r="O8" s="27">
         <f>SUMIF(J:J, "DA CONSEGNARE", K:K)</f>
-        <v>33.489999999999995</v>
+        <v>89.5</v>
       </c>
       <c r="P8" s="28">
         <f>COUNTIF(J:J, "DA CONSEGNARE")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -7643,10 +7867,10 @@
       <c r="J9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="83">
+      <c r="K9" s="82">
         <v>12.33</v>
       </c>
-      <c r="L9" s="105"/>
+      <c r="L9" s="104"/>
       <c r="M9" s="6"/>
       <c r="N9" s="29" t="s">
         <v>94</v>
@@ -7673,7 +7897,7 @@
       <c r="AB9" s="6"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="80" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="23">
@@ -7704,21 +7928,21 @@
       <c r="J10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="84">
+      <c r="K10" s="83">
         <v>9</v>
       </c>
-      <c r="L10" s="105"/>
+      <c r="L10" s="104"/>
       <c r="M10" s="6"/>
       <c r="N10" s="32" t="s">
         <v>98</v>
       </c>
       <c r="O10" s="33">
         <f t="shared" ref="O10:P10" si="1">SUM(O6:O9,O4)</f>
-        <v>295.53999999999996</v>
+        <v>376.53999999999996</v>
       </c>
       <c r="P10" s="34">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -7765,21 +7989,21 @@
       <c r="J11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="82">
+      <c r="K11" s="81">
         <v>15</v>
       </c>
-      <c r="L11" s="105"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="6"/>
       <c r="N11" s="32" t="s">
         <v>102</v>
       </c>
       <c r="O11" s="33">
         <f>O10-(O4)</f>
-        <v>287.53999999999996</v>
+        <v>368.53999999999996</v>
       </c>
       <c r="P11" s="34">
         <f>P10-P4</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -7826,21 +8050,21 @@
       <c r="J12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="83">
+      <c r="K12" s="82">
         <v>19.77</v>
       </c>
-      <c r="L12" s="105"/>
+      <c r="L12" s="104"/>
       <c r="M12" s="6"/>
       <c r="N12" s="32" t="s">
         <v>188</v>
       </c>
       <c r="O12" s="33">
         <f>O11-O7</f>
-        <v>269.53999999999996</v>
+        <v>350.53999999999996</v>
       </c>
       <c r="P12" s="34">
         <f>P11-P7</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="6"/>
@@ -7866,7 +8090,7 @@
         <v>107</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" ref="D13:D20" si="2">VALUE(RIGHT(C13,10))-VALUE(RIGHT(B13,10))</f>
+        <f t="shared" ref="D13:D23" si="2">VALUE(RIGHT(C13,10))-VALUE(RIGHT(B13,10))</f>
         <v>5</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -7887,10 +8111,10 @@
       <c r="J13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="82">
         <v>24.99</v>
       </c>
-      <c r="L13" s="105"/>
+      <c r="L13" s="104"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -7933,23 +8157,23 @@
       <c r="J14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="82">
         <v>19</v>
       </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="157" t="s">
+      <c r="L14" s="104"/>
+      <c r="M14" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="161" t="s">
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="171" t="s">
         <v>112</v>
       </c>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="163" t="s">
+      <c r="Q14" s="172"/>
+      <c r="R14" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="164"/>
+      <c r="S14" s="174"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -7992,29 +8216,29 @@
       <c r="J15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="83">
         <v>6</v>
       </c>
-      <c r="L15" s="106"/>
-      <c r="M15" s="137" t="s">
+      <c r="L15" s="105"/>
+      <c r="M15" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="N15" s="134" t="s">
+      <c r="N15" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="O15" s="134" t="s">
+      <c r="O15" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="P15" s="135" t="s">
+      <c r="P15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="135" t="s">
+      <c r="Q15" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="135" t="s">
+      <c r="R15" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="138" t="s">
+      <c r="S15" s="131" t="s">
         <v>119</v>
       </c>
       <c r="T15" s="6"/>
@@ -8028,7 +8252,7 @@
       <c r="AB15" s="6"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="79" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -8059,32 +8283,32 @@
       <c r="J16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="82">
+      <c r="K16" s="81">
         <v>8.5</v>
       </c>
-      <c r="L16" s="105"/>
-      <c r="M16" s="155">
+      <c r="L16" s="104"/>
+      <c r="M16" s="165">
         <v>1</v>
       </c>
-      <c r="N16" s="131" t="s">
+      <c r="N16" s="124" t="s">
         <v>123</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="P16" s="132">
-        <f t="shared" ref="P16:P21" si="3">SUMIFS(K:K, A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
+      <c r="P16" s="125">
+        <f t="shared" ref="P16:P22" si="3">SUMIFS(K:K, A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
         <v>26.46</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" ref="Q16:Q21" si="4">COUNTIFS(A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
+        <f t="shared" ref="Q16:Q22" si="4">COUNTIFS(A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
         <v>4</v>
       </c>
-      <c r="R16" s="133">
+      <c r="R16" s="126">
         <f>P16/Q16</f>
         <v>6.6150000000000002</v>
       </c>
-      <c r="S16" s="139">
+      <c r="S16" s="132">
         <f t="shared" ref="S16:S19" si="5">P16/6</f>
         <v>4.41</v>
       </c>
@@ -8130,30 +8354,30 @@
       <c r="J17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="82">
         <v>8</v>
       </c>
-      <c r="L17" s="105"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="79" t="s">
+      <c r="L17" s="104"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="78" t="s">
         <v>129</v>
       </c>
       <c r="O17" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="89">
+      <c r="P17" s="88">
         <f t="shared" si="3"/>
         <v>28.33</v>
       </c>
-      <c r="Q17" s="90">
+      <c r="Q17" s="89">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R17" s="91">
-        <f t="shared" ref="R17:R21" si="6">P17/Q17</f>
+      <c r="R17" s="90">
+        <f t="shared" ref="R17:R22" si="6">P17/Q17</f>
         <v>9.4433333333333334</v>
       </c>
-      <c r="S17" s="140">
+      <c r="S17" s="133">
         <f t="shared" si="5"/>
         <v>4.7216666666666667</v>
       </c>
@@ -8199,12 +8423,12 @@
       <c r="J18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="83">
+      <c r="K18" s="82">
         <v>18</v>
       </c>
-      <c r="L18" s="105"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="78" t="s">
+      <c r="L18" s="104"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="77" t="s">
         <v>136</v>
       </c>
       <c r="O18" s="12" t="s">
@@ -8222,7 +8446,7 @@
         <f t="shared" si="6"/>
         <v>16.951999999999998</v>
       </c>
-      <c r="S18" s="141">
+      <c r="S18" s="134">
         <f t="shared" si="5"/>
         <v>14.126666666666665</v>
       </c>
@@ -8237,7 +8461,7 @@
       <c r="AB18" s="6"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="80" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -8268,30 +8492,30 @@
       <c r="J19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="84">
+      <c r="K19" s="83">
         <v>45</v>
       </c>
-      <c r="L19" s="105"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="79" t="s">
+      <c r="L19" s="104"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="78" t="s">
         <v>142</v>
       </c>
       <c r="O19" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="89">
+      <c r="P19" s="88">
         <f t="shared" si="3"/>
         <v>79.5</v>
       </c>
-      <c r="Q19" s="90">
+      <c r="Q19" s="89">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R19" s="91">
+      <c r="R19" s="90">
         <f t="shared" si="6"/>
         <v>19.875</v>
       </c>
-      <c r="S19" s="140">
+      <c r="S19" s="133">
         <f t="shared" si="5"/>
         <v>13.25</v>
       </c>
@@ -8337,30 +8561,30 @@
       <c r="J20" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="85">
+      <c r="K20" s="84">
         <v>10</v>
       </c>
-      <c r="L20" s="136"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="120" t="s">
+      <c r="L20" s="129"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="O20" s="121" t="s">
+      <c r="O20" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="122">
+      <c r="P20" s="117">
         <f t="shared" si="3"/>
         <v>59.989999999999995</v>
       </c>
-      <c r="Q20" s="121">
+      <c r="Q20" s="116">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R20" s="123">
+      <c r="R20" s="118">
         <f t="shared" si="6"/>
         <v>19.996666666666666</v>
       </c>
-      <c r="S20" s="142">
+      <c r="S20" s="135">
         <f>P20/6</f>
         <v>9.9983333333333331</v>
       </c>
@@ -8378,55 +8602,60 @@
       <c r="A21" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100" t="s">
+      <c r="C21" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="57">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="98" t="s">
+      <c r="G21" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="98" t="s">
+      <c r="I21" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="99" t="s">
+      <c r="J21" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="101">
+      <c r="K21" s="100">
         <v>25</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="154">
+      <c r="M21" s="164">
         <v>2</v>
       </c>
-      <c r="N21" s="124" t="s">
+      <c r="N21" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="125" t="s">
-        <v>202</v>
-      </c>
-      <c r="P21" s="126">
+      <c r="O21" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="P21" s="153">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
-      <c r="Q21" s="127">
+      <c r="Q21" s="155">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R21" s="126">
+      <c r="R21" s="153">
         <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
-      <c r="S21" s="143">
+      <c r="S21" s="156">
         <f>P21/6</f>
         <v>1.4166666666666667</v>
       </c>
@@ -8441,90 +8670,112 @@
       <c r="AB21" s="6"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="145">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E22" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="108" t="s">
+      <c r="G22" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="108">
+        <v>24.99</v>
+      </c>
+      <c r="L22" s="106"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="P22" s="154">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="Q22" s="157">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="158">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="S22" s="159">
+        <f>P22/6</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A23" s="151" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="149">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E23" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="108" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="108" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="108" t="s">
+      <c r="F23" s="147" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="147" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="147" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="108" t="s">
+      <c r="J23" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="110">
-        <v>24.99</v>
-      </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="O22" s="117" t="s">
+      <c r="K23" s="150">
+        <v>8.5</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="109" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="144"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A23" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23" s="111">
-        <v>8.5</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="114" t="s">
-        <v>136</v>
-      </c>
-      <c r="O23" s="118" t="s">
-        <v>201</v>
-      </c>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="115"/>
-      <c r="S23" s="145"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="136"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
@@ -8535,29 +8786,48 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A24" s="161" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="146" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="146" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="146" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="152">
+        <v>19</v>
+      </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="116" t="s">
+      <c r="M24" s="165"/>
+      <c r="N24" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="O24" s="119" t="s">
-        <v>203</v>
+      <c r="O24" s="114" t="s">
+        <v>202</v>
       </c>
       <c r="P24" s="61"/>
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
-      <c r="S24" s="86"/>
+      <c r="S24" s="85"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
@@ -8569,28 +8839,47 @@
       <c r="AB24" s="6"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="A25" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="160">
+        <v>52</v>
+      </c>
       <c r="L25" s="6"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="128" t="s">
+      <c r="M25" s="166"/>
+      <c r="N25" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="O25" s="129" t="s">
-        <v>204</v>
-      </c>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="146"/>
+      <c r="O25" s="122" t="s">
+        <v>203</v>
+      </c>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="137"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
@@ -8602,41 +8891,60 @@
       <c r="AB25" s="6"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="A26" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="160">
+        <v>10</v>
+      </c>
       <c r="L26" s="6"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="150">
+      <c r="M26" s="142"/>
+      <c r="N26" s="141">
         <f>COUNTA(N16:N20)</f>
         <v>5</v>
       </c>
-      <c r="O26" s="147">
+      <c r="O26" s="138">
         <f ca="1">TODAY()-VALUE(RIGHT(B3,10))-3</f>
-        <v>33</v>
-      </c>
-      <c r="P26" s="148">
-        <f>SUM(P16:P21)</f>
-        <v>287.53999999999996</v>
-      </c>
-      <c r="Q26" s="147">
+        <v>39</v>
+      </c>
+      <c r="P26" s="139">
+        <f>SUM(P16:P22)</f>
+        <v>368.53999999999996</v>
+      </c>
+      <c r="Q26" s="138">
         <f>SUM(Q16:Q21)</f>
         <v>20</v>
       </c>
-      <c r="R26" s="148">
+      <c r="R26" s="139">
         <f>P26/Q26</f>
-        <v>14.376999999999999</v>
-      </c>
-      <c r="S26" s="149">
+        <v>18.427</v>
+      </c>
+      <c r="S26" s="140">
         <f ca="1">P26/O26</f>
-        <v>8.7133333333333329</v>
+        <v>9.4497435897435889</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -36903,22 +37211,24 @@
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="M16:M20"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="A3:K23">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="A3:K25 A26">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$J3="CONSEGNATO A MANO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$J3="ANNULLATO"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:K26">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$J3="DA CONSEGNARE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$J3="CONSEGNATO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$J3="DA RITIRARE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>$J3="CONSEGNATO"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>$J3="DA CONSEGNARE"</formula>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$J3="ANNULLATO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -36946,116 +37256,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="93">
+      <c r="B2" s="92">
         <v>27.99</v>
       </c>
-      <c r="C2" s="95">
+      <c r="C2" s="94">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="93">
+      <c r="B3" s="92">
         <v>27.99</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="94">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="92">
         <v>27.99</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="94">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B5" s="92">
         <v>32.99</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="95">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="92">
         <v>32.99</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="95">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="92">
         <v>27.99</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="94">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="92">
         <v>27.99</v>
       </c>
-      <c r="C8" s="95">
+      <c r="C8" s="94">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="93">
         <v>29.99</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="96">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="76" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="76" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/myspace/vinted/Chat Bot Vinted.xlsx
+++ b/myspace/vinted/Chat Bot Vinted.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattia.forneron\Desktop\myfolder\MyWorkFolder\myspace\vinted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8357AD-72BB-4D8B-B6C4-685771D37753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C1BAA4-C2F4-486D-B66C-52BCB1D0ED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1440" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
-    <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
+    <sheet name="Frasi" sheetId="1" r:id="rId1"/>
+    <sheet name="Dinofroz List" sheetId="2" r:id="rId2"/>
+    <sheet name="Spedizioni" sheetId="3" r:id="rId3"/>
+    <sheet name="Cartucce List" sheetId="4" r:id="rId4"/>
+    <sheet name="Spiegazione" sheetId="5" r:id="rId5"/>
+    <sheet name="Allenamento giornaliero" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="237">
   <si>
     <t>Ordine</t>
   </si>
@@ -694,22 +696,99 @@
   <si>
     <t>ripley_4</t>
   </si>
+  <si>
+    <t>Inoltre come venditore offro il servizio gratuito di prova video riguardante la creazione del pacchetto e
+ spedirei domani mattina presto prima di andare a lavoro Io ho la stampante a disposizione per l'etichetta
+ fino alle 4:30pm Attendo un tuo riscontro😊</t>
+  </si>
+  <si>
+    <t>Ti interessa avere una prova video della creazione del pacco? Posso se vuoi linkarti il video visibile soltanto per te. Se ti interessa fammi sapere  che provvederò al caricamento😊​</t>
+  </si>
+  <si>
+    <t>Le cartucce della stampante le ho prese in un
+ mercatino dalle parti di torino, adesso non ricordo
+ bene quando però metà anno scorso circa.
+ Questo signore le svendeva a quanto dir suo perchè era vecchio e si era stufato della stampante che tanto non gli serviva più.
+Le metteva pochissimo prezzo e avendo la stampante
+ che corrispondeva a quelle cartucce pensai che era un affare non pensando che purtroppo le cartucce avevano
+ una scadenza. 
+Allora pensai che per lasciarle lì che tanto noi la stampante la usiamo si ma non in quelle quantità me ne tengo un po' da parte e le altre le faccio fuori. Alla fine aiuto altra gente mettendole a molto meno e mi entra qualcosa in tasca.
+Dopodichè ho capito che poteva diventare un piccolo business.</t>
+  </si>
+  <si>
+    <t>15 possedute per ora</t>
+  </si>
+  <si>
+    <t>9 vendute</t>
+  </si>
+  <si>
+    <t>6 da vendere</t>
+  </si>
+  <si>
+    <t>Allenamento</t>
+  </si>
+  <si>
+    <t>Giorno</t>
+  </si>
+  <si>
+    <t>Estensione dei Tricipiti 
+con manubrio da in piedi</t>
+  </si>
+  <si>
+    <t>Add_2</t>
+  </si>
+  <si>
+    <t>Add_1</t>
+  </si>
+  <si>
+    <t>DumbBell Curl</t>
+  </si>
+  <si>
+    <t>Bic_1</t>
+  </si>
+  <si>
+    <t>Tric_1</t>
+  </si>
+  <si>
+    <t>Pet_1</t>
+  </si>
+  <si>
+    <t>Usando tavola per flessioni
+uso versione esterna rossa per spalle</t>
+  </si>
+  <si>
+    <t>Crunch Inverso</t>
+  </si>
+  <si>
+    <t>Sollevamento gambe</t>
+  </si>
+  <si>
+    <t>Tot Add</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="173" formatCode="dddd\,\ dd/mm/yy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,7 +892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,8 +1031,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1833,247 +1930,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,236 +2198,297 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="20" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="20" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2344,46 +2518,6 @@
         <patternFill patternType="solid">
           <fgColor theme="6"/>
           <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2609,11 +2743,16 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Foglio2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2625,15 +2764,325 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63649</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1" descr="esercizi bicipiti10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9E67BF-8752-38FA-7ED6-8483435B071B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7867650" y="2600325"/>
+          <a:ext cx="2437279" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2" descr="esercizi tricipiti17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81A9ABC-2750-3A44-67B5-8C13FAC07B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7839075" y="209551"/>
+          <a:ext cx="2428875" cy="979646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66872</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3" descr="esercizi pettorali petto21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED01AA8-F20F-A8F1-3FA6-B2158F2652E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7848600" y="1390650"/>
+          <a:ext cx="2463362" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25118</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 4" descr="esercizi addome2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183E8FC9-6AFA-EA71-0E38-5FAA02F408EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7705725" y="3886201"/>
+          <a:ext cx="2370173" cy="1019174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>110346</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Immagine 6" descr="esercizi addome33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DCEABE-C591-8345-9210-521E0D5EA7AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7667625" y="5162551"/>
+          <a:ext cx="2497311" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="F8:K23" headerRowDxfId="19" totalsRowDxfId="16" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="F8:K23" headerRowDxfId="14" totalsRowDxfId="11" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codice" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nome" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prezzo di mercato" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Mio Prezzo" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Prezzo venduto" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Venduto" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codice" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nome" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prezzo di mercato" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Mio Prezzo" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Prezzo venduto" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Venduto" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Foglio2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2837,10 +3286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1004"/>
+  <dimension ref="A1:C1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2852,13 +3301,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="69" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2869,7 +3318,7 @@
       <c r="B2" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="156" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2880,111 +3329,128 @@
       <c r="B3" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="62">
+      <c r="A4" s="65">
         <v>3</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A5" s="64">
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="165" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="164">
+        <v>5</v>
+      </c>
+      <c r="B6" s="157" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="158" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A6" s="65">
-        <v>5</v>
-      </c>
-      <c r="B6" s="65" t="s">
+    <row r="7" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A7" s="159">
+        <v>6</v>
+      </c>
+      <c r="B7" s="159" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C7" s="160" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="63">
-        <v>6</v>
-      </c>
-      <c r="B7" s="63" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="167">
+        <v>7</v>
+      </c>
+      <c r="B8" s="169" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C8" s="166" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="168"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="166" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="62">
-        <v>7</v>
-      </c>
-      <c r="B8" s="62" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="63">
+        <v>8</v>
+      </c>
+      <c r="B10" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C10" s="66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="64">
-        <v>8</v>
-      </c>
-      <c r="B9" s="64" t="s">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="164">
+        <v>9</v>
+      </c>
+      <c r="B11" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C11" s="158" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A10" s="65">
-        <v>9</v>
-      </c>
-      <c r="B10" s="65" t="s">
+    <row r="12" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A12" s="159">
+        <v>10</v>
+      </c>
+      <c r="B12" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C12" s="161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="64">
-        <v>10</v>
-      </c>
-      <c r="B11" s="64" t="s">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A13" s="164">
+        <v>11</v>
+      </c>
+      <c r="B13" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C13" s="158" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="66">
-        <v>11</v>
-      </c>
-      <c r="B12" s="66" t="s">
+    <row r="14" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="64">
+        <v>12</v>
+      </c>
+      <c r="B14" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C14" s="163" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" thickTop="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15" customHeight="1" thickTop="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -3964,7 +4430,12 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3975,7 +4446,7 @@
   <dimension ref="F1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4390,34 +4861,34 @@
       </c>
     </row>
     <row r="24" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F24" s="162" t="s">
+      <c r="F24" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="172"/>
     </row>
     <row r="25" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F25" s="162" t="s">
+      <c r="F25" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="172"/>
     </row>
     <row r="26" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F26" s="162" t="s">
+      <c r="F26" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="172"/>
     </row>
     <row r="27" spans="6:14" ht="15.75" customHeight="1">
       <c r="F27" s="1"/>
@@ -7359,8 +7830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7388,20 +7859,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" thickBot="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="96"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -7420,40 +7891,40 @@
       <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="103"/>
+      <c r="L2" s="97"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -7503,10 +7974,10 @@
       <c r="J3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="81">
+      <c r="K3" s="75">
         <v>8</v>
       </c>
-      <c r="L3" s="104"/>
+      <c r="L3" s="98"/>
       <c r="M3" s="6"/>
       <c r="N3" s="10" t="s">
         <v>66</v>
@@ -7562,10 +8033,10 @@
       <c r="J4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="76">
         <v>7</v>
       </c>
-      <c r="L4" s="104"/>
+      <c r="L4" s="98"/>
       <c r="M4" s="6"/>
       <c r="N4" s="14" t="s">
         <v>65</v>
@@ -7623,21 +8094,21 @@
       <c r="J5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="76">
         <v>4.99</v>
       </c>
-      <c r="L5" s="104"/>
+      <c r="L5" s="98"/>
       <c r="M5" s="6"/>
       <c r="N5" s="18" t="s">
         <v>76</v>
       </c>
       <c r="O5" s="19">
         <f>O8+O9</f>
-        <v>89.5</v>
+        <v>29</v>
       </c>
       <c r="P5" s="20">
         <f>P9+P8</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -7684,21 +8155,21 @@
       <c r="J6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="76">
         <v>4.99</v>
       </c>
-      <c r="L6" s="104"/>
+      <c r="L6" s="98"/>
       <c r="M6" s="6"/>
       <c r="N6" s="21" t="s">
         <v>81</v>
       </c>
       <c r="O6" s="22">
         <f>SUMIF(J:J, "CONSEGNATO", K:K)</f>
-        <v>261.03999999999996</v>
+        <v>321.53999999999996</v>
       </c>
       <c r="P6" s="55">
         <f>COUNTIF(J:J, "CONSEGNATO")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -7745,10 +8216,10 @@
       <c r="J7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="83">
+      <c r="K7" s="77">
         <v>9.48</v>
       </c>
-      <c r="L7" s="104"/>
+      <c r="L7" s="98"/>
       <c r="M7" s="6"/>
       <c r="N7" s="21" t="s">
         <v>85</v>
@@ -7775,7 +8246,7 @@
       <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="73" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7">
@@ -7806,21 +8277,21 @@
       <c r="J8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="81">
+      <c r="K8" s="75">
         <v>7</v>
       </c>
-      <c r="L8" s="104"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="6"/>
       <c r="N8" s="26" t="s">
         <v>90</v>
       </c>
       <c r="O8" s="27">
         <f>SUMIF(J:J, "DA CONSEGNARE", K:K)</f>
-        <v>89.5</v>
+        <v>29</v>
       </c>
       <c r="P8" s="28">
         <f>COUNTIF(J:J, "DA CONSEGNARE")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -7867,10 +8338,10 @@
       <c r="J9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="82">
+      <c r="K9" s="76">
         <v>12.33</v>
       </c>
-      <c r="L9" s="104"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="6"/>
       <c r="N9" s="29" t="s">
         <v>94</v>
@@ -7897,7 +8368,7 @@
       <c r="AB9" s="6"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="74" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="23">
@@ -7928,10 +8399,10 @@
       <c r="J10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="83">
+      <c r="K10" s="77">
         <v>9</v>
       </c>
-      <c r="L10" s="104"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="6"/>
       <c r="N10" s="32" t="s">
         <v>98</v>
@@ -7989,10 +8460,10 @@
       <c r="J11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="81">
+      <c r="K11" s="75">
         <v>15</v>
       </c>
-      <c r="L11" s="104"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="6"/>
       <c r="N11" s="32" t="s">
         <v>102</v>
@@ -8050,10 +8521,10 @@
       <c r="J12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="76">
         <v>19.77</v>
       </c>
-      <c r="L12" s="104"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="6"/>
       <c r="N12" s="32" t="s">
         <v>188</v>
@@ -8111,10 +8582,10 @@
       <c r="J13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="76">
         <v>24.99</v>
       </c>
-      <c r="L13" s="104"/>
+      <c r="L13" s="98"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -8157,23 +8628,23 @@
       <c r="J14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="82">
+      <c r="K14" s="76">
         <v>19</v>
       </c>
-      <c r="L14" s="104"/>
-      <c r="M14" s="167" t="s">
+      <c r="L14" s="98"/>
+      <c r="M14" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="171" t="s">
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="180" t="s">
         <v>112</v>
       </c>
-      <c r="Q14" s="172"/>
-      <c r="R14" s="173" t="s">
+      <c r="Q14" s="181"/>
+      <c r="R14" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="174"/>
+      <c r="S14" s="183"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -8216,29 +8687,29 @@
       <c r="J15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="83">
+      <c r="K15" s="77">
         <v>6</v>
       </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="130" t="s">
+      <c r="L15" s="99"/>
+      <c r="M15" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="N15" s="127" t="s">
+      <c r="N15" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="O15" s="127" t="s">
+      <c r="O15" s="121" t="s">
         <v>189</v>
       </c>
-      <c r="P15" s="128" t="s">
+      <c r="P15" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="128" t="s">
+      <c r="Q15" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="128" t="s">
+      <c r="R15" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="131" t="s">
+      <c r="S15" s="125" t="s">
         <v>119</v>
       </c>
       <c r="T15" s="6"/>
@@ -8252,7 +8723,7 @@
       <c r="AB15" s="6"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="73" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -8283,20 +8754,20 @@
       <c r="J16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="75">
         <v>8.5</v>
       </c>
-      <c r="L16" s="104"/>
-      <c r="M16" s="165">
+      <c r="L16" s="98"/>
+      <c r="M16" s="174">
         <v>1</v>
       </c>
-      <c r="N16" s="124" t="s">
+      <c r="N16" s="118" t="s">
         <v>123</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="P16" s="125">
+      <c r="P16" s="119">
         <f t="shared" ref="P16:P22" si="3">SUMIFS(K:K, A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
         <v>26.46</v>
       </c>
@@ -8304,11 +8775,11 @@
         <f t="shared" ref="Q16:Q22" si="4">COUNTIFS(A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
         <v>4</v>
       </c>
-      <c r="R16" s="126">
+      <c r="R16" s="120">
         <f>P16/Q16</f>
         <v>6.6150000000000002</v>
       </c>
-      <c r="S16" s="132">
+      <c r="S16" s="126">
         <f t="shared" ref="S16:S19" si="5">P16/6</f>
         <v>4.41</v>
       </c>
@@ -8354,30 +8825,30 @@
       <c r="J17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="82">
+      <c r="K17" s="76">
         <v>8</v>
       </c>
-      <c r="L17" s="104"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="78" t="s">
+      <c r="L17" s="98"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="72" t="s">
         <v>129</v>
       </c>
       <c r="O17" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="88">
+      <c r="P17" s="82">
         <f t="shared" si="3"/>
         <v>28.33</v>
       </c>
-      <c r="Q17" s="89">
+      <c r="Q17" s="83">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R17" s="90">
+      <c r="R17" s="84">
         <f t="shared" ref="R17:R22" si="6">P17/Q17</f>
         <v>9.4433333333333334</v>
       </c>
-      <c r="S17" s="133">
+      <c r="S17" s="127">
         <f t="shared" si="5"/>
         <v>4.7216666666666667</v>
       </c>
@@ -8423,12 +8894,12 @@
       <c r="J18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="76">
         <v>18</v>
       </c>
-      <c r="L18" s="104"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="77" t="s">
+      <c r="L18" s="98"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="71" t="s">
         <v>136</v>
       </c>
       <c r="O18" s="12" t="s">
@@ -8446,7 +8917,7 @@
         <f t="shared" si="6"/>
         <v>16.951999999999998</v>
       </c>
-      <c r="S18" s="134">
+      <c r="S18" s="128">
         <f t="shared" si="5"/>
         <v>14.126666666666665</v>
       </c>
@@ -8461,7 +8932,7 @@
       <c r="AB18" s="6"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="74" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -8492,30 +8963,30 @@
       <c r="J19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="83">
+      <c r="K19" s="77">
         <v>45</v>
       </c>
-      <c r="L19" s="104"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="78" t="s">
+      <c r="L19" s="98"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="72" t="s">
         <v>142</v>
       </c>
       <c r="O19" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="88">
+      <c r="P19" s="82">
         <f t="shared" si="3"/>
         <v>79.5</v>
       </c>
-      <c r="Q19" s="89">
+      <c r="Q19" s="83">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R19" s="90">
+      <c r="R19" s="84">
         <f t="shared" si="6"/>
         <v>19.875</v>
       </c>
-      <c r="S19" s="133">
+      <c r="S19" s="127">
         <f t="shared" si="5"/>
         <v>13.25</v>
       </c>
@@ -8561,30 +9032,30 @@
       <c r="J20" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="84">
+      <c r="K20" s="78">
         <v>10</v>
       </c>
-      <c r="L20" s="129"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="115" t="s">
+      <c r="L20" s="123"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="O20" s="116" t="s">
+      <c r="O20" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="117">
+      <c r="P20" s="111">
         <f t="shared" si="3"/>
         <v>59.989999999999995</v>
       </c>
-      <c r="Q20" s="116">
+      <c r="Q20" s="110">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R20" s="118">
+      <c r="R20" s="112">
         <f t="shared" si="6"/>
         <v>19.996666666666666</v>
       </c>
-      <c r="S20" s="135">
+      <c r="S20" s="129">
         <f>P20/6</f>
         <v>9.9983333333333331</v>
       </c>
@@ -8602,60 +9073,60 @@
       <c r="A21" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="92" t="s">
         <v>204</v>
       </c>
       <c r="D21" s="57">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="97" t="s">
+      <c r="G21" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="97" t="s">
+      <c r="H21" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="97" t="s">
+      <c r="I21" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="98" t="s">
+      <c r="J21" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="100">
+      <c r="K21" s="94">
         <v>25</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="164">
+      <c r="M21" s="173">
         <v>2</v>
       </c>
-      <c r="N21" s="119" t="s">
+      <c r="N21" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="120" t="s">
+      <c r="O21" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="P21" s="153">
+      <c r="P21" s="147">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
-      <c r="Q21" s="155">
+      <c r="Q21" s="149">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R21" s="153">
+      <c r="R21" s="147">
         <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
-      <c r="S21" s="156">
+      <c r="S21" s="150">
         <f>P21/6</f>
         <v>1.4166666666666667</v>
       </c>
@@ -8670,112 +9141,112 @@
       <c r="AB21" s="6"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="145">
+      <c r="D22" s="139">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="101" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="107" t="s">
+      <c r="G22" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="107" t="s">
+      <c r="H22" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="107" t="s">
+      <c r="I22" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="144" t="s">
+      <c r="J22" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="108">
+      <c r="K22" s="102">
         <v>24.99</v>
       </c>
-      <c r="L22" s="106"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="111" t="s">
+      <c r="L22" s="100"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="O22" s="112" t="s">
+      <c r="O22" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="P22" s="154">
+      <c r="P22" s="148">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="Q22" s="157">
+      <c r="Q22" s="151">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R22" s="158">
+      <c r="R22" s="152">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="S22" s="159">
+      <c r="S22" s="153">
         <f>P22/6</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="151" t="s">
+      <c r="A23" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="142" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="149">
+      <c r="D23" s="143">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E23" s="147" t="s">
+      <c r="E23" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="147" t="s">
+      <c r="F23" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="G23" s="147" t="s">
+      <c r="G23" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="147" t="s">
+      <c r="H23" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="I23" s="147" t="s">
+      <c r="I23" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="147" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23" s="150">
+      <c r="J23" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="144">
         <v>8.5</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="109" t="s">
+      <c r="M23" s="174"/>
+      <c r="N23" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="O23" s="113" t="s">
+      <c r="O23" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="136"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="130"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
@@ -8787,47 +9258,47 @@
       <c r="AB23" s="6"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="140" t="s">
         <v>207</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="146" t="s">
+      <c r="E24" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="146" t="s">
+      <c r="F24" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="146" t="s">
+      <c r="G24" s="140" t="s">
         <v>209</v>
       </c>
-      <c r="H24" s="146" t="s">
+      <c r="H24" s="140" t="s">
         <v>210</v>
       </c>
-      <c r="I24" s="146" t="s">
+      <c r="I24" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="146" t="s">
+      <c r="J24" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="152">
+      <c r="K24" s="146">
         <v>19</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="111" t="s">
+      <c r="M24" s="174"/>
+      <c r="N24" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="O24" s="114" t="s">
+      <c r="O24" s="108" t="s">
         <v>202</v>
       </c>
       <c r="P24" s="61"/>
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
-      <c r="S24" s="85"/>
+      <c r="S24" s="79"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
@@ -8839,47 +9310,47 @@
       <c r="AB24" s="6"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="106" t="s">
         <v>211</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="112" t="s">
+      <c r="E25" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="G25" s="112" t="s">
+      <c r="G25" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="H25" s="112" t="s">
+      <c r="H25" s="106" t="s">
         <v>214</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="160">
+      <c r="J25" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="154">
         <v>52</v>
       </c>
       <c r="L25" s="6"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="121" t="s">
+      <c r="M25" s="175"/>
+      <c r="N25" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="O25" s="122" t="s">
+      <c r="O25" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="137"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="131"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
@@ -8891,7 +9362,7 @@
       <c r="AB25" s="6"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="106" t="s">
         <v>199</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -8917,34 +9388,34 @@
       <c r="J26" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="K26" s="160">
+      <c r="K26" s="154">
         <v>10</v>
       </c>
       <c r="L26" s="6"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="141">
-        <f>COUNTA(N16:N20)</f>
-        <v>5</v>
-      </c>
-      <c r="O26" s="138">
+      <c r="M26" s="136"/>
+      <c r="N26" s="135">
+        <f>COUNTA(N16:N25)</f>
+        <v>10</v>
+      </c>
+      <c r="O26" s="132">
         <f ca="1">TODAY()-VALUE(RIGHT(B3,10))-3</f>
-        <v>39</v>
-      </c>
-      <c r="P26" s="139">
+        <v>42</v>
+      </c>
+      <c r="P26" s="133">
         <f>SUM(P16:P22)</f>
         <v>368.53999999999996</v>
       </c>
-      <c r="Q26" s="138">
+      <c r="Q26" s="132">
         <f>SUM(Q16:Q21)</f>
         <v>20</v>
       </c>
-      <c r="R26" s="139">
+      <c r="R26" s="133">
         <f>P26/Q26</f>
         <v>18.427</v>
       </c>
-      <c r="S26" s="140">
+      <c r="S26" s="134">
         <f ca="1">P26/O26</f>
-        <v>9.4497435897435889</v>
+        <v>8.7747619047619043</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -37211,24 +37682,24 @@
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="M16:M20"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A3:K25 A26">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$J3="CONSEGNATO A MANO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:K26">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$J3="DA CONSEGNARE"</formula>
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>$J3="ANNULLATO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>$J3="DA RITIRARE"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>$J3="CONSEGNATO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$J3="DA RITIRARE"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$J3="ANNULLATO"</formula>
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>$J3="DA CONSEGNARE"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -37256,117 +37727,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="85" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="92">
+      <c r="B2" s="86">
         <v>27.99</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="92">
+      <c r="B3" s="86">
         <v>27.99</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="92">
+      <c r="B4" s="86">
         <v>27.99</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="86">
         <v>32.99</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="89">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="86">
         <v>32.99</v>
       </c>
-      <c r="C6" s="95">
+      <c r="C6" s="89">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="86">
         <v>27.99</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="86">
         <v>27.99</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="87">
         <v>29.99</v>
       </c>
-      <c r="C9" s="96">
+      <c r="C9" s="90">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="70" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="70" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84609260-6E36-4620-A053-8B0FC32DF137}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="184" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="185"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="185"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1">
+      <c r="A4" s="185"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+    </row>
+    <row r="5" spans="1:5" ht="120" customHeight="1">
+      <c r="A5" s="185"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D40B8E-1E1B-4615-BB23-B73A212FDFDB}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="201" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="199" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="200" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="200" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="200" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="200" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="200" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="200" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" s="190" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2" s="189" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" s="189"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="194">
+        <v>45725</v>
+      </c>
+      <c r="B3" s="195">
+        <v>40</v>
+      </c>
+      <c r="C3" s="197">
+        <v>0</v>
+      </c>
+      <c r="D3" s="197">
+        <v>0</v>
+      </c>
+      <c r="E3" s="197">
+        <v>0</v>
+      </c>
+      <c r="F3" s="197">
+        <v>0</v>
+      </c>
+      <c r="G3" s="197">
+        <v>0</v>
+      </c>
+      <c r="K3" s="191"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="194">
+        <v>45726</v>
+      </c>
+      <c r="B4" s="195">
+        <v>40</v>
+      </c>
+      <c r="C4" s="195">
+        <v>40</v>
+      </c>
+      <c r="D4" s="195">
+        <v>40</v>
+      </c>
+      <c r="E4" s="195">
+        <v>40</v>
+      </c>
+      <c r="F4" s="195">
+        <v>40</v>
+      </c>
+      <c r="G4" s="195">
+        <f>E4+F4</f>
+        <v>80</v>
+      </c>
+      <c r="K4" s="191"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="194">
+        <v>45727</v>
+      </c>
+      <c r="B5" s="195">
+        <v>20</v>
+      </c>
+      <c r="C5" s="195">
+        <v>20</v>
+      </c>
+      <c r="D5" s="195">
+        <v>20</v>
+      </c>
+      <c r="E5" s="195">
+        <v>20</v>
+      </c>
+      <c r="F5" s="195">
+        <v>20</v>
+      </c>
+      <c r="G5" s="195">
+        <f t="shared" ref="G5:G7" si="0">E5+F5</f>
+        <v>40</v>
+      </c>
+      <c r="K5" s="191"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="196">
+        <v>45728</v>
+      </c>
+      <c r="B6" s="197">
+        <v>0</v>
+      </c>
+      <c r="C6" s="197">
+        <v>0</v>
+      </c>
+      <c r="D6" s="197">
+        <v>0</v>
+      </c>
+      <c r="E6" s="197">
+        <v>0</v>
+      </c>
+      <c r="F6" s="197">
+        <v>0</v>
+      </c>
+      <c r="G6" s="197">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="194">
+        <v>45729</v>
+      </c>
+      <c r="B7" s="195">
+        <v>20</v>
+      </c>
+      <c r="C7" s="195">
+        <v>20</v>
+      </c>
+      <c r="D7" s="195">
+        <v>20</v>
+      </c>
+      <c r="E7" s="195">
+        <v>20</v>
+      </c>
+      <c r="F7" s="195">
+        <v>20</v>
+      </c>
+      <c r="G7" s="195">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="198">
+        <v>45730</v>
+      </c>
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="K8" s="192" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" s="189" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="189"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="198">
+        <v>45731</v>
+      </c>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="198">
+        <v>45732</v>
+      </c>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="198">
+        <v>45733</v>
+      </c>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="198">
+        <v>45734</v>
+      </c>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="198">
+        <v>45735</v>
+      </c>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="198">
+        <v>45736</v>
+      </c>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="198">
+        <v>45737</v>
+      </c>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="K15" s="192" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="188" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" s="185"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="198">
+        <v>45738</v>
+      </c>
+      <c r="B16" s="193"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="198">
+        <v>45739</v>
+      </c>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="N17" s="186"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="198">
+        <v>45740</v>
+      </c>
+      <c r="B18" s="193"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="N18" s="186"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="N19" s="186"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="N20" s="186"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="K21" s="192" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="188" t="s">
+        <v>234</v>
+      </c>
+      <c r="M21" s="188"/>
+      <c r="N21" s="186"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="N27" s="187"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="K28" s="187" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" s="188" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" s="188"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="L2:M5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L8:M12"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/myspace/vinted/Chat Bot Vinted.xlsx
+++ b/myspace/vinted/Chat Bot Vinted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattia.forneron\Desktop\myfolder\MyWorkFolder\myspace\vinted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C1BAA4-C2F4-486D-B66C-52BCB1D0ED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B00294-3842-4D25-A568-27423BD00809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1440" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frasi" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Spiegazione" sheetId="5" r:id="rId5"/>
     <sheet name="Allenamento giornaliero" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Spedizioni!$A$2:$K$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="273">
   <si>
     <t>Ordine</t>
   </si>
@@ -122,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">TSINTAOSAURUS  </t>
-  </si>
-  <si>
-    <t>"Perdita"</t>
   </si>
   <si>
     <t>37/72</t>
@@ -250,9 +250,6 @@
     <t>N°</t>
   </si>
   <si>
-    <t>Carnaxide, Portogsllo</t>
-  </si>
-  <si>
     <t>T-shirt Loose Fit Snoopy</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>Cartuccia nero</t>
-  </si>
-  <si>
     <t>solelibero</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
   </si>
   <si>
     <t>Reggio Emilia</t>
-  </si>
-  <si>
-    <t>Cartuccia colore</t>
   </si>
   <si>
     <t>elenasimonini</t>
@@ -421,13 +412,7 @@
     <t>Arcore(MI)</t>
   </si>
   <si>
-    <t>Dimetrodon + Spinosaurus</t>
-  </si>
-  <si>
     <t>thedraconids</t>
-  </si>
-  <si>
-    <t>DA CONSEGNARE</t>
   </si>
   <si>
     <t>Seconda settimana</t>
@@ -463,9 +448,6 @@
     <t>Loranzè(TO)</t>
   </si>
   <si>
-    <t>5 dinofroz</t>
-  </si>
-  <si>
     <t>gharreyz</t>
   </si>
   <si>
@@ -481,9 +463,6 @@
     <t>Monpazier, Francia</t>
   </si>
   <si>
-    <t>2 cartucce hp 62 xl</t>
-  </si>
-  <si>
     <t>jackmonpaz</t>
   </si>
   <si>
@@ -497,9 +476,6 @@
   </si>
   <si>
     <t>martedì, 25/02/2025</t>
-  </si>
-  <si>
-    <t>3 pacchi di terea</t>
   </si>
   <si>
     <t>lollo rosani</t>
@@ -619,9 +595,6 @@
     <t>Matera</t>
   </si>
   <si>
-    <t>62 xl nero</t>
-  </si>
-  <si>
     <t>baliano</t>
   </si>
   <si>
@@ -632,9 +605,6 @@
   </si>
   <si>
     <t>S. Giorgio del Sannio(NA)</t>
-  </si>
-  <si>
-    <t>2 dinofroz</t>
   </si>
   <si>
     <t>vereor4</t>
@@ -670,9 +640,6 @@
     <t>Nantes, Francia</t>
   </si>
   <si>
-    <t>Cartuccia hp 953xl magenta</t>
-  </si>
-  <si>
     <t>sous-le-soleil</t>
   </si>
   <si>
@@ -680,9 +647,6 @@
   </si>
   <si>
     <t>Varese</t>
-  </si>
-  <si>
-    <t>Cartucce hp 62xl nero+colore</t>
   </si>
   <si>
     <t>monika68lore</t>
@@ -703,26 +667,6 @@
   </si>
   <si>
     <t>Ti interessa avere una prova video della creazione del pacco? Posso se vuoi linkarti il video visibile soltanto per te. Se ti interessa fammi sapere  che provvederò al caricamento😊​</t>
-  </si>
-  <si>
-    <t>Le cartucce della stampante le ho prese in un
- mercatino dalle parti di torino, adesso non ricordo
- bene quando però metà anno scorso circa.
- Questo signore le svendeva a quanto dir suo perchè era vecchio e si era stufato della stampante che tanto non gli serviva più.
-Le metteva pochissimo prezzo e avendo la stampante
- che corrispondeva a quelle cartucce pensai che era un affare non pensando che purtroppo le cartucce avevano
- una scadenza. 
-Allora pensai che per lasciarle lì che tanto noi la stampante la usiamo si ma non in quelle quantità me ne tengo un po' da parte e le altre le faccio fuori. Alla fine aiuto altra gente mettendole a molto meno e mi entra qualcosa in tasca.
-Dopodichè ho capito che poteva diventare un piccolo business.</t>
-  </si>
-  <si>
-    <t>15 possedute per ora</t>
-  </si>
-  <si>
-    <t>9 vendute</t>
-  </si>
-  <si>
-    <t>6 da vendere</t>
   </si>
   <si>
     <t>Allenamento</t>
@@ -765,23 +709,224 @@
   <si>
     <t>Tot Add</t>
   </si>
+  <si>
+    <t>lunedì, 17/03/2025</t>
+  </si>
+  <si>
+    <t>Nontron, Francia</t>
+  </si>
+  <si>
+    <t>cuertx16</t>
+  </si>
+  <si>
+    <t>sabato, 15/03/2025</t>
+  </si>
+  <si>
+    <t>giovedì, 13/03/2025</t>
+  </si>
+  <si>
+    <t>Primo week\</t>
+  </si>
+  <si>
+    <t>N° allenamenti in media dato parametro</t>
+  </si>
+  <si>
+    <t>Madrid, Spagna</t>
+  </si>
+  <si>
+    <t>joscv1979</t>
+  </si>
+  <si>
+    <t>Bilancio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le cartucce della stampante le ho prese in un
+ mercatino dell'usato dalle parti di torino, adesso non ricordo
+ bene quando però metà anno scorso circa.
+ Questo signore le svendeva a una cifra irrisoria( se non ricordo male 5€/10€ a pezzo, in base anche alla tipo) a quanto dir suo perchè era vecchio e non usava più la stampante.
+Le metteva pochissimo prezzo e io avendo la stampante
+ che corrispondeva a quelle cartucce pensai che era un affare non pensando che purtroppo le cartucce avevano una scadenza. 
+Allora pensai che per lasciarle lì che tanto io e i miei genitori la stampante la usiamo ma non in quelle quantità era bene tenersene un po' e le altre farle fuori, svendendole su vinted. Alla fine era un modo per aiutare altra gente mettendole a molto meno del loro prezzo originario e per rientrare della spesa liberandosi dello spazio che queste cose come altre mi occupavano in casa.
+</t>
+  </si>
+  <si>
+    <t>martedì, 18/03/2025</t>
+  </si>
+  <si>
+    <t>giovedì, 20/03/2025</t>
+  </si>
+  <si>
+    <t>Secondo week</t>
+  </si>
+  <si>
+    <t>prima settimana</t>
+  </si>
+  <si>
+    <t>seconda settimana</t>
+  </si>
+  <si>
+    <t>2 o 4 cicli</t>
+  </si>
+  <si>
+    <t>3 o 4 o 5 cicli</t>
+  </si>
+  <si>
+    <t>petto 12 x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciclo normale iniziale come riscoaldamento </t>
+  </si>
+  <si>
+    <t>10pet x 4</t>
+  </si>
+  <si>
+    <t>martedì, 25/03/2025</t>
+  </si>
+  <si>
+    <t>mercoledì, 19/03/2025</t>
+  </si>
+  <si>
+    <t>Terzo week</t>
+  </si>
+  <si>
+    <t>add_1 4x12  + add_2 4x12</t>
+  </si>
+  <si>
+    <t>Carnaxide, Portogallo</t>
+  </si>
+  <si>
+    <t>3 pacchi di gormiti della terea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° ripetizioni </t>
+  </si>
+  <si>
+    <t>venerdì, 28/03/2025</t>
+  </si>
+  <si>
+    <t>lunedì, 28/01/2025</t>
+  </si>
+  <si>
+    <t>RIMBORSATO</t>
+  </si>
+  <si>
+    <t>Ricordo sempre di leggere bene le descrizioni e se non si fosse capito qualcosa sono disponibile per delucidazioni😊</t>
+  </si>
+  <si>
+    <t>terza e quarta settimana</t>
+  </si>
+  <si>
+    <t>Quarto week</t>
+  </si>
+  <si>
+    <t>Pet_1, Pet_2, Pet_3</t>
+  </si>
+  <si>
+    <t>Pet_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> esterna blu per petto a presa larga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alta blu per petto normale</t>
+  </si>
+  <si>
+    <t>bicipiti e tricipiti 4x10 (12 per quarta)</t>
+  </si>
+  <si>
+    <t>venerdì, 04/04/2025</t>
+  </si>
+  <si>
+    <t>DA CONSEGNARE</t>
+  </si>
+  <si>
+    <t>mirkozamperini69</t>
+  </si>
+  <si>
+    <t>Grezzana</t>
+  </si>
+  <si>
+    <t>da vendere</t>
+  </si>
+  <si>
+    <t>vendute</t>
+  </si>
+  <si>
+    <t>possedute per ora</t>
+  </si>
+  <si>
+    <t>Cartuccia hp 62 xl nero</t>
+  </si>
+  <si>
+    <t>2 Cartucce hp 62 xl nero+colore</t>
+  </si>
+  <si>
+    <t>2 Cartucce hp 62 xl nero</t>
+  </si>
+  <si>
+    <t>3 Cartucce hp 62 xl nero+2colore</t>
+  </si>
+  <si>
+    <t>Cartuccia hp 953 xl magenta</t>
+  </si>
+  <si>
+    <t>5 Dinofroz</t>
+  </si>
+  <si>
+    <t>2 Dinofroz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="173" formatCode="dddd\,\ dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="dddd\,\ dd/mm/yy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -843,17 +988,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Overlock"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Overlock"/>
     </font>
     <font>
@@ -891,8 +1027,156 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="4.9989318521683403E-2"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Overlock"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1045,12 +1329,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="69">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1952,241 +2254,284 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,291 +2543,770 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="20" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="20" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="25" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="24" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="20" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="28" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="29" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="1" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="23" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="27" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="23" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2775,9 +3599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>63649</xdr:colOff>
+      <xdr:colOff>286534</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2836,9 +3660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>42387</xdr:rowOff>
+      <xdr:rowOff>34767</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2890,16 +3714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>66872</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>110687</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2929,8 +3753,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="1390650"/>
-          <a:ext cx="2463362" cy="952500"/>
+          <a:off x="11902440" y="1432560"/>
+          <a:ext cx="2472887" cy="948690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2958,9 +3782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>25118</xdr:colOff>
+      <xdr:colOff>248003</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3014,14 +3838,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>110346</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>64771</xdr:rowOff>
+      <xdr:colOff>323706</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3286,10 +4110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1005"/>
+  <dimension ref="A1:C1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3301,157 +4125,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A2" s="65">
+      <c r="A2" s="89">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="156" t="s">
+      <c r="B2" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="91">
+        <v>2</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="89">
+        <v>3</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="91">
+        <v>4</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="89">
+        <v>5</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A7" s="91">
+        <v>6</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A8" s="89">
+        <v>7</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="120">
+        <v>8</v>
+      </c>
+      <c r="B9" s="122" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="121"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="94">
+        <v>9</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="101">
+        <v>10</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A13" s="89">
+        <v>11</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="101">
+        <v>12</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="103">
+        <v>13</v>
+      </c>
+      <c r="B15" s="104" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="63">
-        <v>2</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="65">
-        <v>3</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="63">
-        <v>4</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="165" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A6" s="164">
-        <v>5</v>
-      </c>
-      <c r="B6" s="157" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="158" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A7" s="159">
-        <v>6</v>
-      </c>
-      <c r="B7" s="159" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="160" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="167">
-        <v>7</v>
-      </c>
-      <c r="B8" s="169" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="166" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="168"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="166" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="63">
-        <v>8</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="164">
-        <v>9</v>
-      </c>
-      <c r="B11" s="157" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="158" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A12" s="159">
-        <v>10</v>
-      </c>
-      <c r="B12" s="159" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A13" s="164">
-        <v>11</v>
-      </c>
-      <c r="B13" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="158" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="64">
-        <v>12</v>
-      </c>
-      <c r="B14" s="162" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="163" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" thickTop="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
+      <c r="C15" s="105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" thickTop="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
@@ -4431,10 +5265,11 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4446,7 +5281,7 @@
   <dimension ref="F1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4490,43 +5325,43 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="6:16">
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="6:16" ht="15.75">
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="12">
         <v>10</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="12">
         <f t="shared" ref="I9:I22" si="0">IF(H9=15,(H9-5)/2,H9/2-1)</f>
         <v>4</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="12">
         <v>4</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="2" t="s">
@@ -4538,23 +5373,23 @@
       </c>
     </row>
     <row r="10" spans="6:16">
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="12">
         <v>9</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="12">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="12">
         <v>3.5</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -4566,23 +5401,23 @@
       </c>
     </row>
     <row r="11" spans="6:16">
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="12">
         <v>9</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="12">
         <v>5</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
@@ -4594,21 +5429,21 @@
       </c>
     </row>
     <row r="12" spans="6:16">
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="17">
         <v>15</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50" t="s">
+      <c r="J12" s="17"/>
+      <c r="K12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="O12" s="4" t="s">
@@ -4620,23 +5455,23 @@
       </c>
     </row>
     <row r="13" spans="6:16">
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="12">
         <v>15</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="12">
         <v>4.5</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="4" t="s">
@@ -4648,247 +5483,247 @@
       </c>
     </row>
     <row r="14" spans="6:16">
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="17">
         <v>15</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50" t="s">
+      <c r="J14" s="17"/>
+      <c r="K14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="3">
+        <f>(P12-P13)*(-1)</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16">
+      <c r="F15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="3">
-        <f>P12-P13</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="6:16">
-      <c r="F15" s="42" t="s">
+      <c r="G15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="44">
+      <c r="H15" s="12">
         <v>15</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="12">
         <v>4</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="6:16">
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="49">
+      <c r="H16" s="17">
         <v>15</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50" t="s">
+      <c r="J16" s="17"/>
+      <c r="K16" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="6:14">
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="44">
+      <c r="H17" s="12">
         <v>9</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="12">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="12">
         <v>3.5</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="6:14">
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="44">
+      <c r="H18" s="12">
         <v>9</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="12">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="12">
         <v>3.5</v>
       </c>
-      <c r="K18" s="45" t="s">
+      <c r="K18" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="6:14">
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="49">
+      <c r="H19" s="17">
         <v>15</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50" t="s">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="6:14">
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44">
+      <c r="H20" s="12">
         <v>9</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="12">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="12">
         <v>3.5</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="44">
+      <c r="H21" s="12">
         <v>15</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="12">
         <v>3.5</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="49">
+      <c r="H22" s="17">
         <v>15</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50" t="s">
+      <c r="J22" s="17"/>
+      <c r="K22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="53">
+      <c r="H23" s="21">
         <f t="shared" ref="H23:J23" si="1">SUM(H9:H22)</f>
         <v>175</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="21">
         <f t="shared" si="1"/>
         <v>61.5</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="21">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K23" s="22">
         <f>COUNTIF(K9:K22, "True")</f>
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F24" s="171" t="s">
+      <c r="F24" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+    </row>
+    <row r="25" spans="6:14" ht="15.75" customHeight="1">
+      <c r="F25" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-    </row>
-    <row r="25" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F25" s="171" t="s">
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+    </row>
+    <row r="26" spans="6:14" ht="15.75" customHeight="1">
+      <c r="F26" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
-    </row>
-    <row r="26" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F26" s="171" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
     </row>
     <row r="27" spans="6:14" ht="15.75" customHeight="1">
       <c r="F27" s="1"/>
@@ -7830,49 +8665,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" thickBot="1">
-      <c r="A1" s="178" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="96"/>
+      <c r="A1" s="126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="34"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -7891,40 +8726,40 @@
       <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A2" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="D2" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="G2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="H2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="I2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="J2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="K2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="97"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -7942,1608 +8777,1750 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:28" s="206" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A3" s="162" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="201">
         <v>45685</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="201" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="163">
         <f t="shared" ref="D3:D12" si="0">VALUE(RIGHT(C3,10))-VALUE(RIGHT(B3,10))</f>
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="202">
+        <v>8</v>
+      </c>
+      <c r="L3" s="203"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="75">
-        <v>8</v>
-      </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="205" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+    </row>
+    <row r="4" spans="1:28" s="206" customFormat="1">
+      <c r="A4" s="162" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="207">
         <v>45685</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="207">
         <v>45692</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="162">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="162" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="208" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="I4" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="J4" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="76">
+      <c r="K4" s="209">
         <v>7</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="15">
+      <c r="L4" s="203"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="210" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="211">
         <f>SUMIF(J:J, "ANNULLATO", K:K)</f>
         <v>8</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="212">
         <f>COUNTIF(J:J, "ANNULLATO")</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="204"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
+    </row>
+    <row r="5" spans="1:28" s="206" customFormat="1">
+      <c r="A5" s="162" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="207">
         <v>45686</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="207" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="162">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="208" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="76">
+      <c r="J5" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="209">
         <v>4.99</v>
       </c>
-      <c r="L5" s="98"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="19">
+      <c r="L5" s="203"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="214">
         <f>O8+O9</f>
-        <v>29</v>
-      </c>
-      <c r="P5" s="20">
+        <v>58</v>
+      </c>
+      <c r="P5" s="215">
         <f>P9+P8</f>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="204"/>
+      <c r="R5" s="204"/>
+      <c r="S5" s="204"/>
+      <c r="T5" s="204"/>
+      <c r="U5" s="204"/>
+      <c r="V5" s="204"/>
+      <c r="W5" s="204"/>
+      <c r="X5" s="204"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="204"/>
+    </row>
+    <row r="6" spans="1:28" s="206" customFormat="1">
+      <c r="A6" s="162" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="294">
         <v>45686</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="207">
         <v>45695</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="162">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="233" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="J6" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="209">
+        <v>4.99</v>
+      </c>
+      <c r="L6" s="203"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="76">
-        <v>4.99</v>
-      </c>
-      <c r="L6" s="98"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="22">
+      <c r="O6" s="217">
         <f>SUMIF(J:J, "CONSEGNATO", K:K)</f>
-        <v>321.53999999999996</v>
-      </c>
-      <c r="P6" s="55">
+        <v>487.53999999999996</v>
+      </c>
+      <c r="P6" s="218">
         <f>COUNTIF(J:J, "CONSEGNATO")</f>
-        <v>19</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A7" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="23">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="204"/>
+      <c r="X6" s="204"/>
+      <c r="Y6" s="204"/>
+      <c r="Z6" s="204"/>
+      <c r="AA6" s="204"/>
+      <c r="AB6" s="204"/>
+    </row>
+    <row r="7" spans="1:28" s="206" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="164" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="219">
         <v>45689</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="219">
         <v>45698</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="164">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="164" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="164" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="220" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="I7" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="164" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="221">
+        <v>9.48</v>
+      </c>
+      <c r="L7" s="203"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="77">
-        <v>9.48</v>
-      </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="22">
+      <c r="O7" s="217">
         <f>SUMIF(J:J, "CONSEGNATO A MANO", K:K)</f>
         <v>18</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="218">
         <f>COUNTIF(J:J, "CONSEGNATO A MANO")</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A8" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
+      <c r="T7" s="204"/>
+      <c r="U7" s="204"/>
+      <c r="V7" s="204"/>
+      <c r="W7" s="204"/>
+      <c r="X7" s="204"/>
+      <c r="Y7" s="204"/>
+      <c r="Z7" s="204"/>
+      <c r="AA7" s="204"/>
+      <c r="AB7" s="204"/>
+    </row>
+    <row r="8" spans="1:28" s="206" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A8" s="165" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="201">
         <v>45691</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="201" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="163">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="163" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="202">
+        <v>7</v>
+      </c>
+      <c r="L8" s="203"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="223" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="75">
-        <v>7</v>
-      </c>
-      <c r="L8" s="98"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="27">
+      <c r="O8" s="224">
         <f>SUMIF(J:J, "DA CONSEGNARE", K:K)</f>
-        <v>29</v>
-      </c>
-      <c r="P8" s="28">
+        <v>58</v>
+      </c>
+      <c r="P8" s="225">
         <f>COUNTIF(J:J, "DA CONSEGNARE")</f>
-        <v>2</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+    </row>
+    <row r="9" spans="1:28" s="206" customFormat="1">
+      <c r="A9" s="166" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="207">
         <v>45693</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="207">
         <v>45699</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="163">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="226" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="I9" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="209">
+        <v>12.33</v>
+      </c>
+      <c r="L9" s="203"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="227" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="76">
-        <v>12.33</v>
-      </c>
-      <c r="L9" s="98"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" s="30">
+      <c r="O9" s="228">
         <f>SUMIF(J:J, "DA RITIRARE", K:K)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="229">
         <f>COUNTIF(J:J, "DA RITIRARE")</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A10" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="23">
+      <c r="Q9" s="204"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="204"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="204"/>
+      <c r="AA9" s="204"/>
+      <c r="AB9" s="204"/>
+    </row>
+    <row r="10" spans="1:28" s="206" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="167" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="219">
         <v>45695</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="219">
         <v>45702</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="164">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="164" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="164" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="220" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="I10" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="164" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="221">
+        <v>9</v>
+      </c>
+      <c r="L10" s="203"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="230" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="77">
-        <v>9</v>
-      </c>
-      <c r="L10" s="98"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="O10" s="33">
-        <f t="shared" ref="O10:P10" si="1">SUM(O6:O9,O4)</f>
-        <v>376.53999999999996</v>
-      </c>
-      <c r="P10" s="34">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A11" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="O10" s="231">
+        <f>SUM(O6:O9,O4)</f>
+        <v>571.54</v>
+      </c>
+      <c r="P10" s="232">
+        <f t="shared" ref="P10" si="1">SUM(P6:P9,P4)</f>
+        <v>27</v>
+      </c>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+    </row>
+    <row r="11" spans="1:28" s="206" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A11" s="163" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="201">
         <v>45699</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="201">
         <v>45700</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="163">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="222" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="I11" s="163" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="202">
+        <v>15</v>
+      </c>
+      <c r="L11" s="203"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="230" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="O11" s="231">
+        <f>O10-(O4)</f>
+        <v>563.54</v>
+      </c>
+      <c r="P11" s="232">
+        <f>P10-P4</f>
+        <v>26</v>
+      </c>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="204"/>
+      <c r="Z11" s="204"/>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="204"/>
+    </row>
+    <row r="12" spans="1:28" s="206" customFormat="1">
+      <c r="A12" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="207">
+        <v>45699</v>
+      </c>
+      <c r="C12" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="75">
-        <v>15</v>
-      </c>
-      <c r="L11" s="98"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="33">
-        <f>O10-(O4)</f>
-        <v>368.53999999999996</v>
-      </c>
-      <c r="P11" s="34">
-        <f>P10-P4</f>
-        <v>23</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="11">
-        <v>45699</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="D12" s="163">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="233" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="I12" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="J12" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="209">
+        <v>19.77</v>
+      </c>
+      <c r="L12" s="203"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="230" t="s">
+        <v>179</v>
+      </c>
+      <c r="O12" s="231">
+        <f>O11-O7</f>
+        <v>545.54</v>
+      </c>
+      <c r="P12" s="232">
+        <f>P11-P7</f>
+        <v>24</v>
+      </c>
+      <c r="Q12" s="234"/>
+      <c r="R12" s="204"/>
+      <c r="S12" s="204"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="204"/>
+      <c r="V12" s="204"/>
+      <c r="W12" s="204"/>
+      <c r="X12" s="204"/>
+      <c r="Y12" s="204"/>
+      <c r="Z12" s="204"/>
+      <c r="AA12" s="204"/>
+      <c r="AB12" s="204"/>
+    </row>
+    <row r="13" spans="1:28" s="206" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A13" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="207">
+        <v>45701</v>
+      </c>
+      <c r="C13" s="207" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="D13" s="162">
+        <f t="shared" ref="D13:D29" si="2">VALUE(RIGHT(C13,10))-VALUE(RIGHT(B13,10))</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="76">
-        <v>19.77</v>
-      </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="O12" s="33">
-        <f>O11-O7</f>
-        <v>350.53999999999996</v>
-      </c>
-      <c r="P12" s="34">
-        <f>P11-P7</f>
-        <v>21</v>
-      </c>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A13" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="G13" s="235" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="236">
+        <v>24.99</v>
+      </c>
+      <c r="L13" s="203"/>
+      <c r="T13" s="204"/>
+      <c r="U13" s="204"/>
+      <c r="V13" s="204"/>
+      <c r="W13" s="204"/>
+      <c r="X13" s="204"/>
+      <c r="Y13" s="204"/>
+      <c r="Z13" s="204"/>
+      <c r="AA13" s="204"/>
+      <c r="AB13" s="204"/>
+    </row>
+    <row r="14" spans="1:28" s="206" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A14" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="207">
         <v>45701</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" ref="D13:D23" si="2">VALUE(RIGHT(C13,10))-VALUE(RIGHT(B13,10))</f>
-        <v>5</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="76">
-        <v>24.99</v>
-      </c>
-      <c r="L13" s="98"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A14" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="11">
-        <v>45701</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="207" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="162">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="76">
+      <c r="E14" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="235" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="162" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="236">
         <v>19</v>
       </c>
-      <c r="L14" s="98"/>
-      <c r="M14" s="176" t="s">
-        <v>111</v>
-      </c>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
-      <c r="P14" s="180" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="S14" s="183"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A15" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="L14" s="203"/>
+      <c r="M14" s="237" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="238"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="239" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="240"/>
+      <c r="R14" s="241" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" s="242"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="204"/>
+      <c r="V14" s="204"/>
+      <c r="W14" s="204"/>
+      <c r="X14" s="204"/>
+      <c r="Y14" s="204"/>
+      <c r="Z14" s="204"/>
+      <c r="AA14" s="204"/>
+      <c r="AB14" s="204"/>
+    </row>
+    <row r="15" spans="1:28" s="206" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A15" s="164" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="219">
         <v>45702</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="C15" s="219" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="164">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="77">
+      <c r="E15" s="164" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="186" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="164" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="164" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="221">
         <v>6</v>
       </c>
-      <c r="L15" s="99"/>
-      <c r="M15" s="124" t="s">
-        <v>176</v>
-      </c>
-      <c r="N15" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" s="121" t="s">
-        <v>189</v>
-      </c>
-      <c r="P15" s="122" t="s">
+      <c r="L15" s="243"/>
+      <c r="M15" s="244" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="245" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="245" t="s">
+        <v>180</v>
+      </c>
+      <c r="P15" s="246" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="246" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" s="122" t="s">
-        <v>118</v>
-      </c>
-      <c r="S15" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" thickTop="1">
-      <c r="A16" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="38">
+      <c r="R15" s="246" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="247" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="204"/>
+      <c r="U15" s="204"/>
+      <c r="V15" s="204"/>
+      <c r="W15" s="204"/>
+      <c r="X15" s="204"/>
+      <c r="Y15" s="204"/>
+      <c r="Z15" s="204"/>
+      <c r="AA15" s="204"/>
+      <c r="AB15" s="204"/>
+    </row>
+    <row r="16" spans="1:28" s="206" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A16" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="201" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="201" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="188">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="75">
+      <c r="E16" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="163" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="248" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="202">
         <v>8.5</v>
       </c>
-      <c r="L16" s="98"/>
-      <c r="M16" s="174">
+      <c r="L16" s="203"/>
+      <c r="M16" s="249">
         <v>1</v>
       </c>
-      <c r="N16" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P16" s="119">
-        <f t="shared" ref="P16:P22" si="3">SUMIFS(K:K, A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
+      <c r="N16" s="250" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="41">
+        <f t="shared" ref="P16:P24" si="3">SUMIFS(K:K, A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
         <v>26.46</v>
       </c>
-      <c r="Q16" s="9">
-        <f t="shared" ref="Q16:Q22" si="4">COUNTIFS(A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
+      <c r="Q16" s="42">
+        <f t="shared" ref="Q16:Q23" si="4">COUNTIFS(A:A, O16, J:J, "&lt;&gt;ANNULLATO")</f>
         <v>4</v>
       </c>
-      <c r="R16" s="120">
+      <c r="R16" s="41">
         <f>P16/Q16</f>
         <v>6.6150000000000002</v>
       </c>
-      <c r="S16" s="126">
+      <c r="S16" s="251">
         <f t="shared" ref="S16:S19" si="5">P16/6</f>
         <v>4.41</v>
       </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="T16" s="204"/>
+      <c r="U16" s="204"/>
+      <c r="V16" s="204"/>
+      <c r="W16" s="204"/>
+      <c r="X16" s="204"/>
+      <c r="Y16" s="204"/>
+      <c r="Z16" s="204"/>
+      <c r="AA16" s="204"/>
+      <c r="AB16" s="204"/>
+    </row>
+    <row r="17" spans="1:28" s="206" customFormat="1">
+      <c r="A17" s="166" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="207" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="207" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="162">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" s="76">
+      <c r="E17" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="208" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="252" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="209">
         <v>8</v>
       </c>
-      <c r="L17" s="98"/>
-      <c r="M17" s="174"/>
-      <c r="N17" s="72" t="s">
-        <v>129</v>
+      <c r="L17" s="203"/>
+      <c r="M17" s="249"/>
+      <c r="N17" s="253" t="s">
+        <v>123</v>
       </c>
       <c r="O17" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="P17" s="82">
+        <v>124</v>
+      </c>
+      <c r="P17" s="27">
         <f t="shared" si="3"/>
         <v>28.33</v>
       </c>
-      <c r="Q17" s="83">
+      <c r="Q17" s="254">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R17" s="84">
-        <f t="shared" ref="R17:R22" si="6">P17/Q17</f>
+      <c r="R17" s="27">
+        <f t="shared" ref="R17:R23" si="6">P17/Q17</f>
         <v>9.4433333333333334</v>
       </c>
-      <c r="S17" s="127">
+      <c r="S17" s="255">
         <f t="shared" si="5"/>
         <v>4.7216666666666667</v>
       </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="37" t="s">
+      <c r="T17" s="204"/>
+      <c r="U17" s="204"/>
+      <c r="V17" s="204"/>
+      <c r="W17" s="204"/>
+      <c r="X17" s="204"/>
+      <c r="Y17" s="204"/>
+      <c r="Z17" s="204"/>
+      <c r="AA17" s="204"/>
+      <c r="AB17" s="204"/>
+    </row>
+    <row r="18" spans="1:28" s="206" customFormat="1">
+      <c r="A18" s="166" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="207" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="207" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="D18" s="163">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="76">
+      <c r="E18" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="162" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="256" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="209">
         <v>18</v>
       </c>
-      <c r="L18" s="98"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="P18" s="60">
+      <c r="L18" s="203"/>
+      <c r="M18" s="249"/>
+      <c r="N18" s="257" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="23">
         <f t="shared" si="3"/>
         <v>84.759999999999991</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="36">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="23">
         <f t="shared" si="6"/>
         <v>16.951999999999998</v>
       </c>
-      <c r="S18" s="128">
+      <c r="S18" s="258">
         <f t="shared" si="5"/>
         <v>14.126666666666665</v>
       </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A19" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="T18" s="204"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+    </row>
+    <row r="19" spans="1:28" s="206" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A19" s="167" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="219" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="219" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="164">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="77">
+      <c r="E19" s="164" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="219" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="259" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="219" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="219" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="219" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="260">
         <v>45</v>
       </c>
-      <c r="L19" s="98"/>
-      <c r="M19" s="174"/>
-      <c r="N19" s="72" t="s">
-        <v>142</v>
+      <c r="L19" s="203"/>
+      <c r="M19" s="249"/>
+      <c r="N19" s="253" t="s">
+        <v>135</v>
       </c>
       <c r="O19" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" s="82">
+        <v>136</v>
+      </c>
+      <c r="P19" s="27">
         <f t="shared" si="3"/>
         <v>79.5</v>
       </c>
-      <c r="Q19" s="83">
+      <c r="Q19" s="254">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R19" s="84">
+      <c r="R19" s="27">
         <f t="shared" si="6"/>
         <v>19.875</v>
       </c>
-      <c r="S19" s="127">
+      <c r="S19" s="255">
         <f t="shared" si="5"/>
         <v>13.25</v>
       </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-    </row>
-    <row r="20" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="57">
+      <c r="T19" s="204"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="204"/>
+      <c r="W19" s="204"/>
+      <c r="X19" s="204"/>
+      <c r="Y19" s="204"/>
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="204"/>
+      <c r="AB19" s="204"/>
+    </row>
+    <row r="20" spans="1:28" s="206" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="285" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="285" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="168">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E20" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="J20" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" s="78">
+      <c r="E20" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="168" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="168" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="168" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="261" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="169">
         <v>10</v>
       </c>
-      <c r="L20" s="123"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="O20" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" s="111">
+      <c r="L20" s="262"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="264" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" s="265" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="39">
         <f t="shared" si="3"/>
         <v>59.989999999999995</v>
       </c>
-      <c r="Q20" s="110">
+      <c r="Q20" s="265">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R20" s="112">
+      <c r="R20" s="39">
         <f t="shared" si="6"/>
         <v>19.996666666666666</v>
       </c>
-      <c r="S20" s="129">
-        <f>P20/6</f>
+      <c r="S20" s="266">
+        <f t="shared" ref="S20:S25" si="7">P20/6</f>
         <v>9.9983333333333331</v>
       </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A21" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="57">
+      <c r="T20" s="204"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="204"/>
+      <c r="X20" s="204"/>
+      <c r="Y20" s="204"/>
+      <c r="Z20" s="204"/>
+      <c r="AA20" s="204"/>
+      <c r="AB20" s="204"/>
+    </row>
+    <row r="21" spans="1:28" s="206" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A21" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="286" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="286" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="168">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E21" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="94">
+      <c r="E21" s="267" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="170" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="171" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21" s="170" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="170" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="170" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="172">
         <v>25</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="173">
+      <c r="L21" s="204"/>
+      <c r="M21" s="268">
         <v>2</v>
       </c>
-      <c r="N21" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="O21" s="114" t="s">
-        <v>201</v>
-      </c>
-      <c r="P21" s="147">
+      <c r="N21" s="269" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="P21" s="43">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
-      <c r="Q21" s="149">
+      <c r="Q21" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R21" s="147">
+      <c r="R21" s="43">
         <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
-      <c r="S21" s="150">
-        <f>P21/6</f>
+      <c r="S21" s="46">
+        <f t="shared" si="7"/>
         <v>1.4166666666666667</v>
       </c>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="137" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="139">
+      <c r="T21" s="204"/>
+      <c r="U21" s="204"/>
+      <c r="V21" s="204"/>
+      <c r="W21" s="204"/>
+      <c r="X21" s="204"/>
+      <c r="Y21" s="204"/>
+      <c r="Z21" s="204"/>
+      <c r="AA21" s="204"/>
+      <c r="AB21" s="204"/>
+    </row>
+    <row r="22" spans="1:28" s="206" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A22" s="173" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="287" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="293" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="191">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E22" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="H22" s="101" t="s">
-        <v>193</v>
-      </c>
-      <c r="I22" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="138" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="102">
+      <c r="E22" s="174" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="174" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="175" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="174" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="174" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="176">
         <v>24.99</v>
       </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="O22" s="106" t="s">
-        <v>199</v>
-      </c>
-      <c r="P22" s="148">
+      <c r="L22" s="270"/>
+      <c r="M22" s="249"/>
+      <c r="N22" s="271" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="P22" s="44">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="Q22" s="151">
+      <c r="Q22" s="47">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R22" s="152">
+      <c r="R22" s="48">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="S22" s="153">
-        <f>P22/6</f>
+      <c r="S22" s="49">
+        <f t="shared" si="7"/>
         <v>13.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="145" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="141" t="s">
+    <row r="23" spans="1:28" s="206" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A23" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="288" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="288" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="142" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="143">
+      <c r="D23" s="178">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E23" s="141" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="141" t="s">
+      <c r="E23" s="178" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="178" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="179" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" s="178" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="178" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="178" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="180">
+        <v>8.5</v>
+      </c>
+      <c r="L23" s="204"/>
+      <c r="M23" s="249"/>
+      <c r="N23" s="272" t="s">
+        <v>130</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="51">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="Q23" s="52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R23" s="53">
+        <f t="shared" si="6"/>
+        <v>68.5</v>
+      </c>
+      <c r="S23" s="54">
+        <f t="shared" si="7"/>
+        <v>22.833333333333332</v>
+      </c>
+      <c r="T23" s="204"/>
+      <c r="U23" s="204"/>
+      <c r="V23" s="204"/>
+      <c r="W23" s="204"/>
+      <c r="X23" s="204"/>
+      <c r="Y23" s="204"/>
+      <c r="Z23" s="204"/>
+      <c r="AA23" s="204"/>
+      <c r="AB23" s="204"/>
+    </row>
+    <row r="24" spans="1:28" s="206" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A24" s="181" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="C24" s="201" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="163">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E24" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="163" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="141" t="s">
+      <c r="G24" s="182" t="s">
+        <v>270</v>
+      </c>
+      <c r="H24" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="I23" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="141" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="144">
-        <v>8.5</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="O23" s="107" t="s">
+      <c r="I24" s="163" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="183">
+        <v>19</v>
+      </c>
+      <c r="L24" s="204"/>
+      <c r="M24" s="249"/>
+      <c r="N24" s="271" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="P24" s="48">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q24" s="47">
+        <f t="shared" ref="Q24:Q25" si="8">COUNTIFS(A:A, O24, J:J, "&lt;&gt;ANNULLATO")</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="48">
+        <f t="shared" ref="R24:R25" si="9">P24/Q24</f>
+        <v>8</v>
+      </c>
+      <c r="S24" s="49">
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="T24" s="204"/>
+      <c r="U24" s="204"/>
+      <c r="V24" s="204"/>
+      <c r="W24" s="204"/>
+      <c r="X24" s="204"/>
+      <c r="Y24" s="204"/>
+      <c r="Z24" s="204"/>
+      <c r="AA24" s="204"/>
+      <c r="AB24" s="204"/>
+    </row>
+    <row r="25" spans="1:28" s="206" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="207" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="207" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="162">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="162" t="s">
         <v>200</v>
       </c>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A24" s="155" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="140" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="140" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="140" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="140" t="s">
-        <v>210</v>
-      </c>
-      <c r="I24" s="140" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="140" t="s">
-        <v>128</v>
-      </c>
-      <c r="K24" s="146">
-        <v>19</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="O24" s="108" t="s">
+      <c r="G25" s="184" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="162" t="s">
+        <v>201</v>
+      </c>
+      <c r="I25" s="162" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="185">
+        <v>52</v>
+      </c>
+      <c r="L25" s="204"/>
+      <c r="M25" s="263"/>
+      <c r="N25" s="273" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="274" t="s">
+        <v>192</v>
+      </c>
+      <c r="P25" s="275">
+        <f>SUMIFS(K:K, A:A, O25, J:J, "&lt;&gt;ANNULLATO")</f>
+        <v>58</v>
+      </c>
+      <c r="Q25" s="276">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="275">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="S25" s="277">
+        <f t="shared" si="7"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="T25" s="204"/>
+      <c r="U25" s="204"/>
+      <c r="V25" s="204"/>
+      <c r="W25" s="204"/>
+      <c r="X25" s="204"/>
+      <c r="Y25" s="204"/>
+      <c r="Z25" s="204"/>
+      <c r="AA25" s="204"/>
+      <c r="AB25" s="204"/>
+    </row>
+    <row r="26" spans="1:28" s="206" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A26" s="164" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="219" t="s">
         <v>202</v>
       </c>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="106" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="106" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="106" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25" s="154">
-        <v>52</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="175"/>
-      <c r="N25" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="O25" s="116" t="s">
+      <c r="C26" s="219" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="164">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E26" s="164" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="106" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26" s="154">
+      <c r="G26" s="186" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="164" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" s="164" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="164" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="187">
         <v>10</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="135">
+      <c r="L26" s="204"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="279">
         <f>COUNTA(N16:N25)</f>
         <v>10</v>
       </c>
-      <c r="O26" s="132">
-        <f ca="1">TODAY()-VALUE(RIGHT(B3,10))-3</f>
-        <v>42</v>
-      </c>
-      <c r="P26" s="133">
-        <f>SUM(P16:P22)</f>
-        <v>368.53999999999996</v>
-      </c>
-      <c r="Q26" s="132">
-        <f>SUM(Q16:Q21)</f>
-        <v>20</v>
-      </c>
-      <c r="R26" s="133">
+      <c r="O26" s="280">
+        <f ca="1">(TODAY()-VALUE(RIGHT(B3,10)))-(COUNTA(O16:O22))</f>
+        <v>59</v>
+      </c>
+      <c r="P26" s="281">
+        <f>SUM(P16:P25)</f>
+        <v>571.54</v>
+      </c>
+      <c r="Q26" s="280">
+        <f>SUM(Q16:Q24)</f>
+        <v>26</v>
+      </c>
+      <c r="R26" s="281">
         <f>P26/Q26</f>
-        <v>18.427</v>
-      </c>
-      <c r="S26" s="134">
+        <v>21.982307692307693</v>
+      </c>
+      <c r="S26" s="282">
         <f ca="1">P26/O26</f>
-        <v>8.7747619047619043</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1">
+        <v>9.6871186440677963</v>
+      </c>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="204"/>
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="204"/>
+      <c r="AB26" s="204"/>
+    </row>
+    <row r="27" spans="1:28" s="206" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A27" s="188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="289" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="289" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="188">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="188" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="189" t="s">
+        <v>269</v>
+      </c>
+      <c r="H27" s="188" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="188" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="188" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="190">
+        <v>85</v>
+      </c>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="204"/>
+      <c r="O27" s="204"/>
+      <c r="P27" s="204"/>
+      <c r="Q27" s="204"/>
+      <c r="R27" s="204"/>
+      <c r="S27" s="204"/>
+      <c r="T27" s="204"/>
+      <c r="U27" s="204"/>
+      <c r="V27" s="204"/>
+      <c r="W27" s="204"/>
+      <c r="X27" s="204"/>
+      <c r="Y27" s="204"/>
+      <c r="Z27" s="204"/>
+      <c r="AA27" s="204"/>
+      <c r="AB27" s="204"/>
+    </row>
+    <row r="28" spans="1:28" s="206" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A28" s="191" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="290" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="290" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="191">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E28" s="191" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="191" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="192" t="s">
+        <v>268</v>
+      </c>
+      <c r="H28" s="191" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" s="191" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="283" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="193">
+        <v>52</v>
+      </c>
+      <c r="L28" s="204"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="204"/>
+      <c r="P28" s="204"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="204"/>
+      <c r="U28" s="204"/>
+      <c r="V28" s="204"/>
+      <c r="W28" s="204"/>
+      <c r="X28" s="204"/>
+      <c r="Y28" s="204"/>
+      <c r="Z28" s="204"/>
+      <c r="AA28" s="204"/>
+      <c r="AB28" s="204"/>
+    </row>
+    <row r="29" spans="1:28" s="206" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A29" s="194" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="291" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="291" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="194">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E29" s="194" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="194" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="195" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="194" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="284" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" s="196">
+        <v>8</v>
+      </c>
+      <c r="L29" s="204"/>
+      <c r="M29" s="204"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="204"/>
+      <c r="P29" s="204"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="204"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
+    </row>
+    <row r="30" spans="1:28" s="206" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A30" s="197" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="292" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="292"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="198" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="199" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30" s="198" t="s">
+        <v>261</v>
+      </c>
+      <c r="I30" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="198" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" s="200">
+        <v>58</v>
+      </c>
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="204"/>
+      <c r="O30" s="204"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="204"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -9607,7 +10584,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="161"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -9638,12 +10615,12 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="159"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="N34" s="160"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -9665,7 +10642,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="158"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -37674,6 +38651,7 @@
       <c r="AB1000" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:K30" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="M21:M25"/>
     <mergeCell ref="M14:O14"/>
@@ -37682,13 +38660,13 @@
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="M16:M20"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="A3:K25 A26">
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="A3:K29">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>$J3="CONSEGNATO A MANO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:K26">
+  <conditionalFormatting sqref="A3:K30">
     <cfRule type="expression" dxfId="3" priority="7">
       <formula>$J3="ANNULLATO"</formula>
     </cfRule>
@@ -37727,116 +38705,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>187</v>
+      <c r="A1" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="86">
+      <c r="A2" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="29">
         <v>27.99</v>
       </c>
-      <c r="C2" s="88">
+      <c r="C2" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="86">
+      <c r="A3" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="29">
         <v>27.99</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="86">
+      <c r="A4" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="29">
         <v>27.99</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="86">
+      <c r="A5" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="29">
         <v>32.99</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="86">
+      <c r="A6" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="29">
         <v>32.99</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="86">
+      <c r="A7" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="29">
         <v>27.99</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="86">
+      <c r="A8" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="29">
         <v>27.99</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="87">
+      <c r="A9" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="30">
         <v>29.99</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="70" t="s">
-        <v>184</v>
+      <c r="A12" s="24" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="70" t="s">
-        <v>185</v>
+      <c r="A13" s="24" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37847,7 +38825,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37857,55 +38835,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="A1" s="128" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="185"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-    </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1">
-      <c r="A4" s="185"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+    </row>
+    <row r="4" spans="1:5" ht="84.75" customHeight="1">
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
     </row>
     <row r="5" spans="1:5" ht="120" customHeight="1">
-      <c r="A5" s="185"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>221</v>
+      <c r="A7" s="119" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>222</v>
+      <c r="A8" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>223</v>
+      <c r="A9" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="119">
+        <f>B7-B8</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -37918,377 +38906,1230 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D40B8E-1E1B-4615-BB23-B73A212FDFDB}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="201" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="199" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="200" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="200" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="200" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="200" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="200" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="200" t="s">
-        <v>236</v>
-      </c>
-      <c r="K2" s="190" t="s">
-        <v>231</v>
-      </c>
-      <c r="L2" s="189" t="s">
-        <v>226</v>
-      </c>
-      <c r="M2" s="189"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="194">
+    <row r="1" spans="1:19">
+      <c r="A1" s="139" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="141"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="151" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="154"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="61">
         <v>45725</v>
       </c>
-      <c r="B3" s="195">
+      <c r="B3" s="62">
         <v>40</v>
       </c>
-      <c r="C3" s="197">
+      <c r="C3" s="63">
         <v>0</v>
       </c>
-      <c r="D3" s="197">
+      <c r="D3" s="63">
         <v>0</v>
       </c>
-      <c r="E3" s="197">
+      <c r="E3" s="63">
         <v>0</v>
       </c>
-      <c r="F3" s="197">
+      <c r="F3" s="63">
         <v>0</v>
       </c>
-      <c r="G3" s="197">
+      <c r="G3" s="64">
         <v>0</v>
       </c>
-      <c r="K3" s="191"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="194">
+      <c r="K3" s="152"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A4" s="65">
         <v>45726</v>
       </c>
-      <c r="B4" s="195">
+      <c r="B4" s="66">
         <v>40</v>
       </c>
-      <c r="C4" s="195">
+      <c r="C4" s="66">
         <v>40</v>
       </c>
-      <c r="D4" s="195">
+      <c r="D4" s="66">
         <v>40</v>
       </c>
-      <c r="E4" s="195">
+      <c r="E4" s="66">
         <v>40</v>
       </c>
-      <c r="F4" s="195">
+      <c r="F4" s="66">
         <v>40</v>
       </c>
-      <c r="G4" s="195">
+      <c r="G4" s="67">
         <f>E4+F4</f>
         <v>80</v>
       </c>
-      <c r="K4" s="191"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="194">
+      <c r="K4" s="152"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="68">
         <v>45727</v>
       </c>
-      <c r="B5" s="195">
+      <c r="B5" s="69">
         <v>20</v>
       </c>
-      <c r="C5" s="195">
+      <c r="C5" s="69">
         <v>20</v>
       </c>
-      <c r="D5" s="195">
+      <c r="D5" s="69">
         <v>20</v>
       </c>
-      <c r="E5" s="195">
+      <c r="E5" s="69">
         <v>20</v>
       </c>
-      <c r="F5" s="195">
+      <c r="F5" s="69">
         <v>20</v>
       </c>
-      <c r="G5" s="195">
-        <f t="shared" ref="G5:G7" si="0">E5+F5</f>
+      <c r="G5" s="70">
+        <f t="shared" ref="G5:G29" si="0">E5+F5</f>
         <v>40</v>
       </c>
-      <c r="K5" s="191"/>
-      <c r="L5" s="189"/>
-      <c r="M5" s="189"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="196">
+      <c r="K5" s="152"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="71">
         <v>45728</v>
       </c>
-      <c r="B6" s="197">
+      <c r="B6" s="72">
         <v>0</v>
       </c>
-      <c r="C6" s="197">
+      <c r="C6" s="72">
         <v>0</v>
       </c>
-      <c r="D6" s="197">
+      <c r="D6" s="72">
         <v>0</v>
       </c>
-      <c r="E6" s="197">
+      <c r="E6" s="72">
         <v>0</v>
       </c>
-      <c r="F6" s="197">
+      <c r="F6" s="72">
         <v>0</v>
       </c>
-      <c r="G6" s="197">
+      <c r="G6" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="194">
+    <row r="7" spans="1:19">
+      <c r="A7" s="68">
         <v>45729</v>
       </c>
-      <c r="B7" s="195">
+      <c r="B7" s="69">
         <v>20</v>
       </c>
-      <c r="C7" s="195">
+      <c r="C7" s="69">
         <v>20</v>
       </c>
-      <c r="D7" s="195">
+      <c r="D7" s="69">
         <v>20</v>
       </c>
-      <c r="E7" s="195">
+      <c r="E7" s="69">
         <v>20</v>
       </c>
-      <c r="F7" s="195">
+      <c r="F7" s="69">
         <v>20</v>
       </c>
-      <c r="G7" s="195">
+      <c r="G7" s="70">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
-      <c r="A8" s="198">
+    <row r="8" spans="1:19" ht="15" customHeight="1">
+      <c r="A8" s="71">
         <v>45730</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="K8" s="192" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="189" t="s">
+      <c r="B8" s="72">
+        <v>0</v>
+      </c>
+      <c r="C8" s="72">
+        <v>0</v>
+      </c>
+      <c r="D8" s="72">
+        <v>0</v>
+      </c>
+      <c r="E8" s="72">
+        <v>0</v>
+      </c>
+      <c r="F8" s="72">
+        <v>0</v>
+      </c>
+      <c r="G8" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="151" t="s">
+        <v>215</v>
+      </c>
+      <c r="L8" s="153" t="s">
+        <v>216</v>
+      </c>
+      <c r="M8" s="154"/>
+      <c r="N8" s="157" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8" s="156" t="s">
+        <v>256</v>
+      </c>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="157" t="s">
+        <v>255</v>
+      </c>
+      <c r="R8" s="156" t="s">
+        <v>257</v>
+      </c>
+      <c r="S8" s="156"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1">
+      <c r="A9" s="68">
+        <v>45731</v>
+      </c>
+      <c r="B9" s="69">
+        <v>50</v>
+      </c>
+      <c r="C9" s="69">
+        <v>40</v>
+      </c>
+      <c r="D9" s="69">
+        <v>40</v>
+      </c>
+      <c r="E9" s="72">
+        <v>0</v>
+      </c>
+      <c r="F9" s="72">
+        <v>0</v>
+      </c>
+      <c r="G9" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="151"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A10" s="74">
+        <v>45732</v>
+      </c>
+      <c r="B10" s="75">
+        <v>0</v>
+      </c>
+      <c r="C10" s="75">
+        <v>0</v>
+      </c>
+      <c r="D10" s="75">
+        <v>0</v>
+      </c>
+      <c r="E10" s="75">
+        <v>0</v>
+      </c>
+      <c r="F10" s="75">
+        <v>0</v>
+      </c>
+      <c r="G10" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="151"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="156"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A11" s="77">
+        <v>45733</v>
+      </c>
+      <c r="B11" s="78">
+        <v>0</v>
+      </c>
+      <c r="C11" s="78">
+        <v>0</v>
+      </c>
+      <c r="D11" s="78">
+        <v>0</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0</v>
+      </c>
+      <c r="F11" s="78">
+        <v>0</v>
+      </c>
+      <c r="G11" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="151"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="71">
+        <v>45734</v>
+      </c>
+      <c r="B12" s="78">
+        <v>0</v>
+      </c>
+      <c r="C12" s="78">
+        <v>0</v>
+      </c>
+      <c r="D12" s="78">
+        <v>0</v>
+      </c>
+      <c r="E12" s="78">
+        <v>0</v>
+      </c>
+      <c r="F12" s="78">
+        <v>0</v>
+      </c>
+      <c r="G12" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="151"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="71">
+        <v>45735</v>
+      </c>
+      <c r="B13" s="78">
+        <v>0</v>
+      </c>
+      <c r="C13" s="78">
+        <v>0</v>
+      </c>
+      <c r="D13" s="78">
+        <v>0</v>
+      </c>
+      <c r="E13" s="78">
+        <v>0</v>
+      </c>
+      <c r="F13" s="78">
+        <v>0</v>
+      </c>
+      <c r="G13" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="68">
+        <v>45736</v>
+      </c>
+      <c r="B14" s="69">
+        <v>50</v>
+      </c>
+      <c r="C14" s="69">
+        <v>50</v>
+      </c>
+      <c r="D14" s="69">
+        <v>50</v>
+      </c>
+      <c r="E14" s="69">
+        <v>40</v>
+      </c>
+      <c r="F14" s="69">
+        <v>40</v>
+      </c>
+      <c r="G14" s="67">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="71">
+        <v>45737</v>
+      </c>
+      <c r="B15" s="78">
+        <v>0</v>
+      </c>
+      <c r="C15" s="78">
+        <v>0</v>
+      </c>
+      <c r="D15" s="78">
+        <v>0</v>
+      </c>
+      <c r="E15" s="78">
+        <v>0</v>
+      </c>
+      <c r="F15" s="78">
+        <v>0</v>
+      </c>
+      <c r="G15" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="151" t="s">
+        <v>213</v>
+      </c>
+      <c r="L15" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="M15" s="129"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="68">
+        <v>45738</v>
+      </c>
+      <c r="B16" s="69">
+        <v>36</v>
+      </c>
+      <c r="C16" s="69">
+        <v>30</v>
+      </c>
+      <c r="D16" s="69">
+        <v>30</v>
+      </c>
+      <c r="E16" s="69">
+        <v>36</v>
+      </c>
+      <c r="F16" s="69">
+        <v>36</v>
+      </c>
+      <c r="G16" s="67">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="K16" s="151"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A17" s="74">
+        <v>45739</v>
+      </c>
+      <c r="B17" s="75">
+        <v>0</v>
+      </c>
+      <c r="C17" s="75">
+        <v>0</v>
+      </c>
+      <c r="D17" s="75">
+        <v>0</v>
+      </c>
+      <c r="E17" s="75">
+        <v>0</v>
+      </c>
+      <c r="F17" s="75">
+        <v>0</v>
+      </c>
+      <c r="G17" s="76">
+        <v>0</v>
+      </c>
+      <c r="K17" s="151"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickTop="1">
+      <c r="A18" s="65">
+        <v>45740</v>
+      </c>
+      <c r="B18" s="66">
+        <v>100</v>
+      </c>
+      <c r="C18" s="66">
+        <v>50</v>
+      </c>
+      <c r="D18" s="66">
+        <v>50</v>
+      </c>
+      <c r="E18" s="66">
+        <v>60</v>
+      </c>
+      <c r="F18" s="66">
+        <v>60</v>
+      </c>
+      <c r="G18" s="67">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="K18" s="151"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="77">
+        <v>45741</v>
+      </c>
+      <c r="B19" s="78">
+        <v>0</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0</v>
+      </c>
+      <c r="D19" s="78">
+        <v>0</v>
+      </c>
+      <c r="E19" s="78">
+        <v>0</v>
+      </c>
+      <c r="F19" s="78">
+        <v>0</v>
+      </c>
+      <c r="G19" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="151"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="65">
+        <v>45742</v>
+      </c>
+      <c r="B20" s="66">
+        <v>100</v>
+      </c>
+      <c r="C20" s="66">
+        <v>50</v>
+      </c>
+      <c r="D20" s="66">
+        <v>50</v>
+      </c>
+      <c r="E20" s="66">
+        <v>60</v>
+      </c>
+      <c r="F20" s="66">
+        <v>60</v>
+      </c>
+      <c r="G20" s="67">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="77">
+        <v>45743</v>
+      </c>
+      <c r="B21" s="78">
+        <v>0</v>
+      </c>
+      <c r="C21" s="78">
+        <v>0</v>
+      </c>
+      <c r="D21" s="78">
+        <v>0</v>
+      </c>
+      <c r="E21" s="78">
+        <v>0</v>
+      </c>
+      <c r="F21" s="78">
+        <v>0</v>
+      </c>
+      <c r="G21" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="151" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="155" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="155"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="77">
+        <v>45744</v>
+      </c>
+      <c r="B22" s="78">
+        <v>0</v>
+      </c>
+      <c r="C22" s="78">
+        <v>0</v>
+      </c>
+      <c r="D22" s="78">
+        <v>0</v>
+      </c>
+      <c r="E22" s="78">
+        <v>0</v>
+      </c>
+      <c r="F22" s="78">
+        <v>0</v>
+      </c>
+      <c r="G22" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="151"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="77">
+        <v>45745</v>
+      </c>
+      <c r="B23" s="78">
+        <v>0</v>
+      </c>
+      <c r="C23" s="78">
+        <v>0</v>
+      </c>
+      <c r="D23" s="78">
+        <v>0</v>
+      </c>
+      <c r="E23" s="78">
+        <v>0</v>
+      </c>
+      <c r="F23" s="78">
+        <v>0</v>
+      </c>
+      <c r="G23" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="151"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A24" s="74">
+        <v>45746</v>
+      </c>
+      <c r="B24" s="75">
+        <v>0</v>
+      </c>
+      <c r="C24" s="75">
+        <v>0</v>
+      </c>
+      <c r="D24" s="75">
+        <v>0</v>
+      </c>
+      <c r="E24" s="75">
+        <v>0</v>
+      </c>
+      <c r="F24" s="75">
+        <v>0</v>
+      </c>
+      <c r="G24" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="151"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickTop="1">
+      <c r="A25" s="116"/>
+      <c r="B25" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="118"/>
+      <c r="K25" s="151"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="65">
+        <v>45747</v>
+      </c>
+      <c r="B26" s="66">
+        <v>100</v>
+      </c>
+      <c r="C26" s="66">
+        <v>60</v>
+      </c>
+      <c r="D26" s="66">
+        <v>60</v>
+      </c>
+      <c r="E26" s="66">
+        <v>60</v>
+      </c>
+      <c r="F26" s="66">
+        <v>60</v>
+      </c>
+      <c r="G26" s="67">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="K26" s="151"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="77">
+        <v>45748</v>
+      </c>
+      <c r="B27" s="78">
+        <v>0</v>
+      </c>
+      <c r="C27" s="78">
+        <v>0</v>
+      </c>
+      <c r="D27" s="78">
+        <v>0</v>
+      </c>
+      <c r="E27" s="78">
+        <v>0</v>
+      </c>
+      <c r="F27" s="78">
+        <v>0</v>
+      </c>
+      <c r="G27" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="151"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="77">
+        <v>45749</v>
+      </c>
+      <c r="B28" s="78">
+        <v>0</v>
+      </c>
+      <c r="C28" s="78">
+        <v>0</v>
+      </c>
+      <c r="D28" s="78">
+        <v>0</v>
+      </c>
+      <c r="E28" s="78">
+        <v>0</v>
+      </c>
+      <c r="F28" s="78">
+        <v>0</v>
+      </c>
+      <c r="G28" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="50"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="77">
+        <v>45750</v>
+      </c>
+      <c r="B29" s="78">
+        <v>0</v>
+      </c>
+      <c r="C29" s="78">
+        <v>0</v>
+      </c>
+      <c r="D29" s="78">
+        <v>0</v>
+      </c>
+      <c r="E29" s="78">
+        <v>0</v>
+      </c>
+      <c r="F29" s="78">
+        <v>0</v>
+      </c>
+      <c r="G29" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="151" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" s="155" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" s="155"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="108">
+        <v>45751</v>
+      </c>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
+      <c r="K30" s="151"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="108">
+        <v>45752</v>
+      </c>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
+      <c r="K31" s="151"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A32" s="111">
+        <v>45753</v>
+      </c>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
+      <c r="K32" s="151"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="56"/>
+      <c r="K33" s="151"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="57"/>
+      <c r="B34" s="142" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="144"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="84">
+        <f>SUM(B3:B10)/40</f>
+        <v>4.25</v>
+      </c>
+      <c r="C35" s="85">
+        <f>SUM(C3:C10)/40</f>
+        <v>3</v>
+      </c>
+      <c r="D35" s="85">
+        <f>SUM(D3:D10)/40</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="85">
+        <f>SUM(E3:E10)/40</f>
+        <v>2</v>
+      </c>
+      <c r="F35" s="85">
+        <f>SUM(F3:F10)/40</f>
+        <v>2</v>
+      </c>
+      <c r="G35" s="86">
+        <f>SUM(G3:G10)/80</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="M8" s="189"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="198">
-        <v>45731</v>
-      </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="198">
-        <v>45732</v>
-      </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="198">
-        <v>45733</v>
-      </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="189"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="198">
-        <v>45734</v>
-      </c>
-      <c r="B12" s="193"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="198">
-        <v>45735</v>
-      </c>
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="198">
-        <v>45736</v>
-      </c>
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="198">
-        <v>45737</v>
-      </c>
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="K15" s="192" t="s">
-        <v>230</v>
-      </c>
-      <c r="L15" s="188" t="s">
-        <v>229</v>
-      </c>
-      <c r="M15" s="185"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="198">
-        <v>45738</v>
-      </c>
-      <c r="B16" s="193"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="198">
-        <v>45739</v>
-      </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="N17" s="186"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="198">
-        <v>45740</v>
-      </c>
-      <c r="B18" s="193"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="N18" s="186"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="N19" s="186"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="N20" s="186"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="K21" s="192" t="s">
-        <v>228</v>
-      </c>
-      <c r="L21" s="188" t="s">
+      <c r="B36" s="84">
+        <f>SUM(B11:B17)/40</f>
+        <v>2.15</v>
+      </c>
+      <c r="C36" s="85">
+        <f>SUM(C11:C17)/40</f>
+        <v>2</v>
+      </c>
+      <c r="D36" s="85">
+        <f>SUM(D11:D17)/40</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="85">
+        <f>SUM(E11:E17)/40</f>
+        <v>1.9</v>
+      </c>
+      <c r="F36" s="85">
+        <f>SUM(F11:F17)/40</f>
+        <v>1.9</v>
+      </c>
+      <c r="G36" s="86">
+        <f>SUM(G11:G17)/80</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="87">
+        <f>SUM(B18:B24)/100</f>
+        <v>2</v>
+      </c>
+      <c r="C37" s="87">
+        <f>SUM(C18:C24)/50</f>
+        <v>2</v>
+      </c>
+      <c r="D37" s="87">
+        <f>SUM(D18:D24)/50</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="87">
+        <f>SUM(E18:E24)/60</f>
+        <v>2</v>
+      </c>
+      <c r="F37" s="87">
+        <f>SUM(F18:F24)/60</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="82">
+        <f>SUM(G18:G24)/120</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="87">
+        <f>SUM(B26:B32)/100</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="87">
+        <f>SUM(C26:C32)/50</f>
+        <v>1.2</v>
+      </c>
+      <c r="D38" s="87">
+        <f>SUM(D26:D32)/50</f>
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="87">
+        <f>SUM(E26:E32)/60</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="82">
+        <f>SUM(F26:F32)/60</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="115">
+        <f>SUM(G26:G32)/120</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="57"/>
+      <c r="B40" s="142" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="144"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="80">
+        <f>SUM(B3:B10)</f>
+        <v>170</v>
+      </c>
+      <c r="C41" s="81">
+        <f t="shared" ref="C41:F41" si="1">SUM(C3:C10)</f>
+        <v>120</v>
+      </c>
+      <c r="D41" s="81">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E41" s="81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F41" s="81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G41" s="82">
+        <f>SUM(G3:G10)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="84">
+        <f>SUM(B11:B17)</f>
+        <v>86</v>
+      </c>
+      <c r="C42" s="85">
+        <f t="shared" ref="C42:G42" si="2">SUM(C11:C17)</f>
+        <v>80</v>
+      </c>
+      <c r="D42" s="85">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E42" s="85">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="F42" s="85">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="G42" s="86">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="84">
+        <f>SUM(B18:B24)</f>
+        <v>200</v>
+      </c>
+      <c r="C43" s="85">
+        <f t="shared" ref="C43:G43" si="3">SUM(C18:C24)</f>
+        <v>100</v>
+      </c>
+      <c r="D43" s="85">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E43" s="85">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="F43" s="85">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="G43" s="86">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="84">
+        <f t="shared" ref="B44:G44" si="4">SUM(B26:B32)</f>
+        <v>100</v>
+      </c>
+      <c r="C44" s="85">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D44" s="85">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E44" s="85">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F44" s="85">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G44" s="86">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="M21" s="188"/>
-      <c r="N21" s="186"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="N27" s="187"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="K28" s="187" t="s">
-        <v>227</v>
-      </c>
-      <c r="L28" s="188" t="s">
+      <c r="B46" s="145" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="146"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="M28" s="188"/>
-    </row>
+      <c r="B47" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="146"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A48" s="130" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" s="148" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="150"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="131"/>
+      <c r="B49" s="147" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="134"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="131"/>
+      <c r="B50" s="133" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="134"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="131"/>
+      <c r="B51" s="135" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="136"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A52" s="132"/>
+      <c r="B52" s="137" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="138"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="25">
+    <mergeCell ref="R8:S12"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="O8:P12"/>
+    <mergeCell ref="Q8:Q12"/>
     <mergeCell ref="L2:M5"/>
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L8:M12"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K15:K19"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B48:G48"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/myspace/vinted/Chat Bot Vinted.xlsx
+++ b/myspace/vinted/Chat Bot Vinted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattia.forneron\Desktop\myfolder\MyWorkFolder\myspace\vinted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0457FC5E-6713-4C7F-A666-9886685D2FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC605D3E-E986-4FA6-918A-42CE4B4D2E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="428">
   <si>
     <t>Ordine</t>
   </si>
@@ -1348,6 +1348,30 @@
   <si>
     <t>2 T-shirt</t>
   </si>
+  <si>
+    <t>12mag - 17mag</t>
+  </si>
+  <si>
+    <t>19mag - 24mag</t>
+  </si>
+  <si>
+    <t>26mag - 31mag</t>
+  </si>
+  <si>
+    <t>FEBB</t>
+  </si>
+  <si>
+    <t>MARZ</t>
+  </si>
+  <si>
+    <t>APRI</t>
+  </si>
+  <si>
+    <t>MAGG</t>
+  </si>
+  <si>
+    <t>2giu - 7giu</t>
+  </si>
 </sst>
 </file>
 
@@ -1362,11 +1386,18 @@
     <numFmt numFmtId="168" formatCode="0\ &quot;anni&quot;"/>
     <numFmt numFmtId="169" formatCode="0\ &quot;mesi&quot;"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3328,78 +3359,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="422">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3411,79 +3442,79 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="20" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="20" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="18" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="18" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="26" fillId="20" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="27" fillId="20" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="25" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3564,396 +3595,396 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="29" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="49" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="29" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="23" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="23" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="28" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="28" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3989,14 +4020,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4010,38 +4047,32 @@
     <xf numFmtId="0" fontId="6" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4050,23 +4081,23 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4084,147 +4115,342 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="55" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="39" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="39" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="39" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="61" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="61" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="60" fillId="39" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="40" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4234,9 +4460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4251,7 +4474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4263,34 +4486,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4308,73 +4525,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4383,152 +4552,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="54" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="39" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="59" fillId="39" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="39" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="60" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="39" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="59" fillId="39" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="63" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="40" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="40" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5340,7 +5374,7 @@
   <dimension ref="A1:C1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5440,10 +5474,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="291">
+      <c r="A9" s="337">
         <v>8</v>
       </c>
-      <c r="B9" s="293" t="s">
+      <c r="B9" s="339" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="99" t="s">
@@ -5451,8 +5485,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="292"/>
-      <c r="B10" s="294"/>
+      <c r="A10" s="338"/>
+      <c r="B10" s="340"/>
       <c r="C10" s="99" t="s">
         <v>180</v>
       </c>
@@ -6759,23 +6793,23 @@
       </c>
     </row>
     <row r="16" spans="6:16">
-      <c r="F16" s="402" t="s">
+      <c r="F16" s="318" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="403" t="s">
+      <c r="G16" s="319" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="404">
+      <c r="H16" s="320">
         <v>15</v>
       </c>
-      <c r="I16" s="404">
+      <c r="I16" s="320">
         <f>IF(H16=15,(H16-5)/2,H16/2-1)</f>
         <v>5</v>
       </c>
-      <c r="J16" s="404">
+      <c r="J16" s="320">
         <v>7</v>
       </c>
-      <c r="K16" s="405" t="s">
+      <c r="K16" s="321" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6927,34 +6961,34 @@
       </c>
     </row>
     <row r="24" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F24" s="295" t="s">
+      <c r="F24" s="341" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="296"/>
-      <c r="H24" s="296"/>
-      <c r="I24" s="296"/>
-      <c r="J24" s="296"/>
-      <c r="K24" s="296"/>
+      <c r="G24" s="342"/>
+      <c r="H24" s="342"/>
+      <c r="I24" s="342"/>
+      <c r="J24" s="342"/>
+      <c r="K24" s="342"/>
     </row>
     <row r="25" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F25" s="295" t="s">
+      <c r="F25" s="341" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="296"/>
-      <c r="H25" s="296"/>
-      <c r="I25" s="296"/>
-      <c r="J25" s="296"/>
-      <c r="K25" s="296"/>
+      <c r="G25" s="342"/>
+      <c r="H25" s="342"/>
+      <c r="I25" s="342"/>
+      <c r="J25" s="342"/>
+      <c r="K25" s="342"/>
     </row>
     <row r="26" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F26" s="295" t="s">
+      <c r="F26" s="341" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="296"/>
-      <c r="H26" s="296"/>
-      <c r="I26" s="296"/>
-      <c r="J26" s="296"/>
-      <c r="K26" s="296"/>
+      <c r="G26" s="342"/>
+      <c r="H26" s="342"/>
+      <c r="I26" s="342"/>
+      <c r="J26" s="342"/>
+      <c r="K26" s="342"/>
     </row>
     <row r="27" spans="6:14" ht="15.75" customHeight="1">
       <c r="F27" s="1"/>
@@ -10022,7 +10056,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10031,10 +10065,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Foglio3"/>
-  <dimension ref="A1:AB1006"/>
+  <dimension ref="A1:AB1011"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10062,19 +10096,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" thickBot="1">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="343" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="298"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="344"/>
       <c r="L1" s="34"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -10146,38 +10180,38 @@
       <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:28" s="140" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A3" s="379" t="s">
+      <c r="A3" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="380">
+      <c r="B3" s="296">
         <v>45685</v>
       </c>
-      <c r="C3" s="380" t="s">
+      <c r="C3" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="381">
+      <c r="D3" s="297">
         <f t="shared" ref="D3:D12" si="0">VALUE(RIGHT(C3,10))-VALUE(RIGHT(B3,10))</f>
         <v>7</v>
       </c>
-      <c r="E3" s="381" t="s">
+      <c r="E3" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="381" t="s">
+      <c r="F3" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="381" t="s">
+      <c r="G3" s="297" t="s">
         <v>419</v>
       </c>
-      <c r="H3" s="381" t="s">
+      <c r="H3" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="381" t="s">
+      <c r="I3" s="297" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="381" t="s">
+      <c r="J3" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="382">
+      <c r="K3" s="298">
         <v>8</v>
       </c>
       <c r="L3" s="138"/>
@@ -10232,10 +10266,10 @@
       <c r="I4" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="406" t="s">
+      <c r="J4" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="383">
+      <c r="K4" s="299">
         <v>7</v>
       </c>
       <c r="L4" s="138"/>
@@ -10292,10 +10326,10 @@
       <c r="I5" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="406" t="s">
+      <c r="J5" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="383">
+      <c r="K5" s="299">
         <v>4.99</v>
       </c>
       <c r="L5" s="138"/>
@@ -10352,10 +10386,10 @@
       <c r="I6" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="406" t="s">
+      <c r="J6" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="383">
+      <c r="K6" s="299">
         <v>4.99</v>
       </c>
       <c r="L6" s="138"/>
@@ -10412,10 +10446,10 @@
       <c r="I7" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="408" t="s">
+      <c r="J7" s="324" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="384">
+      <c r="K7" s="300">
         <v>9.48</v>
       </c>
       <c r="L7" s="138"/>
@@ -10472,10 +10506,10 @@
       <c r="I8" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="406" t="s">
+      <c r="J8" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="385">
+      <c r="K8" s="301">
         <v>7</v>
       </c>
       <c r="L8" s="138"/>
@@ -10532,10 +10566,10 @@
       <c r="I9" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="406" t="s">
+      <c r="J9" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="383">
+      <c r="K9" s="299">
         <v>12.33</v>
       </c>
       <c r="L9" s="138"/>
@@ -10592,10 +10626,10 @@
       <c r="I10" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="408" t="s">
+      <c r="J10" s="324" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="384">
+      <c r="K10" s="300">
         <v>9</v>
       </c>
       <c r="L10" s="138"/>
@@ -10603,7 +10637,7 @@
       <c r="N10" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="O10" s="375">
+      <c r="O10" s="291">
         <f>SUMIF(J:J, "RIMBORSATO", K:K)</f>
         <v>8</v>
       </c>
@@ -10652,10 +10686,10 @@
       <c r="I11" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="409" t="s">
+      <c r="J11" s="325" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="385">
+      <c r="K11" s="301">
         <v>15</v>
       </c>
       <c r="L11" s="138"/>
@@ -10712,10 +10746,10 @@
       <c r="I12" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="406" t="s">
+      <c r="J12" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="383">
+      <c r="K12" s="299">
         <v>19.77</v>
       </c>
       <c r="L12" s="138"/>
@@ -10772,10 +10806,10 @@
       <c r="I13" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="406" t="s">
+      <c r="J13" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="386">
+      <c r="K13" s="302">
         <v>24.99</v>
       </c>
       <c r="L13" s="138"/>
@@ -10832,10 +10866,10 @@
       <c r="I14" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="406" t="s">
+      <c r="J14" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="386">
+      <c r="K14" s="302">
         <v>19</v>
       </c>
       <c r="L14" s="138"/>
@@ -10878,26 +10912,26 @@
       <c r="I15" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="408" t="s">
+      <c r="J15" s="324" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="384">
+      <c r="K15" s="300">
         <v>6</v>
       </c>
       <c r="L15" s="161"/>
-      <c r="M15" s="306" t="s">
+      <c r="M15" s="352" t="s">
         <v>105</v>
       </c>
-      <c r="N15" s="307"/>
-      <c r="O15" s="308"/>
-      <c r="P15" s="299" t="s">
+      <c r="N15" s="353"/>
+      <c r="O15" s="354"/>
+      <c r="P15" s="345" t="s">
         <v>106</v>
       </c>
-      <c r="Q15" s="300"/>
-      <c r="R15" s="301" t="s">
+      <c r="Q15" s="346"/>
+      <c r="R15" s="347" t="s">
         <v>107</v>
       </c>
-      <c r="S15" s="302"/>
+      <c r="S15" s="348"/>
       <c r="T15" s="139"/>
       <c r="U15" s="139"/>
       <c r="V15" s="139"/>
@@ -10937,10 +10971,10 @@
       <c r="I16" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="409" t="s">
+      <c r="J16" s="325" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="385">
+      <c r="K16" s="301">
         <v>8.5</v>
       </c>
       <c r="L16" s="138"/>
@@ -11007,12 +11041,12 @@
       <c r="J17" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="383">
+      <c r="K17" s="299">
         <v>8</v>
       </c>
       <c r="L17" s="138"/>
-      <c r="M17" s="303">
-        <v>1</v>
+      <c r="M17" s="349" t="s">
+        <v>423</v>
       </c>
       <c r="N17" s="163" t="s">
         <v>116</v>
@@ -11075,14 +11109,14 @@
       <c r="I18" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="406" t="s">
+      <c r="J18" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="383">
+      <c r="K18" s="299">
         <v>18</v>
       </c>
       <c r="L18" s="138"/>
-      <c r="M18" s="303"/>
+      <c r="M18" s="349"/>
       <c r="N18" s="166" t="s">
         <v>120</v>
       </c>
@@ -11090,7 +11124,7 @@
         <v>121</v>
       </c>
       <c r="P18" s="27">
-        <f t="shared" ref="P17:P25" si="5">SUMIFS(K:K, A:A, O18, J:J, "&lt;&gt;ANNULLATO")</f>
+        <f t="shared" ref="P18:P25" si="5">SUMIFS(K:K, A:A, O18, J:J, "&lt;&gt;ANNULLATO")</f>
         <v>28.33</v>
       </c>
       <c r="Q18" s="167">
@@ -11144,14 +11178,14 @@
       <c r="I19" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="410" t="s">
+      <c r="J19" s="326" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="387">
+      <c r="K19" s="303">
         <v>45</v>
       </c>
       <c r="L19" s="138"/>
-      <c r="M19" s="303"/>
+      <c r="M19" s="349"/>
       <c r="N19" s="170" t="s">
         <v>126</v>
       </c>
@@ -11216,11 +11250,11 @@
       <c r="J20" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="388">
+      <c r="K20" s="304">
         <v>10</v>
       </c>
       <c r="L20" s="174"/>
-      <c r="M20" s="303"/>
+      <c r="M20" s="349"/>
       <c r="N20" s="166" t="s">
         <v>131</v>
       </c>
@@ -11282,14 +11316,14 @@
       <c r="I21" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="411" t="s">
+      <c r="J21" s="327" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="389">
+      <c r="K21" s="305">
         <v>25</v>
       </c>
       <c r="L21" s="139"/>
-      <c r="M21" s="304"/>
+      <c r="M21" s="350"/>
       <c r="N21" s="175" t="s">
         <v>136</v>
       </c>
@@ -11351,15 +11385,15 @@
       <c r="I22" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="412" t="s">
+      <c r="J22" s="328" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="390">
+      <c r="K22" s="306">
         <v>24.99</v>
       </c>
       <c r="L22" s="180"/>
-      <c r="M22" s="305">
-        <v>2</v>
+      <c r="M22" s="351" t="s">
+        <v>424</v>
       </c>
       <c r="N22" s="179" t="s">
         <v>116</v>
@@ -11413,14 +11447,14 @@
       <c r="I23" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="413" t="s">
+      <c r="J23" s="329" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="391">
+      <c r="K23" s="307">
         <v>8.5</v>
       </c>
       <c r="L23" s="139"/>
-      <c r="M23" s="303"/>
+      <c r="M23" s="349"/>
       <c r="N23" s="181" t="s">
         <v>120</v>
       </c>
@@ -11482,14 +11516,14 @@
       <c r="I24" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="409" t="s">
+      <c r="J24" s="325" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="392">
+      <c r="K24" s="308">
         <v>19</v>
       </c>
       <c r="L24" s="139"/>
-      <c r="M24" s="303"/>
+      <c r="M24" s="349"/>
       <c r="N24" s="182" t="s">
         <v>126</v>
       </c>
@@ -11551,14 +11585,14 @@
       <c r="I25" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="406" t="s">
+      <c r="J25" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="393">
+      <c r="K25" s="309">
         <v>52</v>
       </c>
       <c r="L25" s="139"/>
-      <c r="M25" s="303"/>
+      <c r="M25" s="349"/>
       <c r="N25" s="181" t="s">
         <v>131</v>
       </c>
@@ -11620,14 +11654,14 @@
       <c r="I26" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="408" t="s">
+      <c r="J26" s="324" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="394">
+      <c r="K26" s="310">
         <v>10</v>
       </c>
       <c r="L26" s="139"/>
-      <c r="M26" s="304"/>
+      <c r="M26" s="350"/>
       <c r="N26" s="183" t="s">
         <v>136</v>
       </c>
@@ -11689,15 +11723,15 @@
       <c r="I27" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="414" t="s">
+      <c r="J27" s="330" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="395">
+      <c r="K27" s="311">
         <v>85</v>
       </c>
       <c r="L27" s="139"/>
-      <c r="M27" s="305">
-        <v>3</v>
+      <c r="M27" s="351" t="s">
+        <v>425</v>
       </c>
       <c r="N27" s="179" t="s">
         <v>116</v>
@@ -11760,14 +11794,14 @@
       <c r="I28" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="415" t="s">
+      <c r="J28" s="331" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="396">
+      <c r="K28" s="312">
         <v>52</v>
       </c>
       <c r="L28" s="139"/>
-      <c r="M28" s="303"/>
+      <c r="M28" s="349"/>
       <c r="N28" s="181" t="s">
         <v>120</v>
       </c>
@@ -11789,42 +11823,42 @@
       <c r="AB28" s="139"/>
     </row>
     <row r="29" spans="1:28" s="140" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="376" t="s">
+      <c r="A29" s="292" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="377" t="s">
+      <c r="B29" s="293" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="377" t="s">
+      <c r="C29" s="293" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="376">
+      <c r="D29" s="292">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="E29" s="376" t="s">
+      <c r="E29" s="292" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="376" t="s">
+      <c r="F29" s="292" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="376" t="s">
+      <c r="G29" s="292" t="s">
         <v>419</v>
       </c>
-      <c r="H29" s="376" t="s">
+      <c r="H29" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="376" t="s">
+      <c r="I29" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="378" t="s">
+      <c r="J29" s="294" t="s">
         <v>244</v>
       </c>
-      <c r="K29" s="397">
+      <c r="K29" s="313">
         <v>8</v>
       </c>
       <c r="L29" s="139"/>
-      <c r="M29" s="303"/>
+      <c r="M29" s="349"/>
       <c r="N29" s="182" t="s">
         <v>126</v>
       </c>
@@ -11874,14 +11908,14 @@
       <c r="I30" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="416" t="s">
+      <c r="J30" s="332" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="398">
+      <c r="K30" s="314">
         <v>58</v>
       </c>
       <c r="L30" s="139"/>
-      <c r="M30" s="303"/>
+      <c r="M30" s="349"/>
       <c r="N30" s="181" t="s">
         <v>131</v>
       </c>
@@ -11931,14 +11965,14 @@
       <c r="I31" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="417" t="s">
+      <c r="J31" s="333" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="398">
+      <c r="K31" s="314">
         <v>60</v>
       </c>
       <c r="L31" s="6"/>
-      <c r="M31" s="304"/>
+      <c r="M31" s="350"/>
       <c r="N31" s="183" t="s">
         <v>136</v>
       </c>
@@ -11946,7 +11980,7 @@
         <v>372</v>
       </c>
       <c r="P31" s="185">
-        <f t="shared" ref="P31" si="8">SUMIFS(K:K, A:A, O31, J:J, "&lt;&gt;ANNULLATO")</f>
+        <f t="shared" ref="P31:P32" si="8">SUMIFS(K:K, A:A, O31, J:J, "&lt;&gt;ANNULLATO")</f>
         <v>23.990000000000002</v>
       </c>
       <c r="Q31" s="186">
@@ -11954,11 +11988,11 @@
         <v>3</v>
       </c>
       <c r="R31" s="185">
-        <f t="shared" ref="R31" si="9">P31/Q31</f>
+        <f t="shared" ref="R31:R32" si="9">P31/Q31</f>
         <v>7.996666666666667</v>
       </c>
       <c r="S31" s="187">
-        <f t="shared" ref="S31" si="10">P31/6</f>
+        <f t="shared" ref="S31:S32" si="10">P31/6</f>
         <v>3.9983333333333335</v>
       </c>
       <c r="T31" s="6"/>
@@ -11971,7 +12005,7 @@
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
       <c r="A32" s="262" t="s">
         <v>372</v>
       </c>
@@ -12000,37 +12034,26 @@
       <c r="I32" s="255" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="418" t="s">
+      <c r="J32" s="334" t="s">
         <v>70</v>
       </c>
-      <c r="K32" s="399">
+      <c r="K32" s="315">
         <v>7</v>
       </c>
       <c r="L32" s="6"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="189">
-        <f>COUNTA(N17:N31)</f>
-        <v>15</v>
-      </c>
-      <c r="O32" s="277">
-        <v>90</v>
-      </c>
-      <c r="P32" s="191">
-        <f>SUM(P17:P31)</f>
-        <v>655.53</v>
-      </c>
-      <c r="Q32" s="190">
-        <f>SUM(Q17:Q31)</f>
-        <v>31</v>
-      </c>
-      <c r="R32" s="191">
-        <f>P32/Q32</f>
-        <v>21.146129032258063</v>
-      </c>
-      <c r="S32" s="192">
-        <f>P32/O32</f>
-        <v>7.2836666666666661</v>
-      </c>
+      <c r="M32" s="351" t="s">
+        <v>426</v>
+      </c>
+      <c r="N32" s="179" t="s">
+        <v>116</v>
+      </c>
+      <c r="O32" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="46"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -12041,7 +12064,7 @@
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1">
       <c r="A33" s="264" t="s">
         <v>372</v>
       </c>
@@ -12070,20 +12093,24 @@
       <c r="I33" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="J33" s="419" t="s">
+      <c r="J33" s="335" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="400">
+      <c r="K33" s="316">
         <v>7</v>
       </c>
       <c r="L33" s="6"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="139"/>
-      <c r="P33" s="139"/>
-      <c r="Q33" s="139"/>
-      <c r="R33" s="139"/>
-      <c r="S33" s="139"/>
+      <c r="M33" s="349"/>
+      <c r="N33" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="49"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
@@ -12123,20 +12150,24 @@
       <c r="I34" s="276" t="s">
         <v>62</v>
       </c>
-      <c r="J34" s="420" t="s">
+      <c r="J34" s="336" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="401">
+      <c r="K34" s="317">
         <v>9.99</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139"/>
-      <c r="P34" s="139"/>
-      <c r="Q34" s="139"/>
-      <c r="R34" s="139"/>
-      <c r="S34" s="139"/>
+      <c r="M34" s="349"/>
+      <c r="N34" s="182" t="s">
+        <v>126</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="54"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
@@ -12159,13 +12190,17 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="139"/>
-      <c r="N35" s="139"/>
-      <c r="O35" s="139"/>
-      <c r="P35" s="139"/>
-      <c r="Q35" s="139"/>
-      <c r="R35" s="139"/>
-      <c r="S35" s="139"/>
+      <c r="M35" s="349"/>
+      <c r="N35" s="181" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="49"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
@@ -12176,7 +12211,7 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -12188,13 +12223,15 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="139"/>
-      <c r="R36" s="139"/>
-      <c r="S36" s="139"/>
+      <c r="M36" s="350"/>
+      <c r="N36" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="O36" s="421"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="185"/>
+      <c r="S36" s="187"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
@@ -12205,7 +12242,7 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -12217,17 +12254,30 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="290" t="s">
-        <v>404</v>
-      </c>
-      <c r="P37" s="290" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
+      <c r="M37" s="188"/>
+      <c r="N37" s="189">
+        <f>COUNTA(N17:N31)</f>
+        <v>15</v>
+      </c>
+      <c r="O37" s="277">
+        <v>90</v>
+      </c>
+      <c r="P37" s="191">
+        <f>SUM(P17:P31)</f>
+        <v>655.53</v>
+      </c>
+      <c r="Q37" s="190">
+        <f>SUM(Q17:Q31)</f>
+        <v>31</v>
+      </c>
+      <c r="R37" s="191">
+        <f>P37/Q37</f>
+        <v>21.146129032258063</v>
+      </c>
+      <c r="S37" s="192">
+        <f>P37/O37</f>
+        <v>7.2836666666666661</v>
+      </c>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
@@ -12238,7 +12288,7 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" thickTop="1">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -12250,21 +12300,13 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="290" t="s">
-        <v>385</v>
-      </c>
-      <c r="O38" s="265">
-        <f>O13- 86.5</f>
-        <v>551.03</v>
-      </c>
-      <c r="P38" s="265">
-        <f>O38-O8</f>
-        <v>551.03</v>
-      </c>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
+      <c r="M38" s="139"/>
+      <c r="N38" s="139"/>
+      <c r="O38" s="139"/>
+      <c r="P38" s="139"/>
+      <c r="Q38" s="139"/>
+      <c r="R38" s="139"/>
+      <c r="S38" s="139"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
@@ -12287,21 +12329,13 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="290" t="s">
-        <v>384</v>
-      </c>
-      <c r="O39" s="265">
-        <f>O38-400</f>
-        <v>151.02999999999997</v>
-      </c>
-      <c r="P39" s="265">
-        <f>O39-O8</f>
-        <v>151.02999999999997</v>
-      </c>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="139"/>
+      <c r="R39" s="139"/>
+      <c r="S39" s="139"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
@@ -12324,13 +12358,13 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="139"/>
+      <c r="O40" s="139"/>
+      <c r="P40" s="139"/>
+      <c r="Q40" s="139"/>
+      <c r="R40" s="139"/>
+      <c r="S40" s="139"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
@@ -12349,17 +12383,17 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="407"/>
+      <c r="I41" s="323"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
+      <c r="M41" s="139"/>
+      <c r="N41" s="139"/>
+      <c r="O41" s="139"/>
+      <c r="P41" s="139"/>
+      <c r="Q41" s="139"/>
+      <c r="R41" s="139"/>
+      <c r="S41" s="139"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
@@ -12384,8 +12418,12 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
+      <c r="O42" s="290" t="s">
+        <v>404</v>
+      </c>
+      <c r="P42" s="290" t="s">
+        <v>405</v>
+      </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -12412,9 +12450,17 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+      <c r="N43" s="290" t="s">
+        <v>385</v>
+      </c>
+      <c r="O43" s="265">
+        <f>O13- 86.5</f>
+        <v>551.03</v>
+      </c>
+      <c r="P43" s="265">
+        <f>O43-O8</f>
+        <v>551.03</v>
+      </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -12441,9 +12487,17 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
+      <c r="N44" s="290" t="s">
+        <v>384</v>
+      </c>
+      <c r="O44" s="265">
+        <f>O43-400</f>
+        <v>151.02999999999997</v>
+      </c>
+      <c r="P44" s="265">
+        <f>O44-O8</f>
+        <v>151.02999999999997</v>
+      </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -12470,7 +12524,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="N45" s="110"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
@@ -40235,9 +40289,55 @@
       <c r="R1006" s="6"/>
       <c r="S1006" s="6"/>
     </row>
+    <row r="1007" spans="2:28" ht="15" customHeight="1">
+      <c r="M1007" s="6"/>
+      <c r="N1007" s="6"/>
+      <c r="O1007" s="6"/>
+      <c r="P1007" s="6"/>
+      <c r="Q1007" s="6"/>
+      <c r="R1007" s="6"/>
+      <c r="S1007" s="6"/>
+    </row>
+    <row r="1008" spans="2:28" ht="15" customHeight="1">
+      <c r="M1008" s="6"/>
+      <c r="N1008" s="6"/>
+      <c r="O1008" s="6"/>
+      <c r="P1008" s="6"/>
+      <c r="Q1008" s="6"/>
+      <c r="R1008" s="6"/>
+      <c r="S1008" s="6"/>
+    </row>
+    <row r="1009" spans="13:19" ht="15" customHeight="1">
+      <c r="M1009" s="6"/>
+      <c r="N1009" s="6"/>
+      <c r="O1009" s="6"/>
+      <c r="P1009" s="6"/>
+      <c r="Q1009" s="6"/>
+      <c r="R1009" s="6"/>
+      <c r="S1009" s="6"/>
+    </row>
+    <row r="1010" spans="13:19" ht="15" customHeight="1">
+      <c r="M1010" s="6"/>
+      <c r="N1010" s="6"/>
+      <c r="O1010" s="6"/>
+      <c r="P1010" s="6"/>
+      <c r="Q1010" s="6"/>
+      <c r="R1010" s="6"/>
+      <c r="S1010" s="6"/>
+    </row>
+    <row r="1011" spans="13:19" ht="15" customHeight="1">
+      <c r="M1011" s="6"/>
+      <c r="N1011" s="6"/>
+      <c r="O1011" s="6"/>
+      <c r="P1011" s="6"/>
+      <c r="Q1011" s="6"/>
+      <c r="R1011" s="6"/>
+      <c r="S1011" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:K34" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="M32:M36"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="R15:S15"/>
@@ -40246,7 +40346,7 @@
     <mergeCell ref="M22:M26"/>
     <mergeCell ref="M15:O15"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="A1:K34">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$J1="ANNULLATO"</formula>
@@ -40287,41 +40387,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="355" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="310"/>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
+      <c r="A2" s="356"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="310"/>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
+      <c r="A3" s="356"/>
+      <c r="B3" s="356"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
     </row>
     <row r="4" spans="1:5" ht="84.75" customHeight="1">
-      <c r="A4" s="310"/>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
+      <c r="A4" s="356"/>
+      <c r="B4" s="356"/>
+      <c r="C4" s="356"/>
+      <c r="D4" s="356"/>
+      <c r="E4" s="356"/>
     </row>
     <row r="5" spans="1:5" ht="120" customHeight="1">
-      <c r="A5" s="310"/>
-      <c r="B5" s="310"/>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
+      <c r="A5" s="356"/>
+      <c r="B5" s="356"/>
+      <c r="C5" s="356"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="108" t="s">
@@ -40383,15 +40483,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="354" t="s">
+      <c r="A1" s="357" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="355"/>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="355"/>
-      <c r="G1" s="356"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358"/>
+      <c r="F1" s="358"/>
+      <c r="G1" s="359"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="59" t="s">
@@ -40415,13 +40515,13 @@
       <c r="G2" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="348" t="s">
+      <c r="K2" s="372" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="347" t="s">
+      <c r="L2" s="371" t="s">
         <v>204</v>
       </c>
-      <c r="M2" s="347"/>
+      <c r="M2" s="371"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="61">
@@ -40445,9 +40545,9 @@
       <c r="G3" s="64">
         <v>0</v>
       </c>
-      <c r="K3" s="323"/>
-      <c r="L3" s="347"/>
-      <c r="M3" s="347"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="371"/>
+      <c r="M3" s="371"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickTop="1">
       <c r="A4" s="65">
@@ -40472,9 +40572,9 @@
         <f>E4+F4</f>
         <v>80</v>
       </c>
-      <c r="K4" s="323"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
+      <c r="K4" s="373"/>
+      <c r="L4" s="371"/>
+      <c r="M4" s="371"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="68">
@@ -40499,9 +40599,9 @@
         <f t="shared" ref="G5:G28" si="0">E5+F5</f>
         <v>40</v>
       </c>
-      <c r="K5" s="323"/>
-      <c r="L5" s="347"/>
-      <c r="M5" s="347"/>
+      <c r="K5" s="373"/>
+      <c r="L5" s="371"/>
+      <c r="M5" s="371"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="71">
@@ -40574,27 +40674,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="348" t="s">
+      <c r="K8" s="372" t="s">
         <v>210</v>
       </c>
-      <c r="L8" s="349" t="s">
+      <c r="L8" s="374" t="s">
         <v>211</v>
       </c>
-      <c r="M8" s="347"/>
-      <c r="N8" s="333" t="s">
+      <c r="M8" s="371"/>
+      <c r="N8" s="397" t="s">
         <v>248</v>
       </c>
-      <c r="O8" s="332" t="s">
+      <c r="O8" s="396" t="s">
         <v>249</v>
       </c>
-      <c r="P8" s="332"/>
-      <c r="Q8" s="334" t="s">
+      <c r="P8" s="396"/>
+      <c r="Q8" s="398" t="s">
         <v>267</v>
       </c>
-      <c r="R8" s="332" t="s">
+      <c r="R8" s="396" t="s">
         <v>250</v>
       </c>
-      <c r="S8" s="332"/>
+      <c r="S8" s="396"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="68">
@@ -40619,15 +40719,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="348"/>
-      <c r="L9" s="347"/>
-      <c r="M9" s="347"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="332"/>
-      <c r="P9" s="332"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="332"/>
-      <c r="S9" s="332"/>
+      <c r="K9" s="372"/>
+      <c r="L9" s="371"/>
+      <c r="M9" s="371"/>
+      <c r="N9" s="397"/>
+      <c r="O9" s="396"/>
+      <c r="P9" s="396"/>
+      <c r="Q9" s="397"/>
+      <c r="R9" s="396"/>
+      <c r="S9" s="396"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1">
       <c r="A10" s="74">
@@ -40652,15 +40752,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="348"/>
-      <c r="L10" s="347"/>
-      <c r="M10" s="347"/>
-      <c r="N10" s="333"/>
-      <c r="O10" s="332"/>
-      <c r="P10" s="332"/>
-      <c r="Q10" s="333"/>
-      <c r="R10" s="332"/>
-      <c r="S10" s="332"/>
+      <c r="K10" s="372"/>
+      <c r="L10" s="371"/>
+      <c r="M10" s="371"/>
+      <c r="N10" s="397"/>
+      <c r="O10" s="396"/>
+      <c r="P10" s="396"/>
+      <c r="Q10" s="397"/>
+      <c r="R10" s="396"/>
+      <c r="S10" s="396"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickTop="1">
       <c r="A11" s="77">
@@ -40685,15 +40785,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="348"/>
-      <c r="L11" s="347"/>
-      <c r="M11" s="347"/>
-      <c r="N11" s="333"/>
-      <c r="O11" s="332"/>
-      <c r="P11" s="332"/>
-      <c r="Q11" s="333"/>
-      <c r="R11" s="332"/>
-      <c r="S11" s="332"/>
+      <c r="K11" s="372"/>
+      <c r="L11" s="371"/>
+      <c r="M11" s="371"/>
+      <c r="N11" s="397"/>
+      <c r="O11" s="396"/>
+      <c r="P11" s="396"/>
+      <c r="Q11" s="397"/>
+      <c r="R11" s="396"/>
+      <c r="S11" s="396"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="71">
@@ -40718,15 +40818,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="348"/>
-      <c r="L12" s="347"/>
-      <c r="M12" s="347"/>
-      <c r="N12" s="333"/>
-      <c r="O12" s="332"/>
-      <c r="P12" s="332"/>
-      <c r="Q12" s="333"/>
-      <c r="R12" s="332"/>
-      <c r="S12" s="332"/>
+      <c r="K12" s="372"/>
+      <c r="L12" s="371"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="397"/>
+      <c r="O12" s="396"/>
+      <c r="P12" s="396"/>
+      <c r="Q12" s="397"/>
+      <c r="R12" s="396"/>
+      <c r="S12" s="396"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="71">
@@ -40799,13 +40899,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="348" t="s">
+      <c r="K15" s="372" t="s">
         <v>208</v>
       </c>
-      <c r="L15" s="353" t="s">
+      <c r="L15" s="375" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="310"/>
+      <c r="M15" s="356"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="68">
@@ -40830,7 +40930,7 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="K16" s="348"/>
+      <c r="K16" s="372"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
       <c r="A17" s="74">
@@ -40854,7 +40954,7 @@
       <c r="G17" s="76">
         <v>0</v>
       </c>
-      <c r="K17" s="348"/>
+      <c r="K17" s="372"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickTop="1">
       <c r="A18" s="65">
@@ -40879,7 +40979,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K18" s="348"/>
+      <c r="K18" s="372"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="77">
@@ -40904,7 +41004,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="348"/>
+      <c r="K19" s="372"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="65">
@@ -40953,13 +41053,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="348" t="s">
+      <c r="K21" s="372" t="s">
         <v>206</v>
       </c>
-      <c r="L21" s="353" t="s">
+      <c r="L21" s="375" t="s">
         <v>212</v>
       </c>
-      <c r="M21" s="353"/>
+      <c r="M21" s="375"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="77">
@@ -40984,7 +41084,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="348"/>
+      <c r="K22" s="372"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="77">
@@ -41009,7 +41109,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="348"/>
+      <c r="K23" s="372"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1">
       <c r="A24" s="74">
@@ -41034,7 +41134,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="348"/>
+      <c r="K24" s="372"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="201"/>
@@ -41046,7 +41146,7 @@
       <c r="E25" s="202"/>
       <c r="F25" s="202"/>
       <c r="G25" s="203"/>
-      <c r="K25" s="348"/>
+      <c r="K25" s="372"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickTop="1">
       <c r="A26" s="65">
@@ -41071,7 +41171,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K26" s="348"/>
+      <c r="K26" s="372"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="77">
@@ -41096,7 +41196,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="348"/>
+      <c r="K27" s="372"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="77">
@@ -41146,13 +41246,13 @@
         <f t="shared" ref="G29:G34" si="1">E29+F29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="348" t="s">
+      <c r="K29" s="372" t="s">
         <v>205</v>
       </c>
-      <c r="L29" s="353" t="s">
+      <c r="L29" s="375" t="s">
         <v>213</v>
       </c>
-      <c r="M29" s="353"/>
+      <c r="M29" s="375"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="77">
@@ -41177,7 +41277,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30" s="348"/>
+      <c r="K30" s="372"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="65">
@@ -41202,7 +41302,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K31" s="348"/>
+      <c r="K31" s="372"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1">
       <c r="A32" s="74">
@@ -41227,7 +41327,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K32" s="348"/>
+      <c r="K32" s="372"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickTop="1">
       <c r="A33" s="65">
@@ -41253,7 +41353,7 @@
         <v>72</v>
       </c>
       <c r="H33" s="56"/>
-      <c r="K33" s="348"/>
+      <c r="K33" s="372"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="77">
@@ -41410,14 +41510,14 @@
     </row>
     <row r="41" spans="1:11" ht="24.75" thickTop="1" thickBot="1">
       <c r="A41" s="57"/>
-      <c r="B41" s="350" t="s">
+      <c r="B41" s="360" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="351"/>
-      <c r="D41" s="351"/>
-      <c r="E41" s="351"/>
-      <c r="F41" s="351"/>
-      <c r="G41" s="352"/>
+      <c r="C41" s="361"/>
+      <c r="D41" s="361"/>
+      <c r="E41" s="361"/>
+      <c r="F41" s="361"/>
+      <c r="G41" s="362"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="83" t="s">
@@ -41575,14 +41675,14 @@
     </row>
     <row r="48" spans="1:11" ht="24.75" thickTop="1" thickBot="1">
       <c r="A48" s="57"/>
-      <c r="B48" s="350" t="s">
+      <c r="B48" s="360" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="351"/>
-      <c r="D48" s="351"/>
-      <c r="E48" s="351"/>
-      <c r="F48" s="351"/>
-      <c r="G48" s="352"/>
+      <c r="C48" s="361"/>
+      <c r="D48" s="361"/>
+      <c r="E48" s="361"/>
+      <c r="F48" s="361"/>
+      <c r="G48" s="362"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="83" t="s">
@@ -41739,101 +41839,101 @@
       <c r="G54" s="57"/>
     </row>
     <row r="55" spans="1:7" ht="27" thickBot="1">
-      <c r="A55" s="328" t="s">
+      <c r="A55" s="392" t="s">
         <v>324</v>
       </c>
-      <c r="B55" s="328"/>
-      <c r="C55" s="328"/>
-      <c r="D55" s="328"/>
-      <c r="E55" s="328"/>
-      <c r="F55" s="328"/>
-      <c r="G55" s="328"/>
+      <c r="B55" s="392"/>
+      <c r="C55" s="392"/>
+      <c r="D55" s="392"/>
+      <c r="E55" s="392"/>
+      <c r="F55" s="392"/>
+      <c r="G55" s="392"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="357" t="s">
+      <c r="B56" s="363" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="357"/>
-      <c r="D56" s="357"/>
-      <c r="E56" s="357"/>
-      <c r="F56" s="357"/>
-      <c r="G56" s="358"/>
+      <c r="C56" s="363"/>
+      <c r="D56" s="363"/>
+      <c r="E56" s="363"/>
+      <c r="F56" s="363"/>
+      <c r="G56" s="364"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="B57" s="357" t="s">
+      <c r="B57" s="363" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="357"/>
-      <c r="D57" s="357"/>
-      <c r="E57" s="357"/>
-      <c r="F57" s="357"/>
-      <c r="G57" s="358"/>
+      <c r="C57" s="363"/>
+      <c r="D57" s="363"/>
+      <c r="E57" s="363"/>
+      <c r="F57" s="363"/>
+      <c r="G57" s="364"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A58" s="335" t="s">
+      <c r="A58" s="399" t="s">
         <v>246</v>
       </c>
-      <c r="B58" s="360" t="s">
+      <c r="B58" s="368" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="361"/>
-      <c r="D58" s="361"/>
-      <c r="E58" s="361"/>
-      <c r="F58" s="361"/>
-      <c r="G58" s="362"/>
+      <c r="C58" s="369"/>
+      <c r="D58" s="369"/>
+      <c r="E58" s="369"/>
+      <c r="F58" s="369"/>
+      <c r="G58" s="370"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="336"/>
-      <c r="B59" s="359" t="s">
+      <c r="A59" s="400"/>
+      <c r="B59" s="365" t="s">
         <v>322</v>
       </c>
-      <c r="C59" s="338"/>
-      <c r="D59" s="338"/>
-      <c r="E59" s="338"/>
-      <c r="F59" s="338"/>
-      <c r="G59" s="339"/>
+      <c r="C59" s="366"/>
+      <c r="D59" s="366"/>
+      <c r="E59" s="366"/>
+      <c r="F59" s="366"/>
+      <c r="G59" s="367"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="336"/>
-      <c r="B60" s="338" t="s">
+      <c r="A60" s="400"/>
+      <c r="B60" s="366" t="s">
         <v>232</v>
       </c>
-      <c r="C60" s="338"/>
-      <c r="D60" s="338"/>
-      <c r="E60" s="338"/>
-      <c r="F60" s="338"/>
-      <c r="G60" s="339"/>
+      <c r="C60" s="366"/>
+      <c r="D60" s="366"/>
+      <c r="E60" s="366"/>
+      <c r="F60" s="366"/>
+      <c r="G60" s="367"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="336"/>
-      <c r="B61" s="340" t="s">
+      <c r="A61" s="400"/>
+      <c r="B61" s="402" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="340"/>
-      <c r="D61" s="340"/>
-      <c r="E61" s="340"/>
-      <c r="F61" s="340"/>
-      <c r="G61" s="341"/>
+      <c r="C61" s="402"/>
+      <c r="D61" s="402"/>
+      <c r="E61" s="402"/>
+      <c r="F61" s="402"/>
+      <c r="G61" s="403"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A62" s="337"/>
-      <c r="B62" s="342" t="s">
+      <c r="A62" s="401"/>
+      <c r="B62" s="404" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="342"/>
-      <c r="D62" s="342"/>
-      <c r="E62" s="342"/>
-      <c r="F62" s="342"/>
-      <c r="G62" s="343"/>
+      <c r="C62" s="404"/>
+      <c r="D62" s="404"/>
+      <c r="E62" s="404"/>
+      <c r="F62" s="404"/>
+      <c r="G62" s="405"/>
     </row>
     <row r="63" spans="1:7" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A63" s="329" t="s">
+      <c r="A63" s="393" t="s">
         <v>266</v>
       </c>
       <c r="B63" s="232" t="s">
@@ -41856,21 +41956,21 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A64" s="330"/>
-      <c r="B64" s="344" t="s">
+      <c r="A64" s="394"/>
+      <c r="B64" s="406" t="s">
         <v>317</v>
       </c>
-      <c r="C64" s="345"/>
-      <c r="D64" s="345"/>
-      <c r="E64" s="345"/>
-      <c r="F64" s="346"/>
+      <c r="C64" s="407"/>
+      <c r="D64" s="407"/>
+      <c r="E64" s="407"/>
+      <c r="F64" s="408"/>
       <c r="G64" s="237">
         <f>SUM(F65,F68,F69)</f>
         <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="25.5" customHeight="1" thickTop="1">
-      <c r="A65" s="330"/>
+      <c r="A65" s="394"/>
       <c r="B65" s="233" t="s">
         <v>307</v>
       </c>
@@ -41887,14 +41987,14 @@
         <f>C65*D65*E65</f>
         <v>30</v>
       </c>
-      <c r="G65" s="311" t="s">
+      <c r="G65" s="376" t="s">
         <v>316</v>
       </c>
-      <c r="H65" s="312"/>
-      <c r="I65" s="313"/>
+      <c r="H65" s="377"/>
+      <c r="I65" s="378"/>
     </row>
     <row r="66" spans="1:9" ht="21" customHeight="1">
-      <c r="A66" s="330"/>
+      <c r="A66" s="394"/>
       <c r="B66" s="234" t="s">
         <v>305</v>
       </c>
@@ -41911,12 +42011,12 @@
         <f t="shared" ref="F66:F69" si="8">C66*D66*E66</f>
         <v>40</v>
       </c>
-      <c r="G66" s="314"/>
-      <c r="H66" s="315"/>
-      <c r="I66" s="316"/>
+      <c r="G66" s="379"/>
+      <c r="H66" s="380"/>
+      <c r="I66" s="381"/>
     </row>
     <row r="67" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A67" s="330"/>
+      <c r="A67" s="394"/>
       <c r="B67" s="234" t="s">
         <v>306</v>
       </c>
@@ -41933,12 +42033,12 @@
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="G67" s="314"/>
-      <c r="H67" s="315"/>
-      <c r="I67" s="316"/>
+      <c r="G67" s="379"/>
+      <c r="H67" s="380"/>
+      <c r="I67" s="381"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="330"/>
+      <c r="A68" s="394"/>
       <c r="B68" s="234" t="s">
         <v>307</v>
       </c>
@@ -41955,12 +42055,12 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="G68" s="314"/>
-      <c r="H68" s="315"/>
-      <c r="I68" s="316"/>
+      <c r="G68" s="379"/>
+      <c r="H68" s="380"/>
+      <c r="I68" s="381"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="330"/>
+      <c r="A69" s="394"/>
       <c r="B69" s="234" t="s">
         <v>309</v>
       </c>
@@ -41977,12 +42077,12 @@
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="G69" s="314"/>
-      <c r="H69" s="315"/>
-      <c r="I69" s="316"/>
+      <c r="G69" s="379"/>
+      <c r="H69" s="380"/>
+      <c r="I69" s="381"/>
     </row>
     <row r="70" spans="1:9" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A70" s="330"/>
+      <c r="A70" s="394"/>
       <c r="B70" s="235" t="s">
         <v>310</v>
       </c>
@@ -41999,26 +42099,26 @@
         <f>C70*D70*E70</f>
         <v>100</v>
       </c>
-      <c r="G70" s="317"/>
-      <c r="H70" s="318"/>
-      <c r="I70" s="319"/>
+      <c r="G70" s="382"/>
+      <c r="H70" s="383"/>
+      <c r="I70" s="384"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="330"/>
-      <c r="B71" s="344" t="s">
+      <c r="A71" s="394"/>
+      <c r="B71" s="406" t="s">
         <v>318</v>
       </c>
-      <c r="C71" s="345"/>
-      <c r="D71" s="345"/>
-      <c r="E71" s="345"/>
-      <c r="F71" s="346"/>
+      <c r="C71" s="407"/>
+      <c r="D71" s="407"/>
+      <c r="E71" s="407"/>
+      <c r="F71" s="408"/>
       <c r="G71" s="237">
         <f>SUM(F72:F74)</f>
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A72" s="330"/>
+      <c r="A72" s="394"/>
       <c r="B72" s="233" t="s">
         <v>307</v>
       </c>
@@ -42035,14 +42135,14 @@
         <f>C72*D72*E72</f>
         <v>30</v>
       </c>
-      <c r="G72" s="311" t="s">
+      <c r="G72" s="376" t="s">
         <v>323</v>
       </c>
-      <c r="H72" s="320"/>
-      <c r="I72" s="321"/>
+      <c r="H72" s="385"/>
+      <c r="I72" s="386"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="330"/>
+      <c r="A73" s="394"/>
       <c r="B73" s="234" t="s">
         <v>308</v>
       </c>
@@ -42059,12 +42159,12 @@
         <f t="shared" ref="F73:F75" si="9">C73*D73*E73</f>
         <v>30</v>
       </c>
-      <c r="G73" s="322"/>
-      <c r="H73" s="323"/>
-      <c r="I73" s="324"/>
+      <c r="G73" s="387"/>
+      <c r="H73" s="373"/>
+      <c r="I73" s="388"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="330"/>
+      <c r="A74" s="394"/>
       <c r="B74" s="236" t="s">
         <v>319</v>
       </c>
@@ -42081,12 +42181,12 @@
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="G74" s="322"/>
-      <c r="H74" s="323"/>
-      <c r="I74" s="324"/>
+      <c r="G74" s="387"/>
+      <c r="H74" s="373"/>
+      <c r="I74" s="388"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A75" s="331"/>
+      <c r="A75" s="395"/>
       <c r="B75" s="235" t="s">
         <v>321</v>
       </c>
@@ -42103,30 +42203,13 @@
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
-      <c r="G75" s="325"/>
-      <c r="H75" s="326"/>
-      <c r="I75" s="327"/>
+      <c r="G75" s="389"/>
+      <c r="H75" s="390"/>
+      <c r="I75" s="391"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="L2:M5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L8:M12"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K15:K19"/>
-    <mergeCell ref="K21:K27"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K29:K33"/>
     <mergeCell ref="G65:I70"/>
     <mergeCell ref="G72:I75"/>
     <mergeCell ref="A55:G55"/>
@@ -42141,8 +42224,25 @@
     <mergeCell ref="B62:G62"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B71:F71"/>
+    <mergeCell ref="L2:M5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L8:M12"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K15:K19"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B58:G58"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -42176,23 +42276,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="409" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="364"/>
-      <c r="C1" s="364"/>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="364"/>
-      <c r="G1" s="364"/>
-      <c r="H1" s="364"/>
-      <c r="I1" s="364"/>
-      <c r="J1" s="364"/>
-      <c r="K1" s="364"/>
-      <c r="L1" s="364"/>
-      <c r="M1" s="364"/>
-      <c r="N1" s="364"/>
-      <c r="O1" s="364"/>
+      <c r="B1" s="410"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
+      <c r="N1" s="410"/>
+      <c r="O1" s="410"/>
     </row>
     <row r="2" spans="1:15" ht="18.75">
       <c r="A2" s="217"/>
@@ -42494,35 +42594,35 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="206"/>
-      <c r="B12" s="367" t="s">
+      <c r="B12" s="413" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="367"/>
-      <c r="D12" s="368"/>
+      <c r="C12" s="413"/>
+      <c r="D12" s="414"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="248"/>
-      <c r="B13" s="369" t="s">
+      <c r="B13" s="415" t="s">
         <v>340</v>
       </c>
-      <c r="C13" s="370"/>
-      <c r="D13" s="370"/>
+      <c r="C13" s="416"/>
+      <c r="D13" s="416"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="214"/>
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="411" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="365"/>
-      <c r="D14" s="365"/>
+      <c r="C14" s="411"/>
+      <c r="D14" s="411"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="215"/>
-      <c r="B15" s="366" t="s">
+      <c r="B15" s="412" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="365"/>
-      <c r="D15" s="365"/>
+      <c r="C15" s="411"/>
+      <c r="D15" s="411"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -42532,7 +42632,7 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -42554,26 +42654,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="371" t="s">
+      <c r="A1" s="417" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
+      <c r="B1" s="417"/>
+      <c r="C1" s="417"/>
+      <c r="D1" s="417"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="371"/>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
+      <c r="A2" s="417"/>
+      <c r="B2" s="417"/>
+      <c r="C2" s="417"/>
+      <c r="D2" s="417"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="323" t="s">
+      <c r="A3" s="373" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
+      <c r="B3" s="373"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="57" t="s">
@@ -42774,10 +42874,10 @@
       <c r="E1" s="266" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="372" t="s">
+      <c r="F1" s="418" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="373"/>
+      <c r="G1" s="419"/>
       <c r="H1" s="267" t="s">
         <v>389</v>
       </c>
@@ -43049,11 +43149,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="42" customHeight="1">
-      <c r="A10" s="374" t="s">
+      <c r="A10" s="420" t="s">
         <v>413</v>
       </c>
-      <c r="B10" s="374"/>
-      <c r="C10" s="374"/>
+      <c r="B10" s="420"/>
+      <c r="C10" s="420"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/myspace/vinted/Chat Bot Vinted.xlsx
+++ b/myspace/vinted/Chat Bot Vinted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattia.forneron\Desktop\myfolder\MyWorkFolder\myspace\vinted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattia.forneron\Documents\GitHub\MyWorkFolder\myspace\vinted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC605D3E-E986-4FA6-918A-42CE4B4D2E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7DB3AD-BEA0-4466-AA55-B1711B608CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frasi" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="438">
   <si>
     <t>Ordine</t>
   </si>
@@ -1317,9 +1317,6 @@
     <t>Casa</t>
   </si>
   <si>
-    <t>Macchine</t>
-  </si>
-  <si>
     <t>Imprevisti</t>
   </si>
   <si>
@@ -1371,6 +1368,39 @@
   </si>
   <si>
     <t>2giu - 7giu</t>
+  </si>
+  <si>
+    <t>Ottobre</t>
+  </si>
+  <si>
+    <t>Settembre</t>
+  </si>
+  <si>
+    <t>Novembre</t>
+  </si>
+  <si>
+    <t>Dicembre</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Effettivo</t>
+  </si>
+  <si>
+    <t>Stimato su giorni</t>
+  </si>
+  <si>
+    <t>Giorni di lavoro</t>
+  </si>
+  <si>
+    <t>Media giornaliera</t>
+  </si>
+  <si>
+    <t>Macchine &amp; Moto</t>
+  </si>
+  <si>
+    <t>Vacanze</t>
   </si>
 </sst>
 </file>
@@ -1386,11 +1416,18 @@
     <numFmt numFmtId="168" formatCode="0\ &quot;anni&quot;"/>
     <numFmt numFmtId="169" formatCode="0\ &quot;mesi&quot;"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3359,78 +3396,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3442,79 +3479,79 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="20" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="20" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="18" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="18" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="27" fillId="20" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="28" fillId="20" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="25" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3595,396 +3632,396 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="29" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="43" fillId="29" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="23" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="23" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="28" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="28" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4020,14 +4057,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4041,38 +4084,32 @@
     <xf numFmtId="0" fontId="7" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4081,23 +4118,23 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4115,342 +4152,288 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="55" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="56" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="39" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="39" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="60" fillId="39" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="61" fillId="39" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="39" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="39" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="62" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="61" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="62" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="41" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="60" fillId="39" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="61" fillId="39" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="62" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="63" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="64" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="65" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="40" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="40" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="40" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4460,6 +4443,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4474,7 +4460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4486,28 +4472,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4525,25 +4517,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4552,17 +4592,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5373,7 +5416,7 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:C1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -5474,10 +5517,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="337">
+      <c r="A9" s="338">
         <v>8</v>
       </c>
-      <c r="B9" s="339" t="s">
+      <c r="B9" s="340" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="99" t="s">
@@ -5485,8 +5528,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="338"/>
-      <c r="B10" s="340"/>
+      <c r="A10" s="339"/>
+      <c r="B10" s="341"/>
       <c r="C10" s="99" t="s">
         <v>180</v>
       </c>
@@ -6961,34 +7004,34 @@
       </c>
     </row>
     <row r="24" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F24" s="341" t="s">
+      <c r="F24" s="342" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="342"/>
-      <c r="H24" s="342"/>
-      <c r="I24" s="342"/>
-      <c r="J24" s="342"/>
-      <c r="K24" s="342"/>
+      <c r="G24" s="343"/>
+      <c r="H24" s="343"/>
+      <c r="I24" s="343"/>
+      <c r="J24" s="343"/>
+      <c r="K24" s="343"/>
     </row>
     <row r="25" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F25" s="341" t="s">
+      <c r="F25" s="342" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="342"/>
-      <c r="H25" s="342"/>
-      <c r="I25" s="342"/>
-      <c r="J25" s="342"/>
-      <c r="K25" s="342"/>
+      <c r="G25" s="343"/>
+      <c r="H25" s="343"/>
+      <c r="I25" s="343"/>
+      <c r="J25" s="343"/>
+      <c r="K25" s="343"/>
     </row>
     <row r="26" spans="6:14" ht="15.75" customHeight="1">
-      <c r="F26" s="341" t="s">
+      <c r="F26" s="342" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="342"/>
-      <c r="H26" s="342"/>
-      <c r="I26" s="342"/>
-      <c r="J26" s="342"/>
-      <c r="K26" s="342"/>
+      <c r="G26" s="343"/>
+      <c r="H26" s="343"/>
+      <c r="I26" s="343"/>
+      <c r="J26" s="343"/>
+      <c r="K26" s="343"/>
     </row>
     <row r="27" spans="6:14" ht="15.75" customHeight="1">
       <c r="F27" s="1"/>
@@ -10056,7 +10099,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10067,7 +10110,7 @@
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:AB1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
@@ -10096,19 +10139,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" thickBot="1">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="347" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
-      <c r="J1" s="343"/>
-      <c r="K1" s="344"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="348"/>
       <c r="L1" s="34"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -10200,7 +10243,7 @@
         <v>60</v>
       </c>
       <c r="G3" s="297" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H3" s="297" t="s">
         <v>61</v>
@@ -10919,19 +10962,19 @@
         <v>6</v>
       </c>
       <c r="L15" s="161"/>
-      <c r="M15" s="352" t="s">
+      <c r="M15" s="353" t="s">
         <v>105</v>
       </c>
-      <c r="N15" s="353"/>
-      <c r="O15" s="354"/>
-      <c r="P15" s="345" t="s">
+      <c r="N15" s="354"/>
+      <c r="O15" s="355"/>
+      <c r="P15" s="349" t="s">
         <v>106</v>
       </c>
-      <c r="Q15" s="346"/>
-      <c r="R15" s="347" t="s">
+      <c r="Q15" s="350"/>
+      <c r="R15" s="351" t="s">
         <v>107</v>
       </c>
-      <c r="S15" s="348"/>
+      <c r="S15" s="352"/>
       <c r="T15" s="139"/>
       <c r="U15" s="139"/>
       <c r="V15" s="139"/>
@@ -11030,7 +11073,7 @@
         <v>122</v>
       </c>
       <c r="G17" s="142" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H17" s="111" t="s">
         <v>123</v>
@@ -11045,8 +11088,8 @@
         <v>8</v>
       </c>
       <c r="L17" s="138"/>
-      <c r="M17" s="349" t="s">
-        <v>423</v>
+      <c r="M17" s="345" t="s">
+        <v>422</v>
       </c>
       <c r="N17" s="163" t="s">
         <v>116</v>
@@ -11116,7 +11159,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="138"/>
-      <c r="M18" s="349"/>
+      <c r="M18" s="345"/>
       <c r="N18" s="166" t="s">
         <v>120</v>
       </c>
@@ -11185,7 +11228,7 @@
         <v>45</v>
       </c>
       <c r="L19" s="138"/>
-      <c r="M19" s="349"/>
+      <c r="M19" s="345"/>
       <c r="N19" s="170" t="s">
         <v>126</v>
       </c>
@@ -11254,7 +11297,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="174"/>
-      <c r="M20" s="349"/>
+      <c r="M20" s="345"/>
       <c r="N20" s="166" t="s">
         <v>131</v>
       </c>
@@ -11323,7 +11366,7 @@
         <v>25</v>
       </c>
       <c r="L21" s="139"/>
-      <c r="M21" s="350"/>
+      <c r="M21" s="346"/>
       <c r="N21" s="175" t="s">
         <v>136</v>
       </c>
@@ -11392,8 +11435,8 @@
         <v>24.99</v>
       </c>
       <c r="L22" s="180"/>
-      <c r="M22" s="351" t="s">
-        <v>424</v>
+      <c r="M22" s="344" t="s">
+        <v>423</v>
       </c>
       <c r="N22" s="179" t="s">
         <v>116</v>
@@ -11454,7 +11497,7 @@
         <v>8.5</v>
       </c>
       <c r="L23" s="139"/>
-      <c r="M23" s="349"/>
+      <c r="M23" s="345"/>
       <c r="N23" s="181" t="s">
         <v>120</v>
       </c>
@@ -11523,7 +11566,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="139"/>
-      <c r="M24" s="349"/>
+      <c r="M24" s="345"/>
       <c r="N24" s="182" t="s">
         <v>126</v>
       </c>
@@ -11592,7 +11635,7 @@
         <v>52</v>
       </c>
       <c r="L25" s="139"/>
-      <c r="M25" s="349"/>
+      <c r="M25" s="345"/>
       <c r="N25" s="181" t="s">
         <v>131</v>
       </c>
@@ -11661,7 +11704,7 @@
         <v>10</v>
       </c>
       <c r="L26" s="139"/>
-      <c r="M26" s="350"/>
+      <c r="M26" s="346"/>
       <c r="N26" s="183" t="s">
         <v>136</v>
       </c>
@@ -11730,8 +11773,8 @@
         <v>85</v>
       </c>
       <c r="L27" s="139"/>
-      <c r="M27" s="351" t="s">
-        <v>425</v>
+      <c r="M27" s="344" t="s">
+        <v>424</v>
       </c>
       <c r="N27" s="179" t="s">
         <v>116</v>
@@ -11801,7 +11844,7 @@
         <v>52</v>
       </c>
       <c r="L28" s="139"/>
-      <c r="M28" s="349"/>
+      <c r="M28" s="345"/>
       <c r="N28" s="181" t="s">
         <v>120</v>
       </c>
@@ -11843,7 +11886,7 @@
         <v>60</v>
       </c>
       <c r="G29" s="292" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H29" s="292" t="s">
         <v>61</v>
@@ -11858,7 +11901,7 @@
         <v>8</v>
       </c>
       <c r="L29" s="139"/>
-      <c r="M29" s="349"/>
+      <c r="M29" s="345"/>
       <c r="N29" s="182" t="s">
         <v>126</v>
       </c>
@@ -11915,7 +11958,7 @@
         <v>58</v>
       </c>
       <c r="L30" s="139"/>
-      <c r="M30" s="349"/>
+      <c r="M30" s="345"/>
       <c r="N30" s="181" t="s">
         <v>131</v>
       </c>
@@ -11972,7 +12015,7 @@
         <v>60</v>
       </c>
       <c r="L31" s="6"/>
-      <c r="M31" s="350"/>
+      <c r="M31" s="346"/>
       <c r="N31" s="183" t="s">
         <v>136</v>
       </c>
@@ -11980,7 +12023,7 @@
         <v>372</v>
       </c>
       <c r="P31" s="185">
-        <f t="shared" ref="P31:P32" si="8">SUMIFS(K:K, A:A, O31, J:J, "&lt;&gt;ANNULLATO")</f>
+        <f t="shared" ref="P31" si="8">SUMIFS(K:K, A:A, O31, J:J, "&lt;&gt;ANNULLATO")</f>
         <v>23.990000000000002</v>
       </c>
       <c r="Q31" s="186">
@@ -11988,11 +12031,11 @@
         <v>3</v>
       </c>
       <c r="R31" s="185">
-        <f t="shared" ref="R31:R32" si="9">P31/Q31</f>
+        <f t="shared" ref="R31" si="9">P31/Q31</f>
         <v>7.996666666666667</v>
       </c>
       <c r="S31" s="187">
-        <f t="shared" ref="S31:S32" si="10">P31/6</f>
+        <f t="shared" ref="S31" si="10">P31/6</f>
         <v>3.9983333333333335</v>
       </c>
       <c r="T31" s="6"/>
@@ -12026,7 +12069,7 @@
         <v>375</v>
       </c>
       <c r="G32" s="272" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H32" s="255" t="s">
         <v>374</v>
@@ -12041,14 +12084,14 @@
         <v>7</v>
       </c>
       <c r="L32" s="6"/>
-      <c r="M32" s="351" t="s">
-        <v>426</v>
+      <c r="M32" s="344" t="s">
+        <v>425</v>
       </c>
       <c r="N32" s="179" t="s">
         <v>116</v>
       </c>
       <c r="O32" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P32" s="43"/>
       <c r="Q32" s="45"/>
@@ -12072,7 +12115,7 @@
         <v>378</v>
       </c>
       <c r="C33" s="263" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D33" s="263">
         <f t="shared" si="1"/>
@@ -12100,12 +12143,12 @@
         <v>7</v>
       </c>
       <c r="L33" s="6"/>
-      <c r="M33" s="349"/>
+      <c r="M33" s="345"/>
       <c r="N33" s="181" t="s">
         <v>120</v>
       </c>
       <c r="O33" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P33" s="44"/>
       <c r="Q33" s="47"/>
@@ -12129,7 +12172,7 @@
         <v>400</v>
       </c>
       <c r="C34" s="274" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D34" s="273">
         <f t="shared" si="1"/>
@@ -12142,7 +12185,7 @@
         <v>403</v>
       </c>
       <c r="G34" s="275" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H34" s="274" t="s">
         <v>402</v>
@@ -12157,12 +12200,12 @@
         <v>9.99</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="349"/>
+      <c r="M34" s="345"/>
       <c r="N34" s="182" t="s">
         <v>126</v>
       </c>
       <c r="O34" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P34" s="51"/>
       <c r="Q34" s="52"/>
@@ -12190,12 +12233,12 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="349"/>
+      <c r="M35" s="345"/>
       <c r="N35" s="181" t="s">
         <v>131</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P35" s="48"/>
       <c r="Q35" s="47"/>
@@ -12223,11 +12266,11 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="350"/>
+      <c r="M36" s="346"/>
       <c r="N36" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="O36" s="421"/>
+      <c r="O36" s="337"/>
       <c r="P36" s="185"/>
       <c r="Q36" s="186"/>
       <c r="R36" s="185"/>
@@ -40346,7 +40389,7 @@
     <mergeCell ref="M22:M26"/>
     <mergeCell ref="M15:O15"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="A1:K34">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$J1="ANNULLATO"</formula>
@@ -40387,41 +40430,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="356" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="356"/>
-      <c r="C1" s="356"/>
-      <c r="D1" s="356"/>
-      <c r="E1" s="356"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="356"/>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
+      <c r="A2" s="357"/>
+      <c r="B2" s="357"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="357"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="356"/>
-      <c r="B3" s="356"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
+      <c r="A3" s="357"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
     </row>
     <row r="4" spans="1:5" ht="84.75" customHeight="1">
-      <c r="A4" s="356"/>
-      <c r="B4" s="356"/>
-      <c r="C4" s="356"/>
-      <c r="D4" s="356"/>
-      <c r="E4" s="356"/>
+      <c r="A4" s="357"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
     </row>
     <row r="5" spans="1:5" ht="120" customHeight="1">
-      <c r="A5" s="356"/>
-      <c r="B5" s="356"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
+      <c r="A5" s="357"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="108" t="s">
@@ -40461,7 +40504,7 @@
   <sheetPr codeName="Foglio6"/>
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
@@ -40483,15 +40526,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="357" t="s">
+      <c r="A1" s="401" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="358"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358"/>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
-      <c r="G1" s="359"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="403"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="59" t="s">
@@ -40515,13 +40558,13 @@
       <c r="G2" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="372" t="s">
+      <c r="K2" s="395" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="371" t="s">
+      <c r="L2" s="394" t="s">
         <v>204</v>
       </c>
-      <c r="M2" s="371"/>
+      <c r="M2" s="394"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="61">
@@ -40545,9 +40588,9 @@
       <c r="G3" s="64">
         <v>0</v>
       </c>
-      <c r="K3" s="373"/>
-      <c r="L3" s="371"/>
-      <c r="M3" s="371"/>
+      <c r="K3" s="370"/>
+      <c r="L3" s="394"/>
+      <c r="M3" s="394"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickTop="1">
       <c r="A4" s="65">
@@ -40572,9 +40615,9 @@
         <f>E4+F4</f>
         <v>80</v>
       </c>
-      <c r="K4" s="373"/>
-      <c r="L4" s="371"/>
-      <c r="M4" s="371"/>
+      <c r="K4" s="370"/>
+      <c r="L4" s="394"/>
+      <c r="M4" s="394"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="68">
@@ -40599,9 +40642,9 @@
         <f t="shared" ref="G5:G28" si="0">E5+F5</f>
         <v>40</v>
       </c>
-      <c r="K5" s="373"/>
-      <c r="L5" s="371"/>
-      <c r="M5" s="371"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="394"/>
+      <c r="M5" s="394"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="71">
@@ -40674,27 +40717,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="372" t="s">
+      <c r="K8" s="395" t="s">
         <v>210</v>
       </c>
-      <c r="L8" s="374" t="s">
+      <c r="L8" s="396" t="s">
         <v>211</v>
       </c>
-      <c r="M8" s="371"/>
-      <c r="N8" s="397" t="s">
+      <c r="M8" s="394"/>
+      <c r="N8" s="380" t="s">
         <v>248</v>
       </c>
-      <c r="O8" s="396" t="s">
+      <c r="O8" s="379" t="s">
         <v>249</v>
       </c>
-      <c r="P8" s="396"/>
-      <c r="Q8" s="398" t="s">
+      <c r="P8" s="379"/>
+      <c r="Q8" s="381" t="s">
         <v>267</v>
       </c>
-      <c r="R8" s="396" t="s">
+      <c r="R8" s="379" t="s">
         <v>250</v>
       </c>
-      <c r="S8" s="396"/>
+      <c r="S8" s="379"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="68">
@@ -40719,15 +40762,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="372"/>
-      <c r="L9" s="371"/>
-      <c r="M9" s="371"/>
-      <c r="N9" s="397"/>
-      <c r="O9" s="396"/>
-      <c r="P9" s="396"/>
-      <c r="Q9" s="397"/>
-      <c r="R9" s="396"/>
-      <c r="S9" s="396"/>
+      <c r="K9" s="395"/>
+      <c r="L9" s="394"/>
+      <c r="M9" s="394"/>
+      <c r="N9" s="380"/>
+      <c r="O9" s="379"/>
+      <c r="P9" s="379"/>
+      <c r="Q9" s="380"/>
+      <c r="R9" s="379"/>
+      <c r="S9" s="379"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1">
       <c r="A10" s="74">
@@ -40752,15 +40795,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="372"/>
-      <c r="L10" s="371"/>
-      <c r="M10" s="371"/>
-      <c r="N10" s="397"/>
-      <c r="O10" s="396"/>
-      <c r="P10" s="396"/>
-      <c r="Q10" s="397"/>
-      <c r="R10" s="396"/>
-      <c r="S10" s="396"/>
+      <c r="K10" s="395"/>
+      <c r="L10" s="394"/>
+      <c r="M10" s="394"/>
+      <c r="N10" s="380"/>
+      <c r="O10" s="379"/>
+      <c r="P10" s="379"/>
+      <c r="Q10" s="380"/>
+      <c r="R10" s="379"/>
+      <c r="S10" s="379"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickTop="1">
       <c r="A11" s="77">
@@ -40785,15 +40828,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="372"/>
-      <c r="L11" s="371"/>
-      <c r="M11" s="371"/>
-      <c r="N11" s="397"/>
-      <c r="O11" s="396"/>
-      <c r="P11" s="396"/>
-      <c r="Q11" s="397"/>
-      <c r="R11" s="396"/>
-      <c r="S11" s="396"/>
+      <c r="K11" s="395"/>
+      <c r="L11" s="394"/>
+      <c r="M11" s="394"/>
+      <c r="N11" s="380"/>
+      <c r="O11" s="379"/>
+      <c r="P11" s="379"/>
+      <c r="Q11" s="380"/>
+      <c r="R11" s="379"/>
+      <c r="S11" s="379"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="71">
@@ -40818,15 +40861,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="372"/>
-      <c r="L12" s="371"/>
-      <c r="M12" s="371"/>
-      <c r="N12" s="397"/>
-      <c r="O12" s="396"/>
-      <c r="P12" s="396"/>
-      <c r="Q12" s="397"/>
-      <c r="R12" s="396"/>
-      <c r="S12" s="396"/>
+      <c r="K12" s="395"/>
+      <c r="L12" s="394"/>
+      <c r="M12" s="394"/>
+      <c r="N12" s="380"/>
+      <c r="O12" s="379"/>
+      <c r="P12" s="379"/>
+      <c r="Q12" s="380"/>
+      <c r="R12" s="379"/>
+      <c r="S12" s="379"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="71">
@@ -40899,13 +40942,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="372" t="s">
+      <c r="K15" s="395" t="s">
         <v>208</v>
       </c>
-      <c r="L15" s="375" t="s">
+      <c r="L15" s="400" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="356"/>
+      <c r="M15" s="357"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="68">
@@ -40930,7 +40973,7 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="K16" s="372"/>
+      <c r="K16" s="395"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
       <c r="A17" s="74">
@@ -40954,7 +40997,7 @@
       <c r="G17" s="76">
         <v>0</v>
       </c>
-      <c r="K17" s="372"/>
+      <c r="K17" s="395"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickTop="1">
       <c r="A18" s="65">
@@ -40979,7 +41022,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K18" s="372"/>
+      <c r="K18" s="395"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="77">
@@ -41004,7 +41047,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="372"/>
+      <c r="K19" s="395"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="65">
@@ -41053,13 +41096,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="372" t="s">
+      <c r="K21" s="395" t="s">
         <v>206</v>
       </c>
-      <c r="L21" s="375" t="s">
+      <c r="L21" s="400" t="s">
         <v>212</v>
       </c>
-      <c r="M21" s="375"/>
+      <c r="M21" s="400"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="77">
@@ -41084,7 +41127,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="372"/>
+      <c r="K22" s="395"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="77">
@@ -41109,7 +41152,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="372"/>
+      <c r="K23" s="395"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1">
       <c r="A24" s="74">
@@ -41134,7 +41177,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="372"/>
+      <c r="K24" s="395"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="201"/>
@@ -41146,7 +41189,7 @@
       <c r="E25" s="202"/>
       <c r="F25" s="202"/>
       <c r="G25" s="203"/>
-      <c r="K25" s="372"/>
+      <c r="K25" s="395"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickTop="1">
       <c r="A26" s="65">
@@ -41171,7 +41214,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K26" s="372"/>
+      <c r="K26" s="395"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="77">
@@ -41196,7 +41239,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="372"/>
+      <c r="K27" s="395"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="77">
@@ -41246,13 +41289,13 @@
         <f t="shared" ref="G29:G34" si="1">E29+F29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="372" t="s">
+      <c r="K29" s="395" t="s">
         <v>205</v>
       </c>
-      <c r="L29" s="375" t="s">
+      <c r="L29" s="400" t="s">
         <v>213</v>
       </c>
-      <c r="M29" s="375"/>
+      <c r="M29" s="400"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="77">
@@ -41277,7 +41320,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30" s="372"/>
+      <c r="K30" s="395"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="65">
@@ -41302,7 +41345,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K31" s="372"/>
+      <c r="K31" s="395"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1">
       <c r="A32" s="74">
@@ -41327,7 +41370,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K32" s="372"/>
+      <c r="K32" s="395"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickTop="1">
       <c r="A33" s="65">
@@ -41353,7 +41396,7 @@
         <v>72</v>
       </c>
       <c r="H33" s="56"/>
-      <c r="K33" s="372"/>
+      <c r="K33" s="395"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="77">
@@ -41510,14 +41553,14 @@
     </row>
     <row r="41" spans="1:11" ht="24.75" thickTop="1" thickBot="1">
       <c r="A41" s="57"/>
-      <c r="B41" s="360" t="s">
+      <c r="B41" s="397" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="361"/>
-      <c r="D41" s="361"/>
-      <c r="E41" s="361"/>
-      <c r="F41" s="361"/>
-      <c r="G41" s="362"/>
+      <c r="C41" s="398"/>
+      <c r="D41" s="398"/>
+      <c r="E41" s="398"/>
+      <c r="F41" s="398"/>
+      <c r="G41" s="399"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="83" t="s">
@@ -41675,14 +41718,14 @@
     </row>
     <row r="48" spans="1:11" ht="24.75" thickTop="1" thickBot="1">
       <c r="A48" s="57"/>
-      <c r="B48" s="360" t="s">
+      <c r="B48" s="397" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="361"/>
-      <c r="D48" s="361"/>
-      <c r="E48" s="361"/>
-      <c r="F48" s="361"/>
-      <c r="G48" s="362"/>
+      <c r="C48" s="398"/>
+      <c r="D48" s="398"/>
+      <c r="E48" s="398"/>
+      <c r="F48" s="398"/>
+      <c r="G48" s="399"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="83" t="s">
@@ -41839,101 +41882,101 @@
       <c r="G54" s="57"/>
     </row>
     <row r="55" spans="1:7" ht="27" thickBot="1">
-      <c r="A55" s="392" t="s">
+      <c r="A55" s="375" t="s">
         <v>324</v>
       </c>
-      <c r="B55" s="392"/>
-      <c r="C55" s="392"/>
-      <c r="D55" s="392"/>
-      <c r="E55" s="392"/>
-      <c r="F55" s="392"/>
-      <c r="G55" s="392"/>
+      <c r="B55" s="375"/>
+      <c r="C55" s="375"/>
+      <c r="D55" s="375"/>
+      <c r="E55" s="375"/>
+      <c r="F55" s="375"/>
+      <c r="G55" s="375"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="363" t="s">
+      <c r="B56" s="404" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="363"/>
-      <c r="D56" s="363"/>
-      <c r="E56" s="363"/>
-      <c r="F56" s="363"/>
-      <c r="G56" s="364"/>
+      <c r="C56" s="404"/>
+      <c r="D56" s="404"/>
+      <c r="E56" s="404"/>
+      <c r="F56" s="404"/>
+      <c r="G56" s="405"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="B57" s="363" t="s">
+      <c r="B57" s="404" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="363"/>
-      <c r="D57" s="363"/>
-      <c r="E57" s="363"/>
-      <c r="F57" s="363"/>
-      <c r="G57" s="364"/>
+      <c r="C57" s="404"/>
+      <c r="D57" s="404"/>
+      <c r="E57" s="404"/>
+      <c r="F57" s="404"/>
+      <c r="G57" s="405"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A58" s="399" t="s">
+      <c r="A58" s="382" t="s">
         <v>246</v>
       </c>
-      <c r="B58" s="368" t="s">
+      <c r="B58" s="407" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="369"/>
-      <c r="D58" s="369"/>
-      <c r="E58" s="369"/>
-      <c r="F58" s="369"/>
-      <c r="G58" s="370"/>
+      <c r="C58" s="408"/>
+      <c r="D58" s="408"/>
+      <c r="E58" s="408"/>
+      <c r="F58" s="408"/>
+      <c r="G58" s="409"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="400"/>
-      <c r="B59" s="365" t="s">
+      <c r="A59" s="383"/>
+      <c r="B59" s="406" t="s">
         <v>322</v>
       </c>
-      <c r="C59" s="366"/>
-      <c r="D59" s="366"/>
-      <c r="E59" s="366"/>
-      <c r="F59" s="366"/>
-      <c r="G59" s="367"/>
+      <c r="C59" s="385"/>
+      <c r="D59" s="385"/>
+      <c r="E59" s="385"/>
+      <c r="F59" s="385"/>
+      <c r="G59" s="386"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="400"/>
-      <c r="B60" s="366" t="s">
+      <c r="A60" s="383"/>
+      <c r="B60" s="385" t="s">
         <v>232</v>
       </c>
-      <c r="C60" s="366"/>
-      <c r="D60" s="366"/>
-      <c r="E60" s="366"/>
-      <c r="F60" s="366"/>
-      <c r="G60" s="367"/>
+      <c r="C60" s="385"/>
+      <c r="D60" s="385"/>
+      <c r="E60" s="385"/>
+      <c r="F60" s="385"/>
+      <c r="G60" s="386"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="400"/>
-      <c r="B61" s="402" t="s">
+      <c r="A61" s="383"/>
+      <c r="B61" s="387" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="402"/>
-      <c r="D61" s="402"/>
-      <c r="E61" s="402"/>
-      <c r="F61" s="402"/>
-      <c r="G61" s="403"/>
+      <c r="C61" s="387"/>
+      <c r="D61" s="387"/>
+      <c r="E61" s="387"/>
+      <c r="F61" s="387"/>
+      <c r="G61" s="388"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A62" s="401"/>
-      <c r="B62" s="404" t="s">
+      <c r="A62" s="384"/>
+      <c r="B62" s="389" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="404"/>
-      <c r="D62" s="404"/>
-      <c r="E62" s="404"/>
-      <c r="F62" s="404"/>
-      <c r="G62" s="405"/>
+      <c r="C62" s="389"/>
+      <c r="D62" s="389"/>
+      <c r="E62" s="389"/>
+      <c r="F62" s="389"/>
+      <c r="G62" s="390"/>
     </row>
     <row r="63" spans="1:7" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A63" s="393" t="s">
+      <c r="A63" s="376" t="s">
         <v>266</v>
       </c>
       <c r="B63" s="232" t="s">
@@ -41956,21 +41999,21 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A64" s="394"/>
-      <c r="B64" s="406" t="s">
+      <c r="A64" s="377"/>
+      <c r="B64" s="391" t="s">
         <v>317</v>
       </c>
-      <c r="C64" s="407"/>
-      <c r="D64" s="407"/>
-      <c r="E64" s="407"/>
-      <c r="F64" s="408"/>
+      <c r="C64" s="392"/>
+      <c r="D64" s="392"/>
+      <c r="E64" s="392"/>
+      <c r="F64" s="393"/>
       <c r="G64" s="237">
         <f>SUM(F65,F68,F69)</f>
         <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="25.5" customHeight="1" thickTop="1">
-      <c r="A65" s="394"/>
+      <c r="A65" s="377"/>
       <c r="B65" s="233" t="s">
         <v>307</v>
       </c>
@@ -41987,14 +42030,14 @@
         <f>C65*D65*E65</f>
         <v>30</v>
       </c>
-      <c r="G65" s="376" t="s">
+      <c r="G65" s="358" t="s">
         <v>316</v>
       </c>
-      <c r="H65" s="377"/>
-      <c r="I65" s="378"/>
+      <c r="H65" s="359"/>
+      <c r="I65" s="360"/>
     </row>
     <row r="66" spans="1:9" ht="21" customHeight="1">
-      <c r="A66" s="394"/>
+      <c r="A66" s="377"/>
       <c r="B66" s="234" t="s">
         <v>305</v>
       </c>
@@ -42011,12 +42054,12 @@
         <f t="shared" ref="F66:F69" si="8">C66*D66*E66</f>
         <v>40</v>
       </c>
-      <c r="G66" s="379"/>
-      <c r="H66" s="380"/>
-      <c r="I66" s="381"/>
+      <c r="G66" s="361"/>
+      <c r="H66" s="362"/>
+      <c r="I66" s="363"/>
     </row>
     <row r="67" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A67" s="394"/>
+      <c r="A67" s="377"/>
       <c r="B67" s="234" t="s">
         <v>306</v>
       </c>
@@ -42033,12 +42076,12 @@
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="G67" s="379"/>
-      <c r="H67" s="380"/>
-      <c r="I67" s="381"/>
+      <c r="G67" s="361"/>
+      <c r="H67" s="362"/>
+      <c r="I67" s="363"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="394"/>
+      <c r="A68" s="377"/>
       <c r="B68" s="234" t="s">
         <v>307</v>
       </c>
@@ -42055,12 +42098,12 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="G68" s="379"/>
-      <c r="H68" s="380"/>
-      <c r="I68" s="381"/>
+      <c r="G68" s="361"/>
+      <c r="H68" s="362"/>
+      <c r="I68" s="363"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="394"/>
+      <c r="A69" s="377"/>
       <c r="B69" s="234" t="s">
         <v>309</v>
       </c>
@@ -42077,12 +42120,12 @@
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="G69" s="379"/>
-      <c r="H69" s="380"/>
-      <c r="I69" s="381"/>
+      <c r="G69" s="361"/>
+      <c r="H69" s="362"/>
+      <c r="I69" s="363"/>
     </row>
     <row r="70" spans="1:9" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A70" s="394"/>
+      <c r="A70" s="377"/>
       <c r="B70" s="235" t="s">
         <v>310</v>
       </c>
@@ -42099,26 +42142,26 @@
         <f>C70*D70*E70</f>
         <v>100</v>
       </c>
-      <c r="G70" s="382"/>
-      <c r="H70" s="383"/>
-      <c r="I70" s="384"/>
+      <c r="G70" s="364"/>
+      <c r="H70" s="365"/>
+      <c r="I70" s="366"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="394"/>
-      <c r="B71" s="406" t="s">
+      <c r="A71" s="377"/>
+      <c r="B71" s="391" t="s">
         <v>318</v>
       </c>
-      <c r="C71" s="407"/>
-      <c r="D71" s="407"/>
-      <c r="E71" s="407"/>
-      <c r="F71" s="408"/>
+      <c r="C71" s="392"/>
+      <c r="D71" s="392"/>
+      <c r="E71" s="392"/>
+      <c r="F71" s="393"/>
       <c r="G71" s="237">
         <f>SUM(F72:F74)</f>
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A72" s="394"/>
+      <c r="A72" s="377"/>
       <c r="B72" s="233" t="s">
         <v>307</v>
       </c>
@@ -42135,14 +42178,14 @@
         <f>C72*D72*E72</f>
         <v>30</v>
       </c>
-      <c r="G72" s="376" t="s">
+      <c r="G72" s="358" t="s">
         <v>323</v>
       </c>
-      <c r="H72" s="385"/>
-      <c r="I72" s="386"/>
+      <c r="H72" s="367"/>
+      <c r="I72" s="368"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="394"/>
+      <c r="A73" s="377"/>
       <c r="B73" s="234" t="s">
         <v>308</v>
       </c>
@@ -42159,12 +42202,12 @@
         <f t="shared" ref="F73:F75" si="9">C73*D73*E73</f>
         <v>30</v>
       </c>
-      <c r="G73" s="387"/>
-      <c r="H73" s="373"/>
-      <c r="I73" s="388"/>
+      <c r="G73" s="369"/>
+      <c r="H73" s="370"/>
+      <c r="I73" s="371"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="394"/>
+      <c r="A74" s="377"/>
       <c r="B74" s="236" t="s">
         <v>319</v>
       </c>
@@ -42181,12 +42224,12 @@
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="G74" s="387"/>
-      <c r="H74" s="373"/>
-      <c r="I74" s="388"/>
+      <c r="G74" s="369"/>
+      <c r="H74" s="370"/>
+      <c r="I74" s="371"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A75" s="395"/>
+      <c r="A75" s="378"/>
       <c r="B75" s="235" t="s">
         <v>321</v>
       </c>
@@ -42203,13 +42246,30 @@
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
-      <c r="G75" s="389"/>
-      <c r="H75" s="390"/>
-      <c r="I75" s="391"/>
+      <c r="G75" s="372"/>
+      <c r="H75" s="373"/>
+      <c r="I75" s="374"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="L2:M5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L8:M12"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K15:K19"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K29:K33"/>
     <mergeCell ref="G65:I70"/>
     <mergeCell ref="G72:I75"/>
     <mergeCell ref="A55:G55"/>
@@ -42224,25 +42284,8 @@
     <mergeCell ref="B62:G62"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B71:F71"/>
-    <mergeCell ref="L2:M5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L8:M12"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K15:K19"/>
-    <mergeCell ref="K21:K27"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B58:G58"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -42276,23 +42319,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25">
-      <c r="A1" s="409" t="s">
+      <c r="A1" s="410" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="410"/>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="410"/>
-      <c r="O1" s="410"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
     </row>
     <row r="2" spans="1:15" ht="18.75">
       <c r="A2" s="217"/>
@@ -42594,35 +42637,35 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="206"/>
-      <c r="B12" s="413" t="s">
+      <c r="B12" s="414" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="413"/>
-      <c r="D12" s="414"/>
+      <c r="C12" s="414"/>
+      <c r="D12" s="415"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="248"/>
-      <c r="B13" s="415" t="s">
+      <c r="B13" s="416" t="s">
         <v>340</v>
       </c>
-      <c r="C13" s="416"/>
-      <c r="D13" s="416"/>
+      <c r="C13" s="417"/>
+      <c r="D13" s="417"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="214"/>
-      <c r="B14" s="411" t="s">
+      <c r="B14" s="412" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="411"/>
-      <c r="D14" s="411"/>
+      <c r="C14" s="412"/>
+      <c r="D14" s="412"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="215"/>
-      <c r="B15" s="412" t="s">
+      <c r="B15" s="413" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="411"/>
-      <c r="D15" s="411"/>
+      <c r="C15" s="412"/>
+      <c r="D15" s="412"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -42632,7 +42675,7 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -42654,26 +42697,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="418" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
+      <c r="B1" s="418"/>
+      <c r="C1" s="418"/>
+      <c r="D1" s="418"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="417"/>
-      <c r="B2" s="417"/>
-      <c r="C2" s="417"/>
-      <c r="D2" s="417"/>
+      <c r="A2" s="418"/>
+      <c r="B2" s="418"/>
+      <c r="C2" s="418"/>
+      <c r="D2" s="418"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="370" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
+      <c r="B3" s="370"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="57" t="s">
@@ -42832,21 +42875,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B593062B-348E-48F9-BB85-A40B3DCE8524}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="57" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="57" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="57" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="57" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="57" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="57" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" style="57" bestFit="1" customWidth="1"/>
@@ -42874,10 +42917,10 @@
       <c r="E1" s="266" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="418" t="s">
+      <c r="F1" s="419" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="419"/>
+      <c r="G1" s="420"/>
       <c r="H1" s="267" t="s">
         <v>389</v>
       </c>
@@ -42905,52 +42948,51 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="268">
-        <v>1200</v>
+        <v>1350</v>
       </c>
       <c r="B2" s="268">
-        <f>E2</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C2" s="268">
-        <v>1200</v>
+        <v>20000</v>
       </c>
       <c r="D2" s="268">
         <v>0</v>
       </c>
       <c r="E2" s="268">
-        <f>A2/2</f>
-        <v>600</v>
+        <f>A2-B2</f>
+        <v>850</v>
       </c>
       <c r="F2" s="269">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="270">
         <f>F2*12</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H2" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="268">
         <f>C2+(E2*G2)</f>
-        <v>30000</v>
+        <v>50600</v>
       </c>
       <c r="J2" s="268">
         <f>L2/G2</f>
-        <v>39.823305725656688</v>
+        <v>59.590636905856321</v>
       </c>
       <c r="K2" s="268">
         <f>L2/12</f>
-        <v>159.29322290262675</v>
+        <v>178.77191071756897</v>
       </c>
       <c r="L2" s="268">
         <f>N2-I2</f>
-        <v>1911.5186748315209</v>
+        <v>2145.2629286108277</v>
       </c>
       <c r="M2" s="268"/>
       <c r="N2" s="268">
         <f>C2*(1+(H2/100)/12)^(12*F2) + E2 * ((1 + (H2/100)/12)^(12*F2) - 1) / ((H2/100)/12)</f>
-        <v>31911.518674831521</v>
+        <v>52745.262928610828</v>
       </c>
       <c r="O2" s="29"/>
     </row>
@@ -42964,53 +43006,53 @@
       </c>
       <c r="C3" s="268">
         <f>N2</f>
-        <v>31911.518674831521</v>
+        <v>52745.262928610828</v>
       </c>
       <c r="D3" s="268">
         <f>C3-L2</f>
-        <v>30000</v>
+        <v>50600</v>
       </c>
       <c r="E3" s="268">
         <f>A3/2</f>
         <v>800</v>
       </c>
       <c r="F3" s="269">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="270">
         <f>F3*12</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H3" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="268">
         <f>C3+(E3*G3)</f>
-        <v>89511.518674831517</v>
+        <v>119945.26292861083</v>
       </c>
       <c r="J3" s="268">
         <f>L3/G3</f>
-        <v>162.6171431977879</v>
+        <v>152.2171941557433</v>
       </c>
       <c r="K3" s="268">
         <f t="shared" ref="K3:K5" si="1">L3/12</f>
-        <v>975.70285918672744</v>
+        <v>1065.5203590902031</v>
       </c>
       <c r="L3" s="268">
         <f>N3-I3</f>
-        <v>11708.434310240729</v>
+        <v>12786.244309082438</v>
       </c>
       <c r="M3" s="268">
         <f>O3-I3</f>
-        <v>9420.4449617403152</v>
+        <v>10318.892125708822</v>
       </c>
       <c r="N3" s="268">
         <f>C3*(1+(H3/100)/12)^(12*F3) + E3 * ((1 + (H3/100)/12)^(12*F3) - 1) / ((H3/100)/12)</f>
-        <v>101219.95298507225</v>
+        <v>132731.50723769327</v>
       </c>
       <c r="O3" s="268">
         <f>D3*(1+(H3/100)/12)^(12*F3) + E3 * ((1 + (H3/100)/12)^(12*F3) - 1) / ((H3/100)/12)</f>
-        <v>98931.963636571832</v>
+        <v>130264.15505431965</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -43023,11 +43065,11 @@
       </c>
       <c r="C4" s="268">
         <f>N3</f>
-        <v>101219.95298507225</v>
+        <v>132731.50723769327</v>
       </c>
       <c r="D4" s="268">
         <f t="shared" ref="D4" si="2">C4-L3</f>
-        <v>89511.518674831517</v>
+        <v>119945.26292861083</v>
       </c>
       <c r="E4" s="268">
         <f>A4/2</f>
@@ -43041,35 +43083,35 @@
         <v>120</v>
       </c>
       <c r="H4" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="268">
-        <f t="shared" ref="I4:I5" si="4">C4+(E4*G4)</f>
-        <v>251219.95298507225</v>
+        <f>C4+(E4*G4)</f>
+        <v>282731.50723769329</v>
       </c>
       <c r="J4" s="268">
         <f>L4/G4</f>
-        <v>500.3193601436372</v>
+        <v>377.1642471132111</v>
       </c>
       <c r="K4" s="268">
         <f t="shared" si="1"/>
-        <v>5003.1936014363719</v>
+        <v>3771.642471132111</v>
       </c>
       <c r="L4" s="268">
         <f>N4-I4</f>
-        <v>60038.323217236466</v>
+        <v>45259.709653585334</v>
       </c>
       <c r="M4" s="268">
-        <f t="shared" ref="M4" si="5">O4-I4</f>
-        <v>44239.505848662375</v>
+        <f t="shared" ref="M4" si="4">O4-I4</f>
+        <v>29645.155342106009</v>
       </c>
       <c r="N4" s="268">
         <f>C4*(1+(H4/100)/12)^(12*F4) + E4 * ((1 + (H4/100)/12)^(12*F4) - 1) / ((H4/100)/12)</f>
-        <v>311258.27620230871</v>
+        <v>327991.21689127863</v>
       </c>
       <c r="O4" s="268">
         <f>D4*(1+(H4/100)/12)^(12*F4) + E4 * ((1 + (H4/100)/12)^(12*F4) - 1) / ((H4/100)/12)</f>
-        <v>295459.45883373462</v>
+        <v>312376.6625797993</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -43081,12 +43123,12 @@
         <v>2500</v>
       </c>
       <c r="C5" s="268">
-        <f>N4</f>
-        <v>311258.27620230871</v>
+        <f>N4+200000</f>
+        <v>527991.21689127863</v>
       </c>
       <c r="D5" s="268">
         <f>C5-L4</f>
-        <v>251219.95298507225</v>
+        <v>482731.50723769329</v>
       </c>
       <c r="E5" s="268">
         <f>A5/2</f>
@@ -43100,35 +43142,35 @@
         <v>240</v>
       </c>
       <c r="H5" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="268">
-        <f t="shared" si="4"/>
-        <v>911258.27620230871</v>
+        <f t="shared" ref="I4:I5" si="5">C5+(E5*G5)</f>
+        <v>1127991.2168912785</v>
       </c>
       <c r="J5" s="268">
         <f>L5/G5</f>
-        <v>1984.2574180962586</v>
+        <v>1651.7041031165757</v>
       </c>
       <c r="K5" s="268">
         <f t="shared" si="1"/>
-        <v>39685.148361925174</v>
+        <v>33034.082062331516</v>
       </c>
       <c r="L5" s="268">
         <f>N5-I5</f>
-        <v>476221.78034310206</v>
+        <v>396408.98474797816</v>
       </c>
       <c r="M5" s="268">
         <f>O5-I5</f>
-        <v>366906.70343489433</v>
+        <v>328911.90987786744</v>
       </c>
       <c r="N5" s="268">
         <f>C5*(1+(H5/100)/12)^(12*F5) + E5 * ((1 + (H5/100)/12)^(12*F5) - 1) / ((H5/100)/12)</f>
-        <v>1387480.0565454108</v>
+        <v>1524400.2016392567</v>
       </c>
       <c r="O5" s="268">
         <f t="shared" ref="O5" si="6">D5*(1+(H5/100)/12)^(12*F5) + E5 * ((1 + (H5/100)/12)^(12*F5) - 1) / ((H5/100)/12)</f>
-        <v>1278164.979637203</v>
+        <v>1456903.126769146</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -43138,28 +43180,160 @@
       <c r="B8" s="278" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="278" t="s">
+      <c r="C8" s="423" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="278" t="s">
         <v>410</v>
       </c>
-      <c r="D8" s="278" t="s">
+      <c r="E8" s="278" t="s">
         <v>411</v>
       </c>
-      <c r="E8" s="278" t="s">
+      <c r="F8" s="57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="42" customHeight="1">
+      <c r="A10" s="421" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="42" customHeight="1">
-      <c r="A10" s="420" t="s">
-        <v>413</v>
-      </c>
-      <c r="B10" s="420"/>
-      <c r="C10" s="420"/>
+      <c r="B10" s="421"/>
+      <c r="C10" s="421"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="D13" s="57" t="s">
+        <v>432</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" s="422">
+        <v>45908</v>
+      </c>
+      <c r="C14" s="422">
+        <v>45930</v>
+      </c>
+      <c r="D14" s="57">
+        <v>1056</v>
+      </c>
+      <c r="F14" s="57">
+        <f>NETWORKDAYS(B14,C14)</f>
+        <v>17</v>
+      </c>
+      <c r="G14" s="57">
+        <f>D14/F14</f>
+        <v>62.117647058823529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="B15" s="422">
+        <v>45931</v>
+      </c>
+      <c r="C15" s="422">
+        <v>45961</v>
+      </c>
+      <c r="E15" s="57">
+        <f>F15*G15</f>
+        <v>1428.7058823529412</v>
+      </c>
+      <c r="F15" s="57">
+        <f>NETWORKDAYS(B15,C15)</f>
+        <v>23</v>
+      </c>
+      <c r="G15" s="57">
+        <v>62.117647058823529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="422">
+        <v>45962</v>
+      </c>
+      <c r="C16" s="422">
+        <v>45991</v>
+      </c>
+      <c r="E16" s="57">
+        <f t="shared" ref="E16:E17" si="7">F16*G16</f>
+        <v>1242.3529411764705</v>
+      </c>
+      <c r="F16" s="57">
+        <f>NETWORKDAYS(B16,C16)</f>
+        <v>20</v>
+      </c>
+      <c r="G16" s="57">
+        <v>62.117647058823529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="422">
+        <v>45992</v>
+      </c>
+      <c r="C17" s="422">
+        <v>46022</v>
+      </c>
+      <c r="E17" s="57">
+        <f t="shared" si="7"/>
+        <v>1428.7058823529405</v>
+      </c>
+      <c r="F17" s="57">
+        <f>NETWORKDAYS(B17,C17)</f>
+        <v>23</v>
+      </c>
+      <c r="G17" s="57">
+        <v>62.117647058823501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E20" s="57">
+        <f>SUM(E14:E17)</f>
+        <v>4099.7647058823522</v>
+      </c>
+      <c r="F20" s="57">
+        <f>SUM(F14:F17)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="57">
+        <f>AVERAGE(E14:E17)</f>
+        <v>1366.5882352941173</v>
+      </c>
+      <c r="F21" s="57">
+        <f>AVERAGE(F14:F17)</f>
+        <v>20.75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A10:C10"/>
   </mergeCells>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
